--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14431</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6000</v>
+        <v>9360</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2067</v>
+        <v>6300</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1925</v>
+        <v>7500</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="3">
@@ -1884,7 +1884,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="4">
@@ -1895,7 +1895,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="5">
@@ -1906,7 +1906,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="6">
@@ -1917,7 +1917,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="7">
@@ -1928,7 +1928,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="8">
@@ -1939,7 +1939,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="9">
@@ -1950,7 +1950,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="10">
@@ -1961,7 +1961,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="11">
@@ -1972,7 +1972,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="12">
@@ -1983,7 +1983,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="13">
@@ -1994,7 +1994,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="14">
@@ -2005,7 +2005,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="15">
@@ -2016,7 +2016,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="16">
@@ -2027,7 +2027,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="17">
@@ -2038,7 +2038,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="18">
@@ -2049,7 +2049,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="19">
@@ -2060,7 +2060,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="20">
@@ -2071,7 +2071,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="21">
@@ -2082,7 +2082,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="22">
@@ -2093,7 +2093,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="23">
@@ -2104,7 +2104,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="24">
@@ -2115,7 +2115,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="25">
@@ -2126,7 +2126,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="26">
@@ -2137,7 +2137,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="27">
@@ -2148,7 +2148,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="28">
@@ -2159,7 +2159,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="29">
@@ -2170,7 +2170,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="30">
@@ -2181,7 +2181,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="31">
@@ -2192,7 +2192,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="32">
@@ -2203,7 +2203,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="33">
@@ -2214,7 +2214,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="34">
@@ -2225,7 +2225,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="35">
@@ -2236,7 +2236,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="36">
@@ -2247,7 +2247,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="37">
@@ -2258,7 +2258,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="38">
@@ -2269,7 +2269,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="39">
@@ -2280,7 +2280,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="40">
@@ -2291,7 +2291,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="41">
@@ -2302,7 +2302,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="42">
@@ -2313,7 +2313,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="43">
@@ -2324,7 +2324,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="44">
@@ -2335,7 +2335,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="45">
@@ -2346,7 +2346,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="46">
@@ -2357,7 +2357,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="47">
@@ -2368,7 +2368,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="48">
@@ -2379,7 +2379,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="49">
@@ -2390,7 +2390,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="50">
@@ -2401,7 +2401,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="51">
@@ -2412,7 +2412,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="52">
@@ -2423,7 +2423,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="53">
@@ -2434,7 +2434,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="54">
@@ -2445,7 +2445,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="55">
@@ -2456,7 +2456,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="56">
@@ -2467,7 +2467,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="57">
@@ -2478,7 +2478,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="58">
@@ -2489,7 +2489,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="59">
@@ -2500,7 +2500,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="60">
@@ -2511,7 +2511,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="61">
@@ -2522,7 +2522,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="62">
@@ -2533,7 +2533,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="63">
@@ -2544,7 +2544,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="64">
@@ -2555,7 +2555,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="65">
@@ -2566,7 +2566,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="66">
@@ -2577,7 +2577,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="67">
@@ -2588,7 +2588,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="68">
@@ -2599,7 +2599,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="69">
@@ -2610,7 +2610,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="70">
@@ -2621,7 +2621,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="71">
@@ -2632,7 +2632,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="72">
@@ -2643,7 +2643,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="73">
@@ -2654,7 +2654,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="74">
@@ -2665,7 +2665,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="75">
@@ -2676,7 +2676,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="76">
@@ -2687,7 +2687,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="77">
@@ -2698,7 +2698,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="78">
@@ -2709,7 +2709,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="79">
@@ -2720,7 +2720,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="80">
@@ -2731,7 +2731,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="81">
@@ -2742,7 +2742,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="82">
@@ -2753,7 +2753,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="83">
@@ -2764,7 +2764,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="84">
@@ -2775,7 +2775,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="85">
@@ -2786,7 +2786,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="86">
@@ -2797,7 +2797,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="87">
@@ -2808,7 +2808,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="88">
@@ -2819,7 +2819,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="89">
@@ -2830,7 +2830,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="90">
@@ -2841,7 +2841,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="91">
@@ -2852,7 +2852,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="92">
@@ -2863,7 +2863,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="93">
@@ -2874,7 +2874,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
     <row r="94">
@@ -2885,7 +2885,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>5517.497488</v>
+        <v>744.9619962</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>90820288.98431814</v>
+        <v>1217650.751395741</v>
       </c>
     </row>
     <row r="3">
@@ -5061,7 +5061,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>92737993.08992144</v>
+        <v>1123739.308889679</v>
       </c>
     </row>
     <row r="4">
@@ -5072,7 +5072,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>30850814.5013338</v>
+        <v>386633.3291589504</v>
       </c>
     </row>
     <row r="5">
@@ -5083,7 +5083,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>39768774.98738331</v>
+        <v>799999.433359605</v>
       </c>
     </row>
     <row r="6">
@@ -5094,7 +5094,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>61453719.38606102</v>
+        <v>818302.8365203113</v>
       </c>
     </row>
     <row r="7">
@@ -5105,7 +5105,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>87211706.35290408</v>
+        <v>1005508.060376935</v>
       </c>
     </row>
     <row r="8">
@@ -5116,7 +5116,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>89030583.55952893</v>
+        <v>954017.7882545816</v>
       </c>
     </row>
     <row r="9">
@@ -5127,7 +5127,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>37109425.61687993</v>
+        <v>404671.7770808278</v>
       </c>
     </row>
     <row r="10">
@@ -5138,7 +5138,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>48697273.36694923</v>
+        <v>697911.4566525999</v>
       </c>
     </row>
     <row r="11">
@@ -5149,7 +5149,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>27560089.1165062</v>
+        <v>351485.446196335</v>
       </c>
     </row>
     <row r="12">
@@ -5160,7 +5160,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>24500187.88325666</v>
+        <v>543606.5465478825</v>
       </c>
     </row>
     <row r="13">
@@ -5171,7 +5171,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>46045513.12293515</v>
+        <v>575377.3209849072</v>
       </c>
     </row>
     <row r="14">
@@ -5182,7 +5182,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>22505210.47345441</v>
+        <v>464994.7295207384</v>
       </c>
     </row>
     <row r="15">
@@ -5193,7 +5193,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>93315019.10695668</v>
+        <v>709024.0822646281</v>
       </c>
     </row>
     <row r="16">
@@ -5204,7 +5204,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>77410362.36716977</v>
+        <v>999873.2252078396</v>
       </c>
     </row>
     <row r="17">
@@ -5215,7 +5215,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>81881470.0772613</v>
+        <v>841283.5512395857</v>
       </c>
     </row>
     <row r="18">
@@ -5226,7 +5226,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>146433525.6601531</v>
+        <v>1221125.383686164</v>
       </c>
     </row>
     <row r="19">
@@ -5237,7 +5237,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>78302768.6796416</v>
+        <v>871400.9477447669</v>
       </c>
     </row>
     <row r="20">
@@ -5248,7 +5248,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>71368892.77199101</v>
+        <v>887679.5994952405</v>
       </c>
     </row>
     <row r="21">
@@ -5259,7 +5259,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>118358336.5340416</v>
+        <v>1213217.833830066</v>
       </c>
     </row>
     <row r="22">
@@ -5270,7 +5270,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>105815656.9540649</v>
+        <v>1248583.619157851</v>
       </c>
     </row>
     <row r="23">
@@ -5281,7 +5281,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>113772740.5665568</v>
+        <v>1247948.420264223</v>
       </c>
     </row>
     <row r="24">
@@ -5292,7 +5292,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>44296783.83548767</v>
+        <v>817296.7947412585</v>
       </c>
     </row>
     <row r="25">
@@ -5303,7 +5303,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>92895130.67036076</v>
+        <v>1025071.789030407</v>
       </c>
     </row>
     <row r="26">
@@ -5314,7 +5314,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>90150852.26442504</v>
+        <v>1128667.216926709</v>
       </c>
     </row>
     <row r="27">
@@ -5325,7 +5325,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>74845790.35643305</v>
+        <v>833261.1907781613</v>
       </c>
     </row>
     <row r="28">
@@ -5336,7 +5336,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>61956372.79943986</v>
+        <v>662102.6177296393</v>
       </c>
     </row>
     <row r="29">
@@ -5347,7 +5347,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>44547433.49015647</v>
+        <v>950855.4554416385</v>
       </c>
     </row>
     <row r="30">
@@ -5358,7 +5358,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>70018675.34956679</v>
+        <v>742836.1091954594</v>
       </c>
     </row>
     <row r="31">
@@ -5369,7 +5369,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>115276916.6049986</v>
+        <v>1138293.313915571</v>
       </c>
     </row>
     <row r="32">
@@ -5380,7 +5380,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>113987425.5227448</v>
+        <v>1244155.362553666</v>
       </c>
     </row>
     <row r="33">
@@ -5391,7 +5391,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>90154536.46035706</v>
+        <v>1171413.496432634</v>
       </c>
     </row>
     <row r="34">
@@ -5402,7 +5402,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>85686481.97311452</v>
+        <v>932669.9678934494</v>
       </c>
     </row>
     <row r="35">
@@ -5413,7 +5413,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>37254387.84279331</v>
+        <v>857209.1826827818</v>
       </c>
     </row>
     <row r="36">
@@ -5424,7 +5424,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>117932691.5915386</v>
+        <v>1214897.382975979</v>
       </c>
     </row>
     <row r="37">
@@ -5435,7 +5435,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>77702869.65086409</v>
+        <v>827435.2605797661</v>
       </c>
     </row>
     <row r="38">
@@ -5446,7 +5446,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>143968374.0357579</v>
+        <v>1209287.379708193</v>
       </c>
     </row>
     <row r="39">
@@ -5457,7 +5457,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>74225645.01995677</v>
+        <v>1055726.678027975</v>
       </c>
     </row>
     <row r="40">
@@ -5468,7 +5468,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>72514194.75486384</v>
+        <v>654577.8571000271</v>
       </c>
     </row>
     <row r="41">
@@ -5479,7 +5479,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>36284927.1924156</v>
+        <v>792820.3449176075</v>
       </c>
     </row>
     <row r="42">
@@ -5490,7 +5490,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>77129027.58173235</v>
+        <v>748660.773298783</v>
       </c>
     </row>
     <row r="43">
@@ -5501,7 +5501,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>79990631.61446644</v>
+        <v>1174870.304262706</v>
       </c>
     </row>
     <row r="44">
@@ -5512,7 +5512,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>85084978.58475266</v>
+        <v>805358.7830554445</v>
       </c>
     </row>
     <row r="45">
@@ -5523,7 +5523,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>55057588.43605342</v>
+        <v>1177072.677894721</v>
       </c>
     </row>
     <row r="46">
@@ -5534,7 +5534,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>99015276.55866593</v>
+        <v>970094.1621816237</v>
       </c>
     </row>
     <row r="47">
@@ -5545,7 +5545,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>111056465.45484</v>
+        <v>1224419.321999862</v>
       </c>
     </row>
     <row r="48">
@@ -5556,7 +5556,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>85387770.03552029</v>
+        <v>1128555.873966309</v>
       </c>
     </row>
     <row r="49">
@@ -5567,7 +5567,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>149733727.1573069</v>
+        <v>1240491.874427855</v>
       </c>
     </row>
     <row r="50">
@@ -5578,7 +5578,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>109226023.9401527</v>
+        <v>1227500.19433118</v>
       </c>
     </row>
     <row r="51">
@@ -5589,7 +5589,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>70141659.22292022</v>
+        <v>925342.8887480741</v>
       </c>
     </row>
     <row r="52">
@@ -5600,7 +5600,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>84917762.16837649</v>
+        <v>898463.5724246148</v>
       </c>
     </row>
     <row r="53">
@@ -5611,7 +5611,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>96260844.56456825</v>
+        <v>1135572.623673117</v>
       </c>
     </row>
     <row r="54">
@@ -5622,7 +5622,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>92084435.3356048</v>
+        <v>1242894.074627878</v>
       </c>
     </row>
     <row r="55">
@@ -5633,7 +5633,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>97768215.65779346</v>
+        <v>1143802.408527781</v>
       </c>
     </row>
     <row r="56">
@@ -5644,7 +5644,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>82235960.54689595</v>
+        <v>711190.6218926694</v>
       </c>
     </row>
     <row r="57">
@@ -5655,7 +5655,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>7664615.246720432</v>
+        <v>291185.551367911</v>
       </c>
     </row>
     <row r="58">
@@ -5666,7 +5666,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>108990705.2507551</v>
+        <v>1158258.105474943</v>
       </c>
     </row>
     <row r="59">
@@ -5677,7 +5677,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>91211647.79211295</v>
+        <v>1115626.305934056</v>
       </c>
     </row>
     <row r="60">
@@ -5688,7 +5688,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>122970632.3449224</v>
+        <v>1238747.218005492</v>
       </c>
     </row>
     <row r="61">
@@ -5699,7 +5699,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>68656105.68093862</v>
+        <v>970358.4504305265</v>
       </c>
     </row>
     <row r="62">
@@ -5710,7 +5710,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>131692297.7186443</v>
+        <v>1224670.799349226</v>
       </c>
     </row>
     <row r="63">
@@ -5721,7 +5721,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>156674961.7894516</v>
+        <v>1252670.948607636</v>
       </c>
     </row>
     <row r="64">
@@ -5732,7 +5732,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>109998220.1983242</v>
+        <v>1196312.635044755</v>
       </c>
     </row>
     <row r="65">
@@ -5743,7 +5743,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>93806780.38311219</v>
+        <v>947172.4940458391</v>
       </c>
     </row>
     <row r="66">
@@ -5754,7 +5754,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>100507749.2338307</v>
+        <v>1207927.439887965</v>
       </c>
     </row>
     <row r="67">
@@ -5765,7 +5765,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>49445816.45005297</v>
+        <v>840383.2277716185</v>
       </c>
     </row>
     <row r="68">
@@ -5776,7 +5776,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>21772349.77145866</v>
+        <v>644931.5941905536</v>
       </c>
     </row>
     <row r="69">
@@ -5787,7 +5787,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>82491626.96734375</v>
+        <v>649917.2664035779</v>
       </c>
     </row>
     <row r="70">
@@ -5798,7 +5798,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>26888996.56540864</v>
+        <v>570850.6825823823</v>
       </c>
     </row>
     <row r="71">
@@ -5809,7 +5809,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>19916166.67405971</v>
+        <v>341939.8110550416</v>
       </c>
     </row>
     <row r="72">
@@ -5820,7 +5820,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>27785691.58036966</v>
+        <v>518558.1418517785</v>
       </c>
     </row>
     <row r="73">
@@ -5831,7 +5831,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>88819825.90841569</v>
+        <v>1062399.055521891</v>
       </c>
     </row>
     <row r="74">
@@ -5842,7 +5842,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>50227648.45272173</v>
+        <v>881851.8510889575</v>
       </c>
     </row>
     <row r="75">
@@ -5853,7 +5853,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>127422049.8951015</v>
+        <v>1215546.35645697</v>
       </c>
     </row>
     <row r="76">
@@ -5864,7 +5864,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>109422692.8793703</v>
+        <v>1229704.044237578</v>
       </c>
     </row>
     <row r="77">
@@ -5875,7 +5875,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>109231269.1642228</v>
+        <v>1251254.363894669</v>
       </c>
     </row>
     <row r="78">
@@ -5886,7 +5886,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>151400882.118198</v>
+        <v>1252670.948607636</v>
       </c>
     </row>
     <row r="79">
@@ -5897,7 +5897,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>102630426.1328677</v>
+        <v>1205996.489935601</v>
       </c>
     </row>
     <row r="80">
@@ -5908,7 +5908,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>99000001.52968834</v>
+        <v>1121195.055708656</v>
       </c>
     </row>
     <row r="81">
@@ -5919,7 +5919,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>36260116.0447313</v>
+        <v>887170.8162418955</v>
       </c>
     </row>
     <row r="82">
@@ -5930,7 +5930,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>77337890.55987865</v>
+        <v>875306.359158619</v>
       </c>
     </row>
     <row r="83">
@@ -5941,7 +5941,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>48946527.52252739</v>
+        <v>956382.1078688052</v>
       </c>
     </row>
     <row r="84">
@@ -5952,7 +5952,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>81160551.36109027</v>
+        <v>990145.8857861088</v>
       </c>
     </row>
     <row r="85">
@@ -5963,7 +5963,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>105101385.778633</v>
+        <v>1190502.25686055</v>
       </c>
     </row>
     <row r="86">
@@ -5974,7 +5974,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>148726712.8231242</v>
+        <v>1249891.334752274</v>
       </c>
     </row>
     <row r="87">
@@ -5985,7 +5985,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>91519627.10576133</v>
+        <v>1115900.607501762</v>
       </c>
     </row>
     <row r="88">
@@ -5996,7 +5996,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>27407973.43877785</v>
+        <v>728441.2745300723</v>
       </c>
     </row>
     <row r="89">
@@ -6007,7 +6007,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>41239298.45093381</v>
+        <v>585075.8105043086</v>
       </c>
     </row>
     <row r="90">
@@ -6018,7 +6018,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>75238590.28190516</v>
+        <v>831211.4386957695</v>
       </c>
     </row>
     <row r="91">
@@ -6029,7 +6029,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>148267369.533693</v>
+        <v>1216698.479130977</v>
       </c>
     </row>
     <row r="92">
@@ -6040,7 +6040,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>83733669.75061302</v>
+        <v>1100792.223487519</v>
       </c>
     </row>
     <row r="93">
@@ -6051,7 +6051,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>62036786.29628091</v>
+        <v>880171.2021092187</v>
       </c>
     </row>
     <row r="94">
@@ -6062,7 +6062,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>6089362.649442679</v>
+        <v>362391.5396419826</v>
       </c>
     </row>
   </sheetData>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>783156123.9394679</v>
+        <v>15467307.87667598</v>
       </c>
     </row>
     <row r="3">
@@ -6120,7 +6120,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>799691420.1245725</v>
+        <v>14275993.20384712</v>
       </c>
     </row>
     <row r="4">
@@ -6131,7 +6131,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>266072690.8155323</v>
+        <v>4925426.908090084</v>
       </c>
     </row>
     <row r="5">
@@ -6142,7 +6142,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>342967305.3564434</v>
+        <v>10169187.32794047</v>
       </c>
     </row>
     <row r="6">
@@ -6153,7 +6153,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>529944523.2400429</v>
+        <v>10401375.35706848</v>
       </c>
     </row>
     <row r="7">
@@ -6164,7 +6164,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>752041322.4200311</v>
+        <v>12776169.35510776</v>
       </c>
     </row>
     <row r="8">
@@ -6175,7 +6175,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>767724489.2068154</v>
+        <v>12122988.92202741</v>
       </c>
     </row>
     <row r="9">
@@ -6186,7 +6186,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>320037214.4355026</v>
+        <v>5154253.844520164</v>
       </c>
     </row>
     <row r="10">
@@ -6197,7 +6197,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>419952782.2936708</v>
+        <v>8874149.137438647</v>
       </c>
     </row>
     <row r="11">
@@ -6208,7 +6208,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>237698595.592511</v>
+        <v>4479558.038707823</v>
       </c>
     </row>
     <row r="12">
@@ -6219,7 +6219,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>211314768.6814085</v>
+        <v>6916712.443976915</v>
       </c>
     </row>
     <row r="13">
@@ -6230,7 +6230,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>397088128.1906</v>
+        <v>7319740.964718893</v>
       </c>
     </row>
     <row r="14">
@@ -6241,7 +6241,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>194113187.7611365</v>
+        <v>5919481.344304165</v>
       </c>
     </row>
     <row r="15">
@@ -6252,7 +6252,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>804666794.6207267</v>
+        <v>9015118.476126088</v>
       </c>
     </row>
     <row r="16">
@@ -6263,7 +6263,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>667529783.1566654</v>
+        <v>12704688.58943342</v>
       </c>
     </row>
     <row r="17">
@@ -6274,7 +6274,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>706081658.8322979</v>
+        <v>10692897.47521078</v>
       </c>
     </row>
     <row r="18">
@@ -6285,7 +6285,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>1262678140.68874</v>
+        <v>15511385.36414507</v>
       </c>
     </row>
     <row r="19">
@@ -6296,7 +6296,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>675224506.5767504</v>
+        <v>11074952.05137929</v>
       </c>
     </row>
     <row r="20">
@@ -6307,7 +6307,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>615437550.1277553</v>
+        <v>11281455.07344669</v>
       </c>
     </row>
     <row r="21">
@@ -6318,7 +6318,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>1020601395.743233</v>
+        <v>15411074.05044029</v>
       </c>
     </row>
     <row r="22">
@@ -6329,7 +6329,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>912452843.9391311</v>
+        <v>15859707.12275611</v>
       </c>
     </row>
     <row r="23">
@@ -6340,7 +6340,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>981062351.4839895</v>
+        <v>15851649.29996104</v>
       </c>
     </row>
     <row r="24">
@@ -6351,7 +6351,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>382009807.9059311</v>
+        <v>10388613.20262934</v>
       </c>
     </row>
     <row r="25">
@@ -6362,7 +6362,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>801046330.10614</v>
+        <v>13024345.25761952</v>
       </c>
     </row>
     <row r="26">
@@ -6373,7 +6373,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>777383943.3364885</v>
+        <v>14338506.23734127</v>
       </c>
     </row>
     <row r="27">
@@ -6384,7 +6384,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>645416904.7091218</v>
+        <v>10591129.73026532</v>
       </c>
     </row>
     <row r="28">
@@ -6395,7 +6395,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>534278624.1289067</v>
+        <v>8419895.7036983</v>
       </c>
     </row>
     <row r="29">
@@ -6406,7 +6406,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>384171020.5072563</v>
+        <v>12082873.11313453</v>
       </c>
     </row>
     <row r="30">
@@ -6417,7 +6417,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>603795376.0672009</v>
+        <v>9444041.32861218</v>
       </c>
     </row>
     <row r="31">
@@ -6428,7 +6428,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>994032025.0835291</v>
+        <v>14460618.20025957</v>
       </c>
     </row>
     <row r="32">
@@ -6439,7 +6439,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>982913460.4880754</v>
+        <v>15803532.42320045</v>
       </c>
     </row>
     <row r="33">
@@ -6450,7 +6450,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>777415710.109455</v>
+        <v>14880764.6525601</v>
       </c>
     </row>
     <row r="34">
@@ -6461,7 +6461,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>738890160.6767397</v>
+        <v>11852180.90385124</v>
       </c>
     </row>
     <row r="35">
@@ -6472,7 +6472,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>321287143.10496</v>
+        <v>10894922.25415206</v>
       </c>
     </row>
     <row r="36">
@@ -6483,7 +6483,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>1016931296.079049</v>
+        <v>15432379.99024772</v>
       </c>
     </row>
     <row r="37">
@@ -6494,7 +6494,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>670051910.81862</v>
+        <v>10517224.82642171</v>
       </c>
     </row>
     <row r="38">
@@ -6505,7 +6505,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>1241422508.951047</v>
+        <v>15361214.22994007</v>
       </c>
     </row>
     <row r="39">
@@ -6516,7 +6516,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>640069736.2974337</v>
+        <v>13413218.20091805</v>
       </c>
     </row>
     <row r="40">
@@ -6527,7 +6527,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>625312852.2939526</v>
+        <v>8324440.267083074</v>
       </c>
     </row>
     <row r="41">
@@ -6538,7 +6538,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>312928022.9742992</v>
+        <v>10078116.91979573</v>
       </c>
     </row>
     <row r="42">
@@ -6549,7 +6549,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>665103989.7348396</v>
+        <v>9517930.171392344</v>
       </c>
     </row>
     <row r="43">
@@ -6560,7 +6560,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>689778010.146796</v>
+        <v>14924616.02763454</v>
       </c>
     </row>
     <row r="44">
@@ -6571,7 +6571,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>733703731.4179995</v>
+        <v>10237173.41950819</v>
       </c>
     </row>
     <row r="45">
@@ -6582,7 +6582,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>474794242.553848</v>
+        <v>14952554.26341131</v>
       </c>
     </row>
     <row r="46">
@@ -6593,7 +6593,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>853816945.0636232</v>
+        <v>12326925.9464633</v>
       </c>
     </row>
     <row r="47">
@@ -6604,7 +6604,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>957641421.5494753</v>
+        <v>15553170.65611573</v>
       </c>
     </row>
     <row r="48">
@@ -6615,7 +6615,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>736314533.7342333</v>
+        <v>14337093.79494978</v>
       </c>
     </row>
     <row r="49">
@@ -6626,7 +6626,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>1291133943.159266</v>
+        <v>15757059.20288194</v>
       </c>
     </row>
     <row r="50">
@@ -6637,7 +6637,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>941858542.1644696</v>
+        <v>15592253.09714176</v>
       </c>
     </row>
     <row r="51">
@@ -6648,7 +6648,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>604855797.6233464</v>
+        <v>11759233.15795435</v>
       </c>
     </row>
     <row r="52">
@@ -6659,7 +6659,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>732261917.2383703</v>
+        <v>11418255.28478753</v>
       </c>
     </row>
     <row r="53">
@@ -6670,7 +6670,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>830067009.5490379</v>
+        <v>14426104.8532215</v>
       </c>
     </row>
     <row r="54">
@@ -6681,7 +6681,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>794056155.012441</v>
+        <v>15787532.34086164</v>
       </c>
     </row>
     <row r="55">
@@ -6692,7 +6692,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>843064232.3294015</v>
+        <v>14530503.88266835</v>
       </c>
     </row>
     <row r="56">
@@ -6703,7 +6703,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>709138233.0415717</v>
+        <v>9042602.139237579</v>
       </c>
     </row>
     <row r="57">
@@ -6714,7 +6714,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>66150987.06485293</v>
+        <v>3714623.03651678</v>
       </c>
     </row>
     <row r="58">
@@ -6725,7 +6725,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>939829519.9520694</v>
+        <v>14713881.7908291</v>
       </c>
     </row>
     <row r="59">
@@ -6736,7 +6736,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>786530593.3284775</v>
+        <v>14173075.61250979</v>
       </c>
     </row>
     <row r="60">
@@ -6747,7 +6747,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>1060370657.905937</v>
+        <v>15734927.34397805</v>
       </c>
     </row>
     <row r="61">
@@ -6758,7 +6758,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>592046695.4559559</v>
+        <v>12330278.57805294</v>
       </c>
     </row>
     <row r="62">
@@ -6769,7 +6769,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>1135572728.840907</v>
+        <v>15556360.77489346</v>
       </c>
     </row>
     <row r="63">
@@ -6780,7 +6780,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>1350984349.797839</v>
+        <v>15911556.98701414</v>
       </c>
     </row>
     <row r="64">
@@ -6791,7 +6791,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>948516761.1277536</v>
+        <v>15196622.95883098</v>
       </c>
     </row>
     <row r="65">
@@ -6802,7 +6802,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>808906978.6667625</v>
+        <v>12036152.86442794</v>
       </c>
     </row>
     <row r="66">
@@ -6813,7 +6813,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>866685707.0691472</v>
+        <v>15343962.69787148</v>
       </c>
     </row>
     <row r="67">
@@ -6824,7 +6824,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>426407053.0804238</v>
+        <v>10681476.41161022</v>
       </c>
     </row>
     <row r="68">
@@ -6835,7 +6835,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>187794137.4266683</v>
+        <v>8202072.489149316</v>
       </c>
     </row>
     <row r="69">
@@ -6846,7 +6846,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>711342702.4246937</v>
+        <v>8265318.290755522</v>
       </c>
     </row>
     <row r="70">
@@ -6857,7 +6857,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>231912137.6777616</v>
+        <v>7262318.24174059</v>
       </c>
     </row>
     <row r="71">
@@ -6868,7 +6868,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>171789302.6872543</v>
+        <v>4358466.775472678</v>
       </c>
     </row>
     <row r="72">
@@ -6879,7 +6879,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>239643840.1947267</v>
+        <v>6598960.621098698</v>
       </c>
     </row>
     <row r="73">
@@ -6890,7 +6890,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>765907243.1706558</v>
+        <v>13497860.72156341</v>
       </c>
     </row>
     <row r="74">
@@ -6901,7 +6901,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>433148355.7106616</v>
+        <v>11207527.10470622</v>
       </c>
     </row>
     <row r="75">
@@ -6912,7 +6912,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>1098752756.281133</v>
+        <v>15440612.55072757</v>
       </c>
     </row>
     <row r="76">
@@ -6923,7 +6923,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>943554309.0718211</v>
+        <v>15620210.06021401</v>
       </c>
     </row>
     <row r="77">
@@ -6934,7 +6934,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>941903768.8150795</v>
+        <v>15893586.88551395</v>
       </c>
     </row>
     <row r="78">
@@ -6945,7 +6945,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>1305508893.384515</v>
+        <v>15911556.98701414</v>
       </c>
     </row>
     <row r="79">
@@ -6956,7 +6956,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>884988369.6792443</v>
+        <v>15319467.61027232</v>
       </c>
     </row>
     <row r="80">
@@ -6967,7 +6967,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>853685236.9822551</v>
+        <v>14243718.05116007</v>
       </c>
     </row>
     <row r="81">
@@ -6978,7 +6978,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>312714090.2437733</v>
+        <v>11275000.89769531</v>
       </c>
     </row>
     <row r="82">
@@ -6989,7 +6989,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>666904899.0595165</v>
+        <v>11124494.19232186</v>
       </c>
     </row>
     <row r="83">
@@ -7000,7 +7000,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>422101962.2822887</v>
+        <v>12152981.52540478</v>
       </c>
     </row>
     <row r="84">
@@ -7011,7 +7011,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>699865577.6013912</v>
+        <v>12581292.31448059</v>
       </c>
     </row>
     <row r="85">
@@ -7022,7 +7022,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>906294080.7557282</v>
+        <v>15122915.3402404</v>
       </c>
     </row>
     <row r="86">
@@ -7033,7 +7033,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>1282451018.494453</v>
+        <v>15876296.16381384</v>
       </c>
     </row>
     <row r="87">
@@ -7044,7 +7044,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>789186127.7016801</v>
+        <v>14176555.26816908</v>
       </c>
     </row>
     <row r="88">
@@ -7055,7 +7055,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>236386986.6856484</v>
+        <v>9261435.489619618</v>
       </c>
     </row>
     <row r="89">
@@ -7066,7 +7066,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>355646811.5148263</v>
+        <v>7442771.263907343</v>
       </c>
     </row>
     <row r="90">
@@ -7077,7 +7077,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>648803800.0545458</v>
+        <v>10565127.57689347</v>
       </c>
     </row>
     <row r="91">
@@ -7088,7 +7088,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>1278490356.722289</v>
+        <v>15455227.81602237</v>
       </c>
     </row>
     <row r="92">
@@ -7099,7 +7099,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>722052146.7210902</v>
+        <v>13984897.69078986</v>
       </c>
     </row>
     <row r="93">
@@ -7110,7 +7110,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>534971984.9991585</v>
+        <v>11186207.21294427</v>
       </c>
     </row>
     <row r="94">
@@ -7121,7 +7121,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>52568459.81978106</v>
+        <v>4617907.41124785</v>
       </c>
     </row>
   </sheetData>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -22457,7 +22457,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -22473,7 +22473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -22481,7 +22481,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -22489,7 +22489,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -22497,7 +22497,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -22505,7 +22505,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -22513,7 +22513,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -22560,7 +22560,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>783156123.9394679</v>
+        <v>15467307.87667598</v>
       </c>
     </row>
     <row r="3">
@@ -22571,7 +22571,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>799691420.1245725</v>
+        <v>14275993.20384712</v>
       </c>
     </row>
     <row r="4">
@@ -22582,7 +22582,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>266072690.8155323</v>
+        <v>4925426.908090084</v>
       </c>
     </row>
     <row r="5">
@@ -22593,7 +22593,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>342967305.3564434</v>
+        <v>10169187.32794047</v>
       </c>
     </row>
     <row r="6">
@@ -22604,7 +22604,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>529944523.2400429</v>
+        <v>10401375.35706848</v>
       </c>
     </row>
     <row r="7">
@@ -22615,7 +22615,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>752041322.4200311</v>
+        <v>12776169.35510776</v>
       </c>
     </row>
     <row r="8">
@@ -22626,7 +22626,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>767724489.2068154</v>
+        <v>12122988.92202741</v>
       </c>
     </row>
     <row r="9">
@@ -22637,7 +22637,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>320037214.4355026</v>
+        <v>5154253.844520164</v>
       </c>
     </row>
     <row r="10">
@@ -22648,7 +22648,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>419952782.2936708</v>
+        <v>8874149.137438647</v>
       </c>
     </row>
     <row r="11">
@@ -22659,7 +22659,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>237698595.592511</v>
+        <v>4479558.038707823</v>
       </c>
     </row>
     <row r="12">
@@ -22670,7 +22670,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>211314768.6814085</v>
+        <v>6916712.443976915</v>
       </c>
     </row>
     <row r="13">
@@ -22681,7 +22681,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>397088128.1906</v>
+        <v>7319740.964718893</v>
       </c>
     </row>
     <row r="14">
@@ -22692,7 +22692,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>194113187.7611365</v>
+        <v>5919481.344304165</v>
       </c>
     </row>
     <row r="15">
@@ -22703,7 +22703,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>804666794.6207267</v>
+        <v>9015118.476126088</v>
       </c>
     </row>
     <row r="16">
@@ -22714,7 +22714,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>667529783.1566654</v>
+        <v>12704688.58943342</v>
       </c>
     </row>
     <row r="17">
@@ -22725,7 +22725,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>706081658.8322979</v>
+        <v>10692897.47521078</v>
       </c>
     </row>
     <row r="18">
@@ -22736,7 +22736,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>1262678140.68874</v>
+        <v>15511385.36414507</v>
       </c>
     </row>
     <row r="19">
@@ -22747,7 +22747,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>675224506.5767504</v>
+        <v>11074952.05137929</v>
       </c>
     </row>
     <row r="20">
@@ -22758,7 +22758,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>615437550.1277553</v>
+        <v>11281455.07344669</v>
       </c>
     </row>
     <row r="21">
@@ -22769,7 +22769,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>1020601395.743233</v>
+        <v>15411074.05044029</v>
       </c>
     </row>
     <row r="22">
@@ -22780,7 +22780,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>912452843.9391311</v>
+        <v>15859707.12275611</v>
       </c>
     </row>
     <row r="23">
@@ -22791,7 +22791,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>981062351.4839895</v>
+        <v>15851649.29996104</v>
       </c>
     </row>
     <row r="24">
@@ -22802,7 +22802,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>382009807.9059311</v>
+        <v>10388613.20262934</v>
       </c>
     </row>
     <row r="25">
@@ -22813,7 +22813,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>801046330.10614</v>
+        <v>13024345.25761952</v>
       </c>
     </row>
     <row r="26">
@@ -22824,7 +22824,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>777383943.3364885</v>
+        <v>14338506.23734127</v>
       </c>
     </row>
     <row r="27">
@@ -22835,7 +22835,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>645416904.7091218</v>
+        <v>10591129.73026532</v>
       </c>
     </row>
     <row r="28">
@@ -22846,7 +22846,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>534278624.1289067</v>
+        <v>8419895.7036983</v>
       </c>
     </row>
     <row r="29">
@@ -22857,7 +22857,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>384171020.5072563</v>
+        <v>12082873.11313453</v>
       </c>
     </row>
     <row r="30">
@@ -22868,7 +22868,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>603795376.0672009</v>
+        <v>9444041.32861218</v>
       </c>
     </row>
     <row r="31">
@@ -22879,7 +22879,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>994032025.0835291</v>
+        <v>14460618.20025957</v>
       </c>
     </row>
     <row r="32">
@@ -22890,7 +22890,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>982913460.4880754</v>
+        <v>15803532.42320045</v>
       </c>
     </row>
     <row r="33">
@@ -22901,7 +22901,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>777415710.109455</v>
+        <v>14880764.6525601</v>
       </c>
     </row>
     <row r="34">
@@ -22912,7 +22912,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>738890160.6767397</v>
+        <v>11852180.90385124</v>
       </c>
     </row>
     <row r="35">
@@ -22923,7 +22923,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>321287143.10496</v>
+        <v>10894922.25415206</v>
       </c>
     </row>
     <row r="36">
@@ -22934,7 +22934,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>1016931296.079049</v>
+        <v>15432379.99024772</v>
       </c>
     </row>
     <row r="37">
@@ -22945,7 +22945,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>670051910.81862</v>
+        <v>10517224.82642171</v>
       </c>
     </row>
     <row r="38">
@@ -22956,7 +22956,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>1241422508.951047</v>
+        <v>15361214.22994007</v>
       </c>
     </row>
     <row r="39">
@@ -22967,7 +22967,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>640069736.2974337</v>
+        <v>13413218.20091805</v>
       </c>
     </row>
     <row r="40">
@@ -22978,7 +22978,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>625312852.2939526</v>
+        <v>8324440.267083074</v>
       </c>
     </row>
     <row r="41">
@@ -22989,7 +22989,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>312928022.9742992</v>
+        <v>10078116.91979573</v>
       </c>
     </row>
     <row r="42">
@@ -23000,7 +23000,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>665103989.7348396</v>
+        <v>9517930.171392344</v>
       </c>
     </row>
     <row r="43">
@@ -23011,7 +23011,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>689778010.146796</v>
+        <v>14924616.02763454</v>
       </c>
     </row>
     <row r="44">
@@ -23022,7 +23022,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>733703731.4179995</v>
+        <v>10237173.41950819</v>
       </c>
     </row>
     <row r="45">
@@ -23033,7 +23033,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>474794242.553848</v>
+        <v>14952554.26341131</v>
       </c>
     </row>
     <row r="46">
@@ -23044,7 +23044,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>853816945.0636232</v>
+        <v>12326925.9464633</v>
       </c>
     </row>
     <row r="47">
@@ -23055,7 +23055,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>957641421.5494753</v>
+        <v>15553170.65611573</v>
       </c>
     </row>
     <row r="48">
@@ -23066,7 +23066,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>736314533.7342333</v>
+        <v>14337093.79494978</v>
       </c>
     </row>
     <row r="49">
@@ -23077,7 +23077,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>1291133943.159266</v>
+        <v>15757059.20288194</v>
       </c>
     </row>
     <row r="50">
@@ -23088,7 +23088,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>941858542.1644696</v>
+        <v>15592253.09714176</v>
       </c>
     </row>
     <row r="51">
@@ -23099,7 +23099,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>604855797.6233464</v>
+        <v>11759233.15795435</v>
       </c>
     </row>
     <row r="52">
@@ -23110,7 +23110,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>732261917.2383703</v>
+        <v>11418255.28478753</v>
       </c>
     </row>
     <row r="53">
@@ -23121,7 +23121,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>830067009.5490379</v>
+        <v>14426104.8532215</v>
       </c>
     </row>
     <row r="54">
@@ -23132,7 +23132,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>794056155.012441</v>
+        <v>15787532.34086164</v>
       </c>
     </row>
     <row r="55">
@@ -23143,7 +23143,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>843064232.3294015</v>
+        <v>14530503.88266835</v>
       </c>
     </row>
     <row r="56">
@@ -23154,7 +23154,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>709138233.0415717</v>
+        <v>9042602.139237579</v>
       </c>
     </row>
     <row r="57">
@@ -23165,7 +23165,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>66150987.06485293</v>
+        <v>3714623.03651678</v>
       </c>
     </row>
     <row r="58">
@@ -23176,7 +23176,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>939829519.9520694</v>
+        <v>14713881.7908291</v>
       </c>
     </row>
     <row r="59">
@@ -23187,7 +23187,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>786530593.3284775</v>
+        <v>14173075.61250979</v>
       </c>
     </row>
     <row r="60">
@@ -23198,7 +23198,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>1060370657.905937</v>
+        <v>15734927.34397805</v>
       </c>
     </row>
     <row r="61">
@@ -23209,7 +23209,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>592046695.4559559</v>
+        <v>12330278.57805294</v>
       </c>
     </row>
     <row r="62">
@@ -23220,7 +23220,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>1135572728.840907</v>
+        <v>15556360.77489346</v>
       </c>
     </row>
     <row r="63">
@@ -23231,7 +23231,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>1350984349.797839</v>
+        <v>15911556.98701414</v>
       </c>
     </row>
     <row r="64">
@@ -23242,7 +23242,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>948516761.1277536</v>
+        <v>15196622.95883098</v>
       </c>
     </row>
     <row r="65">
@@ -23253,7 +23253,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>808906978.6667625</v>
+        <v>12036152.86442794</v>
       </c>
     </row>
     <row r="66">
@@ -23264,7 +23264,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>866685707.0691472</v>
+        <v>15343962.69787148</v>
       </c>
     </row>
     <row r="67">
@@ -23275,7 +23275,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>426407053.0804238</v>
+        <v>10681476.41161022</v>
       </c>
     </row>
     <row r="68">
@@ -23286,7 +23286,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>187794137.4266683</v>
+        <v>8202072.489149316</v>
       </c>
     </row>
     <row r="69">
@@ -23297,7 +23297,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>711342702.4246937</v>
+        <v>8265318.290755522</v>
       </c>
     </row>
     <row r="70">
@@ -23308,7 +23308,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>231912137.6777616</v>
+        <v>7262318.24174059</v>
       </c>
     </row>
     <row r="71">
@@ -23319,7 +23319,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>171789302.6872543</v>
+        <v>4358466.775472678</v>
       </c>
     </row>
     <row r="72">
@@ -23330,7 +23330,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>239643840.1947267</v>
+        <v>6598960.621098698</v>
       </c>
     </row>
     <row r="73">
@@ -23341,7 +23341,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>765907243.1706558</v>
+        <v>13497860.72156341</v>
       </c>
     </row>
     <row r="74">
@@ -23352,7 +23352,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>433148355.7106616</v>
+        <v>11207527.10470622</v>
       </c>
     </row>
     <row r="75">
@@ -23363,7 +23363,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>1098752756.281133</v>
+        <v>15440612.55072757</v>
       </c>
     </row>
     <row r="76">
@@ -23374,7 +23374,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>943554309.0718211</v>
+        <v>15620210.06021401</v>
       </c>
     </row>
     <row r="77">
@@ -23385,7 +23385,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>941903768.8150795</v>
+        <v>15893586.88551395</v>
       </c>
     </row>
     <row r="78">
@@ -23396,7 +23396,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>1305508893.384515</v>
+        <v>15911556.98701414</v>
       </c>
     </row>
     <row r="79">
@@ -23407,7 +23407,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>884988369.6792443</v>
+        <v>15319467.61027232</v>
       </c>
     </row>
     <row r="80">
@@ -23418,7 +23418,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>853685236.9822551</v>
+        <v>14243718.05116007</v>
       </c>
     </row>
     <row r="81">
@@ -23429,7 +23429,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>312714090.2437733</v>
+        <v>11275000.89769531</v>
       </c>
     </row>
     <row r="82">
@@ -23440,7 +23440,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>666904899.0595165</v>
+        <v>11124494.19232186</v>
       </c>
     </row>
     <row r="83">
@@ -23451,7 +23451,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>422101962.2822887</v>
+        <v>12152981.52540478</v>
       </c>
     </row>
     <row r="84">
@@ -23462,7 +23462,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>699865577.6013912</v>
+        <v>12581292.31448059</v>
       </c>
     </row>
     <row r="85">
@@ -23473,7 +23473,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>906294080.7557282</v>
+        <v>15122915.3402404</v>
       </c>
     </row>
     <row r="86">
@@ -23484,7 +23484,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>1282451018.494453</v>
+        <v>15876296.16381384</v>
       </c>
     </row>
     <row r="87">
@@ -23495,7 +23495,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>789186127.7016801</v>
+        <v>14176555.26816908</v>
       </c>
     </row>
     <row r="88">
@@ -23506,7 +23506,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>236386986.6856484</v>
+        <v>9261435.489619618</v>
       </c>
     </row>
     <row r="89">
@@ -23517,7 +23517,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>355646811.5148263</v>
+        <v>7442771.263907343</v>
       </c>
     </row>
     <row r="90">
@@ -23528,7 +23528,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>648803800.0545458</v>
+        <v>10565127.57689347</v>
       </c>
     </row>
     <row r="91">
@@ -23539,7 +23539,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>1278490356.722289</v>
+        <v>15455227.81602237</v>
       </c>
     </row>
     <row r="92">
@@ -23550,7 +23550,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>722052146.7210902</v>
+        <v>13984897.69078986</v>
       </c>
     </row>
     <row r="93">
@@ -23561,7 +23561,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>534971984.9991585</v>
+        <v>11186207.21294427</v>
       </c>
     </row>
     <row r="94">
@@ -23572,7 +23572,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>52568459.81978106</v>
+        <v>4617907.41124785</v>
       </c>
     </row>
   </sheetData>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -25725,7 +25725,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="3">
@@ -25748,7 +25748,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="4">
@@ -25759,7 +25759,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="5">
@@ -25770,7 +25770,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="6">
@@ -25781,7 +25781,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="7">
@@ -25792,7 +25792,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="8">
@@ -25803,7 +25803,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="9">
@@ -25814,7 +25814,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="10">
@@ -25825,7 +25825,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="11">
@@ -25836,7 +25836,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="12">
@@ -25847,7 +25847,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="13">
@@ -25858,7 +25858,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="14">
@@ -25869,7 +25869,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="15">
@@ -25880,7 +25880,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="16">
@@ -25891,7 +25891,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="17">
@@ -25902,7 +25902,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="18">
@@ -25913,7 +25913,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="19">
@@ -25924,7 +25924,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="20">
@@ -25935,7 +25935,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="21">
@@ -25946,7 +25946,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="22">
@@ -25957,7 +25957,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="23">
@@ -25968,7 +25968,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="24">
@@ -25979,7 +25979,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="25">
@@ -25990,7 +25990,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="26">
@@ -26001,7 +26001,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="27">
@@ -26012,7 +26012,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="28">
@@ -26023,7 +26023,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="29">
@@ -26034,7 +26034,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="30">
@@ -26045,7 +26045,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="31">
@@ -26056,7 +26056,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="32">
@@ -26067,7 +26067,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="33">
@@ -26078,7 +26078,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="34">
@@ -26089,7 +26089,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="35">
@@ -26100,7 +26100,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="36">
@@ -26111,7 +26111,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="37">
@@ -26122,7 +26122,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="38">
@@ -26133,7 +26133,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="39">
@@ -26144,7 +26144,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="40">
@@ -26155,7 +26155,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="41">
@@ -26166,7 +26166,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="42">
@@ -26177,7 +26177,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="43">
@@ -26188,7 +26188,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="44">
@@ -26199,7 +26199,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="45">
@@ -26210,7 +26210,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="46">
@@ -26221,7 +26221,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="47">
@@ -26232,7 +26232,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="48">
@@ -26243,7 +26243,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="49">
@@ -26254,7 +26254,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="50">
@@ -26265,7 +26265,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="51">
@@ -26276,7 +26276,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="52">
@@ -26287,7 +26287,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="53">
@@ -26298,7 +26298,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="54">
@@ -26309,7 +26309,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="55">
@@ -26320,7 +26320,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="56">
@@ -26331,7 +26331,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="57">
@@ -26342,7 +26342,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="58">
@@ -26353,7 +26353,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="59">
@@ -26364,7 +26364,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="60">
@@ -26375,7 +26375,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="61">
@@ -26386,7 +26386,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="62">
@@ -26397,7 +26397,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="63">
@@ -26408,7 +26408,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="64">
@@ -26419,7 +26419,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="65">
@@ -26430,7 +26430,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="66">
@@ -26441,7 +26441,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="67">
@@ -26452,7 +26452,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="68">
@@ -26463,7 +26463,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="69">
@@ -26474,7 +26474,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="70">
@@ -26485,7 +26485,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="71">
@@ -26496,7 +26496,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="72">
@@ -26507,7 +26507,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="73">
@@ -26518,7 +26518,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="74">
@@ -26529,7 +26529,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="75">
@@ -26540,7 +26540,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="76">
@@ -26551,7 +26551,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="77">
@@ -26562,7 +26562,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="78">
@@ -26573,7 +26573,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="79">
@@ -26584,7 +26584,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="80">
@@ -26595,7 +26595,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="81">
@@ -26606,7 +26606,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="82">
@@ -26617,7 +26617,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="83">
@@ -26628,7 +26628,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="84">
@@ -26639,7 +26639,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="85">
@@ -26650,7 +26650,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="86">
@@ -26661,7 +26661,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="87">
@@ -26672,7 +26672,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="88">
@@ -26683,7 +26683,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="89">
@@ -26694,7 +26694,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="90">
@@ -26705,7 +26705,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="91">
@@ -26716,7 +26716,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="92">
@@ -26727,7 +26727,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="93">
@@ -26738,7 +26738,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
     <row r="94">
@@ -26749,7 +26749,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2358.49939</v>
+        <v>312.6424296</v>
       </c>
     </row>
   </sheetData>
@@ -26784,7 +26784,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="3">
@@ -26807,7 +26807,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="4">
@@ -26818,7 +26818,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="5">
@@ -26829,7 +26829,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="6">
@@ -26840,7 +26840,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="7">
@@ -26851,7 +26851,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="8">
@@ -26862,7 +26862,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="9">
@@ -26873,7 +26873,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="10">
@@ -26884,7 +26884,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="11">
@@ -26895,7 +26895,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="12">
@@ -26906,7 +26906,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="13">
@@ -26917,7 +26917,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="14">
@@ -26928,7 +26928,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="15">
@@ -26939,7 +26939,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="16">
@@ -26950,7 +26950,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="17">
@@ -26961,7 +26961,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="18">
@@ -26972,7 +26972,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="19">
@@ -26983,7 +26983,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="20">
@@ -26994,7 +26994,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="21">
@@ -27005,7 +27005,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="22">
@@ -27016,7 +27016,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="23">
@@ -27027,7 +27027,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="24">
@@ -27038,7 +27038,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="25">
@@ -27049,7 +27049,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="26">
@@ -27060,7 +27060,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="27">
@@ -27071,7 +27071,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="28">
@@ -27082,7 +27082,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="29">
@@ -27093,7 +27093,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="30">
@@ -27104,7 +27104,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="31">
@@ -27115,7 +27115,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="32">
@@ -27126,7 +27126,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="33">
@@ -27137,7 +27137,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="34">
@@ -27148,7 +27148,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="35">
@@ -27159,7 +27159,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="36">
@@ -27170,7 +27170,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="37">
@@ -27181,7 +27181,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="38">
@@ -27192,7 +27192,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="39">
@@ -27203,7 +27203,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="40">
@@ -27214,7 +27214,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="41">
@@ -27225,7 +27225,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="42">
@@ -27236,7 +27236,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="43">
@@ -27247,7 +27247,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="44">
@@ -27258,7 +27258,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="45">
@@ -27269,7 +27269,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="46">
@@ -27280,7 +27280,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="47">
@@ -27291,7 +27291,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="48">
@@ -27302,7 +27302,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="49">
@@ -27313,7 +27313,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="50">
@@ -27324,7 +27324,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="51">
@@ -27335,7 +27335,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="52">
@@ -27346,7 +27346,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="53">
@@ -27357,7 +27357,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="54">
@@ -27368,7 +27368,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="55">
@@ -27379,7 +27379,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="56">
@@ -27390,7 +27390,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="57">
@@ -27401,7 +27401,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="58">
@@ -27412,7 +27412,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="59">
@@ -27423,7 +27423,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="60">
@@ -27434,7 +27434,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="61">
@@ -27445,7 +27445,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="62">
@@ -27456,7 +27456,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="63">
@@ -27467,7 +27467,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="64">
@@ -27478,7 +27478,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="65">
@@ -27489,7 +27489,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="66">
@@ -27500,7 +27500,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="67">
@@ -27511,7 +27511,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="68">
@@ -27522,7 +27522,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="69">
@@ -27533,7 +27533,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="70">
@@ -27544,7 +27544,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="71">
@@ -27555,7 +27555,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="72">
@@ -27566,7 +27566,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="73">
@@ -27577,7 +27577,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="74">
@@ -27588,7 +27588,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="75">
@@ -27599,7 +27599,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="76">
@@ -27610,7 +27610,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="77">
@@ -27621,7 +27621,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="78">
@@ -27632,7 +27632,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="79">
@@ -27643,7 +27643,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="80">
@@ -27654,7 +27654,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="81">
@@ -27665,7 +27665,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="82">
@@ -27676,7 +27676,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="83">
@@ -27687,7 +27687,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="84">
@@ -27698,7 +27698,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="85">
@@ -27709,7 +27709,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="86">
@@ -27720,7 +27720,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="87">
@@ -27731,7 +27731,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="88">
@@ -27742,7 +27742,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="89">
@@ -27753,7 +27753,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="90">
@@ -27764,7 +27764,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="91">
@@ -27775,7 +27775,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="92">
@@ -27786,7 +27786,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="93">
@@ -27797,7 +27797,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
     <row r="94">
@@ -27808,7 +27808,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2604.17829055</v>
+        <v>3451.947892865</v>
       </c>
     </row>
   </sheetData>
@@ -27843,7 +27843,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="3">
@@ -27866,7 +27866,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="4">
@@ -27877,7 +27877,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="5">
@@ -27888,7 +27888,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="6">
@@ -27899,7 +27899,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="7">
@@ -27910,7 +27910,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="8">
@@ -27921,7 +27921,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="10">
@@ -27943,7 +27943,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="11">
@@ -27954,7 +27954,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="12">
@@ -27965,7 +27965,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="13">
@@ -27976,7 +27976,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="14">
@@ -27987,7 +27987,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="15">
@@ -27998,7 +27998,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="16">
@@ -28009,7 +28009,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="17">
@@ -28020,7 +28020,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="18">
@@ -28031,7 +28031,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="19">
@@ -28042,7 +28042,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="20">
@@ -28053,7 +28053,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="21">
@@ -28064,7 +28064,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="22">
@@ -28075,7 +28075,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="23">
@@ -28086,7 +28086,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="24">
@@ -28097,7 +28097,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="25">
@@ -28108,7 +28108,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="26">
@@ -28119,7 +28119,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="27">
@@ -28130,7 +28130,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="28">
@@ -28141,7 +28141,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="29">
@@ -28152,7 +28152,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="30">
@@ -28163,7 +28163,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="31">
@@ -28174,7 +28174,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="32">
@@ -28185,7 +28185,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="33">
@@ -28196,7 +28196,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="34">
@@ -28207,7 +28207,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="35">
@@ -28218,7 +28218,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="36">
@@ -28229,7 +28229,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="37">
@@ -28240,7 +28240,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="38">
@@ -28251,7 +28251,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="39">
@@ -28262,7 +28262,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="40">
@@ -28273,7 +28273,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="41">
@@ -28284,7 +28284,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="42">
@@ -28295,7 +28295,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="43">
@@ -28306,7 +28306,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="44">
@@ -28317,7 +28317,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="45">
@@ -28328,7 +28328,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="46">
@@ -28339,7 +28339,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="47">
@@ -28350,7 +28350,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="48">
@@ -28361,7 +28361,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="49">
@@ -28372,7 +28372,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="50">
@@ -28383,7 +28383,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="51">
@@ -28394,7 +28394,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="52">
@@ -28405,7 +28405,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="53">
@@ -28416,7 +28416,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="54">
@@ -28427,7 +28427,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="55">
@@ -28438,7 +28438,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="56">
@@ -28449,7 +28449,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="57">
@@ -28460,7 +28460,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="58">
@@ -28471,7 +28471,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="59">
@@ -28482,7 +28482,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="60">
@@ -28493,7 +28493,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="61">
@@ -28504,7 +28504,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="62">
@@ -28515,7 +28515,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="63">
@@ -28526,7 +28526,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="64">
@@ -28537,7 +28537,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="65">
@@ -28548,7 +28548,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="66">
@@ -28559,7 +28559,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="67">
@@ -28570,7 +28570,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="68">
@@ -28581,7 +28581,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="69">
@@ -28592,7 +28592,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="70">
@@ -28603,7 +28603,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="71">
@@ -28614,7 +28614,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="72">
@@ -28625,7 +28625,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="73">
@@ -28636,7 +28636,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="74">
@@ -28647,7 +28647,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="75">
@@ -28658,7 +28658,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="76">
@@ -28669,7 +28669,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="77">
@@ -28680,7 +28680,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="78">
@@ -28691,7 +28691,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="79">
@@ -28702,7 +28702,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="80">
@@ -28713,7 +28713,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="81">
@@ -28724,7 +28724,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="82">
@@ -28735,7 +28735,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="83">
@@ -28746,7 +28746,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="84">
@@ -28757,7 +28757,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="85">
@@ -28768,7 +28768,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="86">
@@ -28779,7 +28779,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="87">
@@ -28790,7 +28790,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="88">
@@ -28801,7 +28801,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="89">
@@ -28812,7 +28812,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="90">
@@ -28823,7 +28823,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="91">
@@ -28834,7 +28834,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="92">
@@ -28845,7 +28845,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="93">
@@ -28856,7 +28856,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
     <row r="94">
@@ -28867,7 +28867,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2088.89921211</v>
+        <v>2768.91872425</v>
       </c>
     </row>
   </sheetData>
@@ -28902,7 +28902,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metropolitan Water District of Southern California</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -28914,7 +28914,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="3">
@@ -28925,7 +28925,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="4">
@@ -28936,7 +28936,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="5">
@@ -28947,7 +28947,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="6">
@@ -28958,7 +28958,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="7">
@@ -28969,7 +28969,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="8">
@@ -28980,7 +28980,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="9">
@@ -28991,7 +28991,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="10">
@@ -29002,7 +29002,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="11">
@@ -29013,7 +29013,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="12">
@@ -29024,7 +29024,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="13">
@@ -29035,7 +29035,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="14">
@@ -29046,7 +29046,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="15">
@@ -29057,7 +29057,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="16">
@@ -29068,7 +29068,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="17">
@@ -29079,7 +29079,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="18">
@@ -29090,7 +29090,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="19">
@@ -29101,7 +29101,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="20">
@@ -29112,7 +29112,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="21">
@@ -29123,7 +29123,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="22">
@@ -29134,7 +29134,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="23">
@@ -29145,7 +29145,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="24">
@@ -29156,7 +29156,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="25">
@@ -29167,7 +29167,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="26">
@@ -29178,7 +29178,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="27">
@@ -29189,7 +29189,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="28">
@@ -29200,7 +29200,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="29">
@@ -29211,7 +29211,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="30">
@@ -29222,7 +29222,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="31">
@@ -29233,7 +29233,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="32">
@@ -29244,7 +29244,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="33">
@@ -29255,7 +29255,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="34">
@@ -29266,7 +29266,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="35">
@@ -29277,7 +29277,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="36">
@@ -29288,7 +29288,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="37">
@@ -29299,7 +29299,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="38">
@@ -29310,7 +29310,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="39">
@@ -29321,7 +29321,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="40">
@@ -29332,7 +29332,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="41">
@@ -29343,7 +29343,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="42">
@@ -29354,7 +29354,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="43">
@@ -29365,7 +29365,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="44">
@@ -29376,7 +29376,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="45">
@@ -29387,7 +29387,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="46">
@@ -29398,7 +29398,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="47">
@@ -29409,7 +29409,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="48">
@@ -29420,7 +29420,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="49">
@@ -29431,7 +29431,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="50">
@@ -29442,7 +29442,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="51">
@@ -29453,7 +29453,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="52">
@@ -29464,7 +29464,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="53">
@@ -29475,7 +29475,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="54">
@@ -29486,7 +29486,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="55">
@@ -29497,7 +29497,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="56">
@@ -29508,7 +29508,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="57">
@@ -29519,7 +29519,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="58">
@@ -29530,7 +29530,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="59">
@@ -29541,7 +29541,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="60">
@@ -29552,7 +29552,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="61">
@@ -29563,7 +29563,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="62">
@@ -29574,7 +29574,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="63">
@@ -29585,7 +29585,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="64">
@@ -29596,7 +29596,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="65">
@@ -29607,7 +29607,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="66">
@@ -29618,7 +29618,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="67">
@@ -29629,7 +29629,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="68">
@@ -29640,7 +29640,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="69">
@@ -29651,7 +29651,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="70">
@@ -29662,7 +29662,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="71">
@@ -29673,7 +29673,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="72">
@@ -29684,7 +29684,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="73">
@@ -29695,7 +29695,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="74">
@@ -29706,7 +29706,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="75">
@@ -29717,7 +29717,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="76">
@@ -29728,7 +29728,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="77">
@@ -29739,7 +29739,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="78">
@@ -29750,7 +29750,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="79">
@@ -29761,7 +29761,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="80">
@@ -29772,7 +29772,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="81">
@@ -29783,7 +29783,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="82">
@@ -29794,7 +29794,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="83">
@@ -29805,7 +29805,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="84">
@@ -29816,7 +29816,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="85">
@@ -29827,7 +29827,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="86">
@@ -29838,7 +29838,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="87">
@@ -29849,7 +29849,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="88">
@@ -29860,7 +29860,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="89">
@@ -29871,7 +29871,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="90">
@@ -29882,7 +29882,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="91">
@@ -29893,7 +29893,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="92">
@@ -29904,7 +29904,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="93">
@@ -29915,7 +29915,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
     <row r="94">
@@ -29926,7 +29926,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2244.93068485</v>
+        <v>3242.838314644</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -6109,7 +6109,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>15467307.87667598</v>
+        <v>71306400.04671843</v>
       </c>
     </row>
     <row r="3">
@@ -6120,7 +6120,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>14275993.20384712</v>
+        <v>68587726.33105096</v>
       </c>
     </row>
     <row r="4">
@@ -6131,7 +6131,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4925426.908090084</v>
+        <v>144706122.2570557</v>
       </c>
     </row>
     <row r="5">
@@ -6142,7 +6142,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>10169187.32794047</v>
+        <v>151562494.4921427</v>
       </c>
     </row>
     <row r="6">
@@ -6153,7 +6153,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>10401375.35706848</v>
+        <v>150036363.2332257</v>
       </c>
     </row>
     <row r="7">
@@ -6164,7 +6164,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>12776169.35510776</v>
+        <v>151564634.0191961</v>
       </c>
     </row>
     <row r="8">
@@ -6175,7 +6175,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>12122988.92202741</v>
+        <v>149625444.7663889</v>
       </c>
     </row>
     <row r="9">
@@ -6186,7 +6186,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5154253.844520164</v>
+        <v>144835651.9603173</v>
       </c>
     </row>
     <row r="10">
@@ -6197,7 +6197,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>8874149.137438647</v>
+        <v>148555547.2532358</v>
       </c>
     </row>
     <row r="11">
@@ -6208,7 +6208,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4479558.038707823</v>
+        <v>144160956.154505</v>
       </c>
     </row>
     <row r="12">
@@ -6219,7 +6219,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>6916712.443976915</v>
+        <v>145705177.1080653</v>
       </c>
     </row>
     <row r="13">
@@ -6230,7 +6230,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>7319740.964718893</v>
+        <v>144872008.8464804</v>
       </c>
     </row>
     <row r="14">
@@ -6241,7 +6241,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5919481.344304165</v>
+        <v>145600879.4601014</v>
       </c>
     </row>
     <row r="15">
@@ -6252,7 +6252,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>9015118.476126088</v>
+        <v>147803583.1402144</v>
       </c>
     </row>
     <row r="16">
@@ -6263,7 +6263,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>12704688.58943342</v>
+        <v>151493153.2535218</v>
       </c>
     </row>
     <row r="17">
@@ -6274,7 +6274,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>10692897.47521078</v>
+        <v>149353794.7265991</v>
       </c>
     </row>
     <row r="18">
@@ -6285,7 +6285,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>15511385.36414507</v>
+        <v>68411547.69700919</v>
       </c>
     </row>
     <row r="19">
@@ -6296,7 +6296,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>11074952.05137929</v>
+        <v>148627219.9331408</v>
       </c>
     </row>
     <row r="20">
@@ -6307,7 +6307,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>11281455.07344669</v>
+        <v>150069919.737535</v>
       </c>
     </row>
     <row r="21">
@@ -6318,7 +6318,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>15411074.05044029</v>
+        <v>68467034.06192279</v>
       </c>
     </row>
     <row r="22">
@@ -6329,7 +6329,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>15859707.12275611</v>
+        <v>68218876.4270215</v>
       </c>
     </row>
     <row r="23">
@@ -6340,7 +6340,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>15851649.29996104</v>
+        <v>68223333.54436456</v>
       </c>
     </row>
     <row r="24">
@@ -6351,7 +6351,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>10388613.20262934</v>
+        <v>147891069.0469908</v>
       </c>
     </row>
     <row r="25">
@@ -6362,7 +6362,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>13024345.25761952</v>
+        <v>151812809.9217079</v>
       </c>
     </row>
     <row r="26">
@@ -6373,7 +6373,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>14338506.23734127</v>
+        <v>69127090.14792109</v>
       </c>
     </row>
     <row r="27">
@@ -6384,7 +6384,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>10591129.73026532</v>
+        <v>148143397.6120268</v>
       </c>
     </row>
     <row r="28">
@@ -6395,7 +6395,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>8419895.7036983</v>
+        <v>148049902.3761155</v>
       </c>
     </row>
     <row r="29">
@@ -6406,7 +6406,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>12082873.11313453</v>
+        <v>151712879.7855518</v>
       </c>
     </row>
     <row r="30">
@@ -6417,7 +6417,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>9444041.32861218</v>
+        <v>149074048.0010294</v>
       </c>
     </row>
     <row r="31">
@@ -6428,7 +6428,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>14460618.20025957</v>
+        <v>69039972.50266798</v>
       </c>
     </row>
     <row r="32">
@@ -6439,7 +6439,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>15803532.42320045</v>
+        <v>68249948.99265084</v>
       </c>
     </row>
     <row r="33">
@@ -6450,7 +6450,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>14880764.6525601</v>
+        <v>152383220.4969216</v>
       </c>
     </row>
     <row r="34">
@@ -6461,7 +6461,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>11852180.90385124</v>
+        <v>151482187.5762684</v>
       </c>
     </row>
     <row r="35">
@@ -6472,7 +6472,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>10894922.25415206</v>
+        <v>150529910.1303093</v>
       </c>
     </row>
     <row r="36">
@@ -6483,7 +6483,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>15432379.99024772</v>
+        <v>68455248.85936366</v>
       </c>
     </row>
     <row r="37">
@@ -6494,7 +6494,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>10517224.82642171</v>
+        <v>148019680.6707832</v>
       </c>
     </row>
     <row r="38">
@@ -6505,7 +6505,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>15361214.22994007</v>
+        <v>68494613.60497355</v>
       </c>
     </row>
     <row r="39">
@@ -6516,7 +6516,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>13413218.20091805</v>
+        <v>150965486.0826795</v>
       </c>
     </row>
     <row r="40">
@@ -6527,7 +6527,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>8324440.267083074</v>
+        <v>148005838.3828803</v>
       </c>
     </row>
     <row r="41">
@@ -6538,7 +6538,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>10078116.91979573</v>
+        <v>149759515.0355929</v>
       </c>
     </row>
     <row r="42">
@@ -6549,7 +6549,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>9517930.171392344</v>
+        <v>149147936.8438095</v>
       </c>
     </row>
     <row r="43">
@@ -6560,7 +6560,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>14924616.02763454</v>
+        <v>68708945.1638436</v>
       </c>
     </row>
     <row r="44">
@@ -6571,7 +6571,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>10237173.41950819</v>
+        <v>147789441.3012697</v>
       </c>
     </row>
     <row r="45">
@@ -6582,7 +6582,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>14952554.26341131</v>
+        <v>68720660.45044824</v>
       </c>
     </row>
     <row r="46">
@@ -6593,7 +6593,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>12326925.9464633</v>
+        <v>149829381.7908248</v>
       </c>
     </row>
     <row r="47">
@@ -6604,7 +6604,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>15553170.65611573</v>
+        <v>68388434.51193888</v>
       </c>
     </row>
     <row r="48">
@@ -6615,7 +6615,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>14337093.79494978</v>
+        <v>151889361.6767113</v>
       </c>
     </row>
     <row r="49">
@@ -6626,7 +6626,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>15757059.20288194</v>
+        <v>68275655.26611161</v>
       </c>
     </row>
     <row r="50">
@@ -6637,7 +6637,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>15592253.09714176</v>
+        <v>68232636.63526751</v>
       </c>
     </row>
     <row r="51">
@@ -6648,7 +6648,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>11759233.15795435</v>
+        <v>149261689.0023158</v>
       </c>
     </row>
     <row r="52">
@@ -6659,7 +6659,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>11418255.28478753</v>
+        <v>151053243.1609447</v>
       </c>
     </row>
     <row r="53">
@@ -6670,7 +6670,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>14426104.8532215</v>
+        <v>69064595.16413295</v>
       </c>
     </row>
     <row r="54">
@@ -6681,7 +6681,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>15787532.34086164</v>
+        <v>68258799.30449015</v>
       </c>
     </row>
     <row r="55">
@@ -6692,7 +6692,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>14530503.88266835</v>
+        <v>68954114.09164709</v>
       </c>
     </row>
     <row r="56">
@@ -6703,7 +6703,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>9042602.139237579</v>
+        <v>147058972.4173991</v>
       </c>
     </row>
     <row r="57">
@@ -6714,7 +6714,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3714623.03651678</v>
+        <v>143396021.152314</v>
       </c>
     </row>
     <row r="58">
@@ -6725,7 +6725,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>14713881.7908291</v>
+        <v>68852680.13416508</v>
       </c>
     </row>
     <row r="59">
@@ -6736,7 +6736,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>14173075.61250979</v>
+        <v>69245112.38049883</v>
       </c>
     </row>
     <row r="60">
@@ -6747,7 +6747,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>15734927.34397805</v>
+        <v>68287897.31891704</v>
       </c>
     </row>
     <row r="61">
@@ -6758,7 +6758,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>12330278.57805294</v>
+        <v>149882546.4598144</v>
       </c>
     </row>
     <row r="62">
@@ -6769,7 +6769,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>15556360.77489346</v>
+        <v>68386669.92439556</v>
       </c>
     </row>
     <row r="63">
@@ -6780,7 +6780,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="64">
@@ -6791,7 +6791,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>15196622.95883098</v>
+        <v>68514888.80137065</v>
       </c>
     </row>
     <row r="65">
@@ -6802,7 +6802,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>12036152.86442794</v>
+        <v>149588420.7461894</v>
       </c>
     </row>
     <row r="66">
@@ -6813,7 +6813,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>15343962.69787148</v>
+        <v>68504156.14577302</v>
       </c>
     </row>
     <row r="67">
@@ -6824,7 +6824,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10681476.41161022</v>
+        <v>148697846.6897717</v>
       </c>
     </row>
     <row r="68">
@@ -6835,7 +6835,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>8202072.489149316</v>
+        <v>147883470.6049465</v>
       </c>
     </row>
     <row r="69">
@@ -6846,7 +6846,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>8265318.290755522</v>
+        <v>147946716.4065527</v>
       </c>
     </row>
     <row r="70">
@@ -6857,7 +6857,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>7262318.24174059</v>
+        <v>146943716.3575378</v>
       </c>
     </row>
     <row r="71">
@@ -6868,7 +6868,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4358466.775472678</v>
+        <v>144039864.8912699</v>
       </c>
     </row>
     <row r="72">
@@ -6879,7 +6879,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6598960.621098698</v>
+        <v>146280358.7368959</v>
       </c>
     </row>
     <row r="73">
@@ -6890,7 +6890,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>13497860.72156341</v>
+        <v>152158757.9729517</v>
       </c>
     </row>
     <row r="74">
@@ -6901,7 +6901,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>11207527.10470622</v>
+        <v>149223897.3828677</v>
       </c>
     </row>
     <row r="75">
@@ -6912,7 +6912,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>15440612.55072757</v>
+        <v>68450695.08733051</v>
       </c>
     </row>
     <row r="76">
@@ -6923,7 +6923,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>15620210.06021401</v>
+        <v>68351352.22578388</v>
       </c>
     </row>
     <row r="77">
@@ -6934,7 +6934,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>15893586.88551395</v>
+        <v>68200136.11937186</v>
       </c>
     </row>
     <row r="78">
@@ -6945,7 +6945,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="79">
@@ -6956,7 +6956,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>15319467.61027232</v>
+        <v>68427248.43829936</v>
       </c>
     </row>
     <row r="80">
@@ -6967,7 +6967,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>14243718.05116007</v>
+        <v>69194714.34607965</v>
       </c>
     </row>
     <row r="81">
@@ -6978,7 +6978,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>11275000.89769531</v>
+        <v>148827268.7794568</v>
       </c>
     </row>
     <row r="82">
@@ -6989,7 +6989,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>11124494.19232186</v>
+        <v>150759482.068479</v>
       </c>
     </row>
     <row r="83">
@@ -7000,7 +7000,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>12152981.52540478</v>
+        <v>151782988.197822</v>
       </c>
     </row>
     <row r="84">
@@ -7011,7 +7011,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>12581292.31448059</v>
+        <v>68599802.95749058</v>
       </c>
     </row>
     <row r="85">
@@ -7022,7 +7022,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>15122915.3402404</v>
+        <v>68626426.64444079</v>
       </c>
     </row>
     <row r="86">
@@ -7033,7 +7033,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>15876296.16381384</v>
+        <v>68209700.33758852</v>
       </c>
     </row>
     <row r="87">
@@ -7044,7 +7044,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>14176555.26816908</v>
+        <v>152192925.5463306</v>
       </c>
     </row>
     <row r="88">
@@ -7055,7 +7055,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>9261435.489619618</v>
+        <v>148942833.6054168</v>
       </c>
     </row>
     <row r="89">
@@ -7066,7 +7066,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>7442771.263907343</v>
+        <v>147072777.9363245</v>
       </c>
     </row>
     <row r="90">
@@ -7077,7 +7077,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>10565127.57689347</v>
+        <v>149353592.2409818</v>
       </c>
     </row>
     <row r="91">
@@ -7088,7 +7088,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>15455227.81602237</v>
+        <v>68442610.77546673</v>
       </c>
     </row>
     <row r="92">
@@ -7099,7 +7099,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>13984897.69078986</v>
+        <v>151537165.5725513</v>
       </c>
     </row>
     <row r="93">
@@ -7110,7 +7110,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>11186207.21294427</v>
+        <v>150867605.3287415</v>
       </c>
     </row>
     <row r="94">
@@ -7121,7 +7121,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4617907.41124785</v>
+        <v>144299305.527045</v>
       </c>
     </row>
   </sheetData>
@@ -7179,7 +7179,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1120.0130309</v>
       </c>
     </row>
     <row r="4">
@@ -7190,7 +7190,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -7201,7 +7201,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -7212,7 +7212,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -7223,7 +7223,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -7234,7 +7234,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -7245,7 +7245,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -7256,7 +7256,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -7267,7 +7267,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -7278,7 +7278,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -7289,7 +7289,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -7300,7 +7300,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -7311,7 +7311,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -7322,7 +7322,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -7333,7 +7333,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -7344,7 +7344,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-950.2274209000011</v>
       </c>
     </row>
     <row r="19">
@@ -7355,7 +7355,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -7366,7 +7366,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -7377,7 +7377,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-824.1907908999988</v>
       </c>
     </row>
     <row r="22">
@@ -7388,7 +7388,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1387.8779609</v>
       </c>
     </row>
     <row r="23">
@@ -7399,7 +7399,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1377.7536709</v>
       </c>
     </row>
     <row r="24">
@@ -7410,7 +7410,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -7421,7 +7421,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -7432,7 +7432,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>523.4421691000002</v>
       </c>
     </row>
     <row r="27">
@@ -7443,7 +7443,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -7454,7 +7454,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -7465,7 +7465,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -7476,7 +7476,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -7487,7 +7487,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>370.0140091000007</v>
       </c>
     </row>
     <row r="32">
@@ -7498,7 +7498,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1317.296990900001</v>
       </c>
     </row>
     <row r="33">
@@ -7509,7 +7509,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -7520,7 +7520,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -7531,7 +7531,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -7542,7 +7542,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-850.9607409000005</v>
       </c>
     </row>
     <row r="37">
@@ -7553,7 +7553,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -7564,7 +7564,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-761.544180899999</v>
       </c>
     </row>
     <row r="39">
@@ -7575,7 +7575,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -7586,7 +7586,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -7597,7 +7597,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -7608,7 +7608,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -7619,7 +7619,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-212.9782809000012</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -7641,7 +7641,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-248.0814109000007</v>
       </c>
     </row>
     <row r="46">
@@ -7652,7 +7652,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -7663,7 +7663,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1002.7287509</v>
       </c>
     </row>
     <row r="48">
@@ -7674,7 +7674,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7685,7 +7685,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1258.905490899999</v>
       </c>
     </row>
     <row r="50">
@@ -7696,7 +7696,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1051.834070899999</v>
       </c>
     </row>
     <row r="51">
@@ -7707,7 +7707,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7718,7 +7718,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -7729,7 +7729,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>413.3784691000014</v>
       </c>
     </row>
     <row r="54">
@@ -7740,7 +7740,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1297.1936109</v>
       </c>
     </row>
     <row r="55">
@@ -7751,7 +7751,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>282.2058091000013</v>
       </c>
     </row>
     <row r="56">
@@ -7762,7 +7762,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -7773,7 +7773,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -7784,7 +7784,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>51.79975909999985</v>
       </c>
     </row>
     <row r="59">
@@ -7795,7 +7795,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>731.2982691000011</v>
       </c>
     </row>
     <row r="60">
@@ -7806,7 +7806,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-1231.097810900001</v>
       </c>
     </row>
     <row r="61">
@@ -7817,7 +7817,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -7828,7 +7828,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-1006.736990899999</v>
       </c>
     </row>
     <row r="63">
@@ -7839,7 +7839,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1453.0249709</v>
       </c>
     </row>
     <row r="64">
@@ -7850,7 +7850,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-554.742690900001</v>
       </c>
     </row>
     <row r="65">
@@ -7861,7 +7861,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -7872,7 +7872,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-739.868410900001</v>
       </c>
     </row>
     <row r="67">
@@ -7883,7 +7883,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -7894,7 +7894,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -7905,7 +7905,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -7916,7 +7916,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -7927,7 +7927,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -7938,7 +7938,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -7949,7 +7949,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -7960,7 +7960,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -7971,7 +7971,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-861.3045808999982</v>
       </c>
     </row>
     <row r="76">
@@ -7982,7 +7982,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1086.960730900001</v>
       </c>
     </row>
     <row r="77">
@@ -7993,7 +7993,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-1430.4463509</v>
       </c>
     </row>
     <row r="78">
@@ -8004,7 +8004,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-1453.0249709</v>
       </c>
     </row>
     <row r="79">
@@ -8015,7 +8015,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-709.0914408999984</v>
       </c>
     </row>
     <row r="80">
@@ -8026,7 +8026,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>642.5392391</v>
       </c>
     </row>
     <row r="81">
@@ -8037,7 +8037,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -8048,7 +8048,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -8059,7 +8059,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -8070,7 +8070,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-71.69799089999879</v>
       </c>
     </row>
     <row r="85">
@@ -8081,7 +8081,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-462.1324009000004</v>
       </c>
     </row>
     <row r="86">
@@ -8092,7 +8092,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1408.721340899998</v>
       </c>
     </row>
     <row r="87">
@@ -8103,7 +8103,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -8114,7 +8114,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -8125,7 +8125,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -8136,7 +8136,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -8147,7 +8147,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-879.6680008999997</v>
       </c>
     </row>
     <row r="92">
@@ -8158,7 +8158,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -8169,7 +8169,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -8180,7 +8180,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8238,7 +8238,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-706221.4131293775</v>
       </c>
     </row>
     <row r="4">
@@ -8249,7 +8249,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1282963.693</v>
       </c>
     </row>
     <row r="5">
@@ -8260,7 +8260,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="6">
@@ -8271,7 +8271,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>81886.12965999999</v>
       </c>
     </row>
     <row r="7">
@@ -8282,7 +8282,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="8">
@@ -8293,7 +8293,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="9">
@@ -8304,7 +8304,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="10">
@@ -8315,7 +8315,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="11">
@@ -8326,7 +8326,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="12">
@@ -8337,7 +8337,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="13">
@@ -8348,7 +8348,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="14">
@@ -8359,7 +8359,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="15">
@@ -8370,7 +8370,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="16">
@@ -8381,7 +8381,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="17">
@@ -8392,7 +8392,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>502980.0842</v>
       </c>
     </row>
     <row r="18">
@@ -8403,7 +8403,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-477945.4681734314</v>
       </c>
     </row>
     <row r="19">
@@ -8414,7 +8414,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="20">
@@ -8425,7 +8425,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="21">
@@ -8436,7 +8436,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-414551.553403746</v>
       </c>
     </row>
     <row r="22">
@@ -8447,7 +8447,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-698074.9736328062</v>
       </c>
     </row>
     <row r="23">
@@ -8458,7 +8458,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-692982.6573961412</v>
       </c>
     </row>
     <row r="24">
@@ -8469,7 +8469,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="25">
@@ -8480,7 +8480,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="26">
@@ -8491,7 +8491,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>330055.1494979117</v>
       </c>
     </row>
     <row r="27">
@@ -8502,7 +8502,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="28">
@@ -8513,7 +8513,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="29">
@@ -8524,7 +8524,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="30">
@@ -8535,7 +8535,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="31">
@@ -8546,7 +8546,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>233311.4072559393</v>
       </c>
     </row>
     <row r="32">
@@ -8557,7 +8557,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-662574.151399289</v>
       </c>
     </row>
     <row r="33">
@@ -8568,7 +8568,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="34">
@@ -8579,7 +8579,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="35">
@@ -8590,7 +8590,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>81886.12965999999</v>
       </c>
     </row>
     <row r="36">
@@ -8601,7 +8601,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-428016.3051087767</v>
       </c>
     </row>
     <row r="37">
@@ -8612,7 +8612,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="38">
@@ -8623,7 +8623,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-383041.5562311016</v>
       </c>
     </row>
     <row r="39">
@@ -8634,7 +8634,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="40">
@@ -8645,7 +8645,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="41">
@@ -8656,7 +8656,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="42">
@@ -8667,7 +8667,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="43">
@@ -8678,7 +8678,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-134292.9219155608</v>
       </c>
     </row>
     <row r="44">
@@ -8689,7 +8689,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="45">
@@ -8700,7 +8700,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-124780.0089429372</v>
       </c>
     </row>
     <row r="46">
@@ -8711,7 +8711,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="47">
@@ -8722,7 +8722,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-504352.591557443</v>
       </c>
     </row>
     <row r="48">
@@ -8733,7 +8733,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="49">
@@ -8744,7 +8744,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-633204.389812724</v>
       </c>
     </row>
     <row r="50">
@@ -8755,7 +8755,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-663231.3405601316</v>
       </c>
     </row>
     <row r="51">
@@ -8766,7 +8766,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>769049.2592000001</v>
       </c>
     </row>
     <row r="52">
@@ -8777,7 +8777,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>81886.12965999999</v>
       </c>
     </row>
     <row r="53">
@@ -8788,7 +8788,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>260654.7589633599</v>
       </c>
     </row>
     <row r="54">
@@ -8799,7 +8799,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-652462.5516341842</v>
       </c>
     </row>
     <row r="55">
@@ -8810,7 +8810,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>141943.9016228478</v>
       </c>
     </row>
     <row r="56">
@@ -8821,7 +8821,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1282963.693</v>
       </c>
     </row>
     <row r="57">
@@ -8832,7 +8832,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="58">
@@ -8843,7 +8843,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>26054.24719365764</v>
       </c>
     </row>
     <row r="59">
@@ -8854,7 +8854,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>461118.2930683084</v>
       </c>
     </row>
     <row r="60">
@@ -8865,7 +8865,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-619217.6805849182</v>
       </c>
     </row>
     <row r="61">
@@ -8876,7 +8876,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="62">
@@ -8887,7 +8887,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-506368.6564501364</v>
       </c>
     </row>
     <row r="63">
@@ -8898,7 +8898,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-730842.6222079848</v>
       </c>
     </row>
     <row r="64">
@@ -8909,7 +8909,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-349791.6151705661</v>
       </c>
     </row>
     <row r="65">
@@ -8920,7 +8920,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="66">
@@ -8931,7 +8931,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-372139.0756114027</v>
       </c>
     </row>
     <row r="67">
@@ -8942,7 +8942,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1282963.693</v>
       </c>
     </row>
     <row r="68">
@@ -8953,7 +8953,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="69">
@@ -8964,7 +8964,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="70">
@@ -8975,7 +8975,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="71">
@@ -8986,7 +8986,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="72">
@@ -8997,7 +8997,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="73">
@@ -9008,7 +9008,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>502980.0842</v>
       </c>
     </row>
     <row r="74">
@@ -9019,7 +9019,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1282963.693</v>
       </c>
     </row>
     <row r="75">
@@ -9030,7 +9030,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-433219.0506229269</v>
       </c>
     </row>
     <row r="76">
@@ -9041,7 +9041,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-546719.599950176</v>
       </c>
     </row>
     <row r="77">
@@ -9052,7 +9052,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-719486.0260192648</v>
       </c>
     </row>
     <row r="78">
@@ -9063,7 +9063,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-730842.6222079848</v>
       </c>
     </row>
     <row r="79">
@@ -9074,7 +9074,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-447115.8331327083</v>
       </c>
     </row>
     <row r="80">
@@ -9085,7 +9085,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>405151.5088745357</v>
       </c>
     </row>
     <row r="81">
@@ -9096,7 +9096,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="82">
@@ -9107,7 +9107,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>81886.12965999999</v>
       </c>
     </row>
     <row r="83">
@@ -9118,7 +9118,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="84">
@@ -9129,7 +9129,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-58710.709791988</v>
       </c>
     </row>
     <row r="85">
@@ -9140,7 +9140,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-232443.3939162304</v>
       </c>
     </row>
     <row r="86">
@@ -9151,7 +9151,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-708558.7786602181</v>
       </c>
     </row>
     <row r="87">
@@ -9162,7 +9162,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1282963.693</v>
       </c>
     </row>
     <row r="88">
@@ -9173,7 +9173,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="89">
@@ -9184,7 +9184,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>76904.92592000001</v>
       </c>
     </row>
     <row r="90">
@@ -9195,7 +9195,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>630547.4969</v>
       </c>
     </row>
     <row r="91">
@@ -9206,7 +9206,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-442455.4851607275</v>
       </c>
     </row>
     <row r="92">
@@ -9217,7 +9217,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>818861.2966</v>
       </c>
     </row>
     <row r="93">
@@ -9228,7 +9228,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
     <row r="94">
@@ -9239,7 +9239,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>128296.3693</v>
       </c>
     </row>
   </sheetData>
@@ -22560,7 +22560,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>15467307.87667598</v>
+        <v>71306400.04671843</v>
       </c>
     </row>
     <row r="3">
@@ -22571,7 +22571,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>14275993.20384712</v>
+        <v>68587726.33105096</v>
       </c>
     </row>
     <row r="4">
@@ -22582,7 +22582,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4925426.908090084</v>
+        <v>275764616.5824751</v>
       </c>
     </row>
     <row r="5">
@@ -22593,7 +22593,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>10169187.32794047</v>
+        <v>153975840.0426206</v>
       </c>
     </row>
     <row r="6">
@@ -22604,7 +22604,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>10401375.35706848</v>
+        <v>156426279.8716294</v>
       </c>
     </row>
     <row r="7">
@@ -22615,7 +22615,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>12776169.35510776</v>
+        <v>154837841.1567045</v>
       </c>
     </row>
     <row r="8">
@@ -22626,7 +22626,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>12122988.92202741</v>
+        <v>162678416.4133644</v>
       </c>
     </row>
     <row r="9">
@@ -22637,7 +22637,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5154253.844520164</v>
+        <v>207505091.4632434</v>
       </c>
     </row>
     <row r="10">
@@ -22648,7 +22648,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>8874149.137438647</v>
+        <v>162774524.212621</v>
       </c>
     </row>
     <row r="11">
@@ -22659,7 +22659,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4479558.038707823</v>
+        <v>226074713.3663148</v>
       </c>
     </row>
     <row r="12">
@@ -22670,7 +22670,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>6916712.443976915</v>
+        <v>202606069.1851418</v>
       </c>
     </row>
     <row r="13">
@@ -22681,7 +22681,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>7319740.964718893</v>
+        <v>234484955.8242993</v>
       </c>
     </row>
     <row r="14">
@@ -22692,7 +22692,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5919481.344304165</v>
+        <v>192202375.2897353</v>
       </c>
     </row>
     <row r="15">
@@ -22703,7 +22703,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>9015118.476126088</v>
+        <v>173066864.015955</v>
       </c>
     </row>
     <row r="16">
@@ -22714,7 +22714,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>12704688.58943342</v>
+        <v>154998464.9308866</v>
       </c>
     </row>
     <row r="17">
@@ -22725,7 +22725,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>10692897.47521078</v>
+        <v>161716380.5158835</v>
       </c>
     </row>
     <row r="18">
@@ -22736,7 +22736,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>15511385.36414507</v>
+        <v>68411547.69700919</v>
       </c>
     </row>
     <row r="19">
@@ -22747,7 +22747,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>11074952.05137929</v>
+        <v>169171899.7272645</v>
       </c>
     </row>
     <row r="20">
@@ -22758,7 +22758,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>11281455.07344669</v>
+        <v>159291435.9376023</v>
       </c>
     </row>
     <row r="21">
@@ -22769,7 +22769,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>15411074.05044029</v>
+        <v>68467034.06192279</v>
       </c>
     </row>
     <row r="22">
@@ -22780,7 +22780,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>15859707.12275611</v>
+        <v>68218876.4270215</v>
       </c>
     </row>
     <row r="23">
@@ -22791,7 +22791,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>15851649.29996104</v>
+        <v>68223333.54436456</v>
       </c>
     </row>
     <row r="24">
@@ -22802,7 +22802,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>10388613.20262934</v>
+        <v>174940788.7406322</v>
       </c>
     </row>
     <row r="25">
@@ -22813,7 +22813,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>13024345.25761952</v>
+        <v>154313595.5113933</v>
       </c>
     </row>
     <row r="26">
@@ -22824,7 +22824,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>14338506.23734127</v>
+        <v>69127090.14792109</v>
       </c>
     </row>
     <row r="27">
@@ -22835,7 +22835,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>10591129.73026532</v>
+        <v>173113073.0613106</v>
       </c>
     </row>
     <row r="28">
@@ -22846,7 +22846,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>8419895.7036983</v>
+        <v>165391049.3419265</v>
       </c>
     </row>
     <row r="29">
@@ -22857,7 +22857,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>12082873.11313453</v>
+        <v>152610395.9289285</v>
       </c>
     </row>
     <row r="30">
@@ -22868,7 +22868,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>9444041.32861218</v>
+        <v>159949941.5318053</v>
       </c>
     </row>
     <row r="31">
@@ -22879,7 +22879,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>14460618.20025957</v>
+        <v>69039972.50266798</v>
       </c>
     </row>
     <row r="32">
@@ -22890,7 +22890,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>15803532.42320045</v>
+        <v>68249948.99265084</v>
       </c>
     </row>
     <row r="33">
@@ -22901,7 +22901,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>14880764.6525601</v>
+        <v>153987734.4805636</v>
       </c>
     </row>
     <row r="34">
@@ -22912,7 +22912,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>11852180.90385124</v>
+        <v>152996642.6919705</v>
       </c>
     </row>
     <row r="35">
@@ -22923,7 +22923,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>10894922.25415206</v>
+        <v>155042496.3080782</v>
       </c>
     </row>
     <row r="36">
@@ -22934,7 +22934,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>15432379.99024772</v>
+        <v>68455248.85936366</v>
       </c>
     </row>
     <row r="37">
@@ -22945,7 +22945,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>10517224.82642171</v>
+        <v>173731614.996713</v>
       </c>
     </row>
     <row r="38">
@@ -22956,7 +22956,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>15361214.22994007</v>
+        <v>68494613.60497355</v>
       </c>
     </row>
     <row r="39">
@@ -22967,7 +22967,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>13413218.20091805</v>
+        <v>157557506.1788989</v>
       </c>
     </row>
     <row r="40">
@@ -22978,7 +22978,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>8324440.267083074</v>
+        <v>166062473.193146</v>
       </c>
     </row>
     <row r="41">
@@ -22989,7 +22989,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>10078116.91979573</v>
+        <v>157527603.9264222</v>
       </c>
     </row>
     <row r="42">
@@ -23000,7 +23000,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>9517930.171392344</v>
+        <v>159631087.841297</v>
       </c>
     </row>
     <row r="43">
@@ -23011,7 +23011,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>14924616.02763454</v>
+        <v>68708945.1638436</v>
       </c>
     </row>
     <row r="44">
@@ -23022,7 +23022,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>10237173.41950819</v>
+        <v>176493323.9217184</v>
       </c>
     </row>
     <row r="45">
@@ -23033,7 +23033,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>14952554.26341131</v>
+        <v>68720660.45044824</v>
       </c>
     </row>
     <row r="46">
@@ -23044,7 +23044,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>12326925.9464633</v>
+        <v>161689351.2049618</v>
       </c>
     </row>
     <row r="47">
@@ -23055,7 +23055,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>15553170.65611573</v>
+        <v>68388434.51193888</v>
       </c>
     </row>
     <row r="48">
@@ -23066,7 +23066,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>14337093.79494978</v>
+        <v>155116472.6800007</v>
       </c>
     </row>
     <row r="49">
@@ -23077,7 +23077,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>15757059.20288194</v>
+        <v>68275655.26611161</v>
       </c>
     </row>
     <row r="50">
@@ -23088,7 +23088,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>15592253.09714176</v>
+        <v>68232636.63526751</v>
       </c>
     </row>
     <row r="51">
@@ -23099,7 +23099,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>11759233.15795435</v>
+        <v>164637900.6008855</v>
       </c>
     </row>
     <row r="52">
@@ -23110,7 +23110,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>11418255.28478753</v>
+        <v>153832954.0035108</v>
       </c>
     </row>
     <row r="53">
@@ -23121,7 +23121,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>14426104.8532215</v>
+        <v>69064595.16413295</v>
       </c>
     </row>
     <row r="54">
@@ -23132,7 +23132,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>15787532.34086164</v>
+        <v>68258799.30449015</v>
       </c>
     </row>
     <row r="55">
@@ -23143,7 +23143,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>14530503.88266835</v>
+        <v>68954114.09164709</v>
       </c>
     </row>
     <row r="56">
@@ -23154,7 +23154,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>9042602.139237579</v>
+        <v>192563301.9722689</v>
       </c>
     </row>
     <row r="57">
@@ -23165,7 +23165,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3714623.03651678</v>
+        <v>252962214.7984976</v>
       </c>
     </row>
     <row r="58">
@@ -23176,7 +23176,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>14713881.7908291</v>
+        <v>68852680.13416508</v>
       </c>
     </row>
     <row r="59">
@@ -23187,7 +23187,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>14173075.61250979</v>
+        <v>69245112.38049883</v>
       </c>
     </row>
     <row r="60">
@@ -23198,7 +23198,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>15734927.34397805</v>
+        <v>68287897.31891704</v>
       </c>
     </row>
     <row r="61">
@@ -23209,7 +23209,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>12330278.57805294</v>
+        <v>161723515.0288115</v>
       </c>
     </row>
     <row r="62">
@@ -23220,7 +23220,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>15556360.77489346</v>
+        <v>68386669.92439556</v>
       </c>
     </row>
     <row r="63">
@@ -23231,7 +23231,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="64">
@@ -23242,7 +23242,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>15196622.95883098</v>
+        <v>68514888.80137065</v>
       </c>
     </row>
     <row r="65">
@@ -23253,7 +23253,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>12036152.86442794</v>
+        <v>163172420.2849106</v>
       </c>
     </row>
     <row r="66">
@@ -23264,7 +23264,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>15343962.69787148</v>
+        <v>68504156.14577302</v>
       </c>
     </row>
     <row r="67">
@@ -23275,7 +23275,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10681476.41161022</v>
+        <v>172785323.8675387</v>
       </c>
     </row>
     <row r="68">
@@ -23286,7 +23286,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>8202072.489149316</v>
+        <v>166890229.5324392</v>
       </c>
     </row>
     <row r="69">
@@ -23297,7 +23297,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>8265318.290755522</v>
+        <v>166457691.4296048</v>
       </c>
     </row>
     <row r="70">
@@ -23308,7 +23308,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>7262318.24174059</v>
+        <v>174694467.1112428</v>
       </c>
     </row>
     <row r="71">
@@ -23319,7 +23319,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4358466.775472678</v>
+        <v>230074211.3262015</v>
       </c>
     </row>
     <row r="72">
@@ -23330,7 +23330,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6598960.621098698</v>
+        <v>182175639.3835852</v>
       </c>
     </row>
     <row r="73">
@@ -23341,7 +23341,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>13497860.72156341</v>
+        <v>153318143.2776757</v>
       </c>
     </row>
     <row r="74">
@@ -23352,7 +23352,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>11207527.10470622</v>
+        <v>168675674.4053533</v>
       </c>
     </row>
     <row r="75">
@@ -23363,7 +23363,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>15440612.55072757</v>
+        <v>68450695.08733051</v>
       </c>
     </row>
     <row r="76">
@@ -23374,7 +23374,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>15620210.06021401</v>
+        <v>68351352.22578388</v>
       </c>
     </row>
     <row r="77">
@@ -23385,7 +23385,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>15893586.88551395</v>
+        <v>68200136.11937186</v>
       </c>
     </row>
     <row r="78">
@@ -23396,7 +23396,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="79">
@@ -23407,7 +23407,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>15319467.61027232</v>
+        <v>68427248.43829936</v>
       </c>
     </row>
     <row r="80">
@@ -23418,7 +23418,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>14243718.05116007</v>
+        <v>69194714.34607965</v>
       </c>
     </row>
     <row r="81">
@@ -23429,7 +23429,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>11275000.89769531</v>
+        <v>167740800.5420159</v>
       </c>
     </row>
     <row r="82">
@@ -23440,7 +23440,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>11124494.19232186</v>
+        <v>154481804.7374096</v>
       </c>
     </row>
     <row r="83">
@@ -23451,7 +23451,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>12152981.52540478</v>
+        <v>152500103.9272394</v>
       </c>
     </row>
     <row r="84">
@@ -23462,7 +23462,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>12581292.31448059</v>
+        <v>68599802.95749058</v>
       </c>
     </row>
     <row r="85">
@@ -23473,7 +23473,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>15122915.3402404</v>
+        <v>68626426.64444079</v>
       </c>
     </row>
     <row r="86">
@@ -23484,7 +23484,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>15876296.16381384</v>
+        <v>68209700.33758852</v>
       </c>
     </row>
     <row r="87">
@@ -23495,7 +23495,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>14176555.26816908</v>
+        <v>155945587.8913524</v>
       </c>
     </row>
     <row r="88">
@@ -23506,7 +23506,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>9261435.489619618</v>
+        <v>160827496.1900521</v>
       </c>
     </row>
     <row r="89">
@@ -23517,7 +23517,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>7442771.263907343</v>
+        <v>172920535.6392345</v>
       </c>
     </row>
     <row r="90">
@@ -23528,7 +23528,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>10565127.57689347</v>
+        <v>162474881.7126663</v>
       </c>
     </row>
     <row r="91">
@@ -23539,7 +23539,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>15455227.81602237</v>
+        <v>68442610.77546673</v>
       </c>
     </row>
     <row r="92">
@@ -23550,7 +23550,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>13984897.69078986</v>
+        <v>155947773.8611678</v>
       </c>
     </row>
     <row r="93">
@@ -23561,7 +23561,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>11186207.21294427</v>
+        <v>154385716.815189</v>
       </c>
     </row>
     <row r="94">
@@ -23572,7 +23572,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4617907.41124785</v>
+        <v>221779480.1235125</v>
       </c>
     </row>
   </sheetData>
@@ -23641,7 +23641,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>131058494.3254194</v>
       </c>
     </row>
     <row r="5">
@@ -23652,7 +23652,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2413345.550477924</v>
       </c>
     </row>
     <row r="6">
@@ -23663,7 +23663,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6389916.638403693</v>
       </c>
     </row>
     <row r="7">
@@ -23674,7 +23674,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3273207.137508361</v>
       </c>
     </row>
     <row r="8">
@@ -23685,7 +23685,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13052971.64697553</v>
       </c>
     </row>
     <row r="9">
@@ -23696,7 +23696,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>62669439.50292609</v>
       </c>
     </row>
     <row r="10">
@@ -23707,7 +23707,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14218976.95938518</v>
       </c>
     </row>
     <row r="11">
@@ -23718,7 +23718,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81913757.21180981</v>
       </c>
     </row>
     <row r="12">
@@ -23729,7 +23729,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>56900892.07707654</v>
       </c>
     </row>
     <row r="13">
@@ -23740,7 +23740,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>89612946.97781889</v>
       </c>
     </row>
     <row r="14">
@@ -23751,7 +23751,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>46601495.82963394</v>
       </c>
     </row>
     <row r="15">
@@ -23762,7 +23762,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25263280.87574057</v>
       </c>
     </row>
     <row r="16">
@@ -23773,7 +23773,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3505311.677364837</v>
       </c>
     </row>
     <row r="17">
@@ -23784,7 +23784,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12362585.78928441</v>
       </c>
     </row>
     <row r="18">
@@ -23806,7 +23806,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>20544679.79412371</v>
       </c>
     </row>
     <row r="20">
@@ -23817,7 +23817,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9221516.200067287</v>
       </c>
     </row>
     <row r="21">
@@ -23861,7 +23861,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27049719.69364135</v>
       </c>
     </row>
     <row r="25">
@@ -23872,7 +23872,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2500785.589685444</v>
       </c>
     </row>
     <row r="26">
@@ -23894,7 +23894,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24969675.44928377</v>
       </c>
     </row>
     <row r="28">
@@ -23905,7 +23905,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>17341146.965811</v>
       </c>
     </row>
     <row r="29">
@@ -23916,7 +23916,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>897516.1433767601</v>
       </c>
     </row>
     <row r="30">
@@ -23927,7 +23927,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10875893.53077593</v>
       </c>
     </row>
     <row r="31">
@@ -23960,7 +23960,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1604513.983641973</v>
       </c>
     </row>
     <row r="34">
@@ -23971,7 +23971,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1514455.115702026</v>
       </c>
     </row>
     <row r="35">
@@ -23982,7 +23982,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4512586.177768977</v>
       </c>
     </row>
     <row r="36">
@@ -24004,7 +24004,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>25711934.32592976</v>
       </c>
     </row>
     <row r="38">
@@ -24026,7 +24026,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6592020.096219346</v>
       </c>
     </row>
     <row r="40">
@@ -24037,7 +24037,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>18056634.81026576</v>
       </c>
     </row>
     <row r="41">
@@ -24048,7 +24048,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7768088.890829278</v>
       </c>
     </row>
     <row r="42">
@@ -24059,7 +24059,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10483150.99748746</v>
       </c>
     </row>
     <row r="43">
@@ -24081,7 +24081,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>28703882.62044868</v>
       </c>
     </row>
     <row r="45">
@@ -24103,7 +24103,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11859969.41413697</v>
       </c>
     </row>
     <row r="47">
@@ -24125,7 +24125,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3227111.003289381</v>
       </c>
     </row>
     <row r="49">
@@ -24158,7 +24158,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>15376211.59856968</v>
       </c>
     </row>
     <row r="52">
@@ -24169,7 +24169,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2779710.842566059</v>
       </c>
     </row>
     <row r="53">
@@ -24213,7 +24213,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>45504329.5548698</v>
       </c>
     </row>
     <row r="57">
@@ -24224,7 +24224,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>109566193.6461836</v>
       </c>
     </row>
     <row r="58">
@@ -24268,7 +24268,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>11840968.5689971</v>
       </c>
     </row>
     <row r="62">
@@ -24312,7 +24312,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>13583999.53872117</v>
       </c>
     </row>
     <row r="66">
@@ -24334,7 +24334,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>24087477.17776694</v>
       </c>
     </row>
     <row r="68">
@@ -24345,7 +24345,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>19006758.92749269</v>
       </c>
     </row>
     <row r="69">
@@ -24356,7 +24356,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>18510975.02305213</v>
       </c>
     </row>
     <row r="70">
@@ -24367,7 +24367,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>27750750.75370498</v>
       </c>
     </row>
     <row r="71">
@@ -24378,7 +24378,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>86034346.43493161</v>
       </c>
     </row>
     <row r="72">
@@ -24389,7 +24389,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>35895280.64668925</v>
       </c>
     </row>
     <row r="73">
@@ -24400,7 +24400,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1159385.304723936</v>
       </c>
     </row>
     <row r="74">
@@ -24411,7 +24411,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>19451777.02248556</v>
       </c>
     </row>
     <row r="75">
@@ -24488,7 +24488,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>18913531.76255902</v>
       </c>
     </row>
     <row r="82">
@@ -24499,7 +24499,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>3722322.668930554</v>
       </c>
     </row>
     <row r="83">
@@ -24510,7 +24510,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>717115.7294173833</v>
       </c>
     </row>
     <row r="84">
@@ -24554,7 +24554,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>3752662.345021758</v>
       </c>
     </row>
     <row r="88">
@@ -24565,7 +24565,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>11884662.58463526</v>
       </c>
     </row>
     <row r="89">
@@ -24576,7 +24576,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>25847757.70290992</v>
       </c>
     </row>
     <row r="90">
@@ -24587,7 +24587,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>13121289.47168456</v>
       </c>
     </row>
     <row r="91">
@@ -24609,7 +24609,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>4410608.288616428</v>
       </c>
     </row>
     <row r="93">
@@ -24620,7 +24620,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3518111.486447579</v>
       </c>
     </row>
     <row r="94">
@@ -24631,7 +24631,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>77480174.59646749</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1884,7 +1884,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1895,7 +1895,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1906,7 +1906,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1917,7 +1917,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1928,7 +1928,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1939,7 +1939,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1950,7 +1950,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1961,7 +1961,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1972,7 +1972,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1983,7 +1983,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1994,7 +1994,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2005,7 +2005,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2016,7 +2016,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2027,7 +2027,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2038,7 +2038,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2049,7 +2049,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2060,7 +2060,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2071,7 +2071,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2082,7 +2082,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2093,7 +2093,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2104,7 +2104,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2115,7 +2115,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2126,7 +2126,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2137,7 +2137,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2148,7 +2148,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2159,7 +2159,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2170,7 +2170,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2181,7 +2181,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2192,7 +2192,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2203,7 +2203,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2214,7 +2214,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2225,7 +2225,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2236,7 +2236,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2247,7 +2247,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2258,7 +2258,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2269,7 +2269,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2280,7 +2280,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2291,7 +2291,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2302,7 +2302,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2313,7 +2313,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2324,7 +2324,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2335,7 +2335,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2346,7 +2346,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2357,7 +2357,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2368,7 +2368,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2379,7 +2379,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2390,7 +2390,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2401,7 +2401,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2412,7 +2412,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2423,7 +2423,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2434,7 +2434,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2445,7 +2445,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2456,7 +2456,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2467,7 +2467,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2478,7 +2478,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2489,7 +2489,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2500,7 +2500,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2511,7 +2511,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2522,7 +2522,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2533,7 +2533,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2544,7 +2544,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2555,7 +2555,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2566,7 +2566,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2577,7 +2577,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2588,7 +2588,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2599,7 +2599,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2610,7 +2610,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2621,7 +2621,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2632,7 +2632,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2643,7 +2643,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2654,7 +2654,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2665,7 +2665,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2676,7 +2676,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2687,7 +2687,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2698,7 +2698,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2709,7 +2709,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2720,7 +2720,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2731,7 +2731,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2742,7 +2742,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2753,7 +2753,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2764,7 +2764,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2775,7 +2775,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2786,7 +2786,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2797,7 +2797,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2808,7 +2808,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2819,7 +2819,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2830,7 +2830,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2841,7 +2841,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2852,7 +2852,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2863,7 +2863,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2874,7 +2874,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2885,7 +2885,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>744.9619962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>1217650.751395741</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="3">
@@ -5061,7 +5061,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>1123739.308889679</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="4">
@@ -5072,7 +5072,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>386633.3291589504</v>
+        <v>631739.1145449403</v>
       </c>
     </row>
     <row r="5">
@@ -5083,7 +5083,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>799999.433359605</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="6">
@@ -5094,7 +5094,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>818302.8365203113</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="7">
@@ -5105,7 +5105,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>1005508.060376935</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="8">
@@ -5116,7 +5116,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>954017.7882545816</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="9">
@@ -5127,7 +5127,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>404671.7770808278</v>
+        <v>647309.2268371487</v>
       </c>
     </row>
     <row r="10">
@@ -5138,7 +5138,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>697911.4566525999</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="11">
@@ -5149,7 +5149,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>351485.446196335</v>
+        <v>600093.1169554387</v>
       </c>
     </row>
     <row r="12">
@@ -5160,7 +5160,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>543606.5465478825</v>
+        <v>751119.6985419701</v>
       </c>
     </row>
     <row r="13">
@@ -5171,7 +5171,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>575377.3209849072</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="14">
@@ -5182,7 +5182,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>464994.7295207384</v>
+        <v>704902.0059467447</v>
       </c>
     </row>
     <row r="15">
@@ -5193,7 +5193,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>709024.0822646281</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="16">
@@ -5204,7 +5204,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>999873.2252078396</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="17">
@@ -5215,7 +5215,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>841283.5512395857</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="18">
@@ -5226,7 +5226,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>1221125.383686164</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="19">
@@ -5237,7 +5237,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>871400.9477447669</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="20">
@@ -5248,7 +5248,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>887679.5994952405</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="21">
@@ -5259,7 +5259,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>1213217.833830066</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="22">
@@ -5270,7 +5270,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>1248583.619157851</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="23">
@@ -5281,7 +5281,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>1247948.420264223</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="24">
@@ -5292,7 +5292,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>817296.7947412585</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="25">
@@ -5303,7 +5303,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>1025071.789030407</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="26">
@@ -5314,7 +5314,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>1128667.216926709</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="27">
@@ -5325,7 +5325,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>833261.1907781613</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="28">
@@ -5336,7 +5336,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>662102.6177296393</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="29">
@@ -5347,7 +5347,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>950855.4554416385</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="30">
@@ -5358,7 +5358,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>742836.1091954594</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="31">
@@ -5369,7 +5369,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>1138293.313915571</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="32">
@@ -5380,7 +5380,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>1244155.362553666</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="33">
@@ -5391,7 +5391,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1171413.496432634</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="34">
@@ -5402,7 +5402,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>932669.9678934494</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="35">
@@ -5413,7 +5413,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>857209.1826827818</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="36">
@@ -5424,7 +5424,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>1214897.382975979</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="37">
@@ -5435,7 +5435,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>827435.2605797661</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="38">
@@ -5446,7 +5446,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>1209287.379708193</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="39">
@@ -5457,7 +5457,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>1055726.678027975</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="40">
@@ -5468,7 +5468,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>654577.8571000271</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="41">
@@ -5479,7 +5479,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>792820.3449176075</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="42">
@@ -5490,7 +5490,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>748660.773298783</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="43">
@@ -5501,7 +5501,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>1174870.304262706</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="44">
@@ -5512,7 +5512,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>805358.7830554445</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="45">
@@ -5523,7 +5523,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>1177072.677894721</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="46">
@@ -5534,7 +5534,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>970094.1621816237</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="47">
@@ -5545,7 +5545,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>1224419.321999862</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="48">
@@ -5556,7 +5556,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1128555.873966309</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="49">
@@ -5567,7 +5567,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>1240491.874427855</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="50">
@@ -5578,7 +5578,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>1227500.19433118</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="51">
@@ -5589,7 +5589,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>925342.8887480741</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="52">
@@ -5600,7 +5600,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>898463.5724246148</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="53">
@@ -5611,7 +5611,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>1135572.623673117</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="54">
@@ -5622,7 +5622,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>1242894.074627878</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="55">
@@ -5633,7 +5633,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>1143802.408527781</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="56">
@@ -5644,7 +5644,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>711190.6218926694</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="57">
@@ -5655,7 +5655,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>291185.551367911</v>
+        <v>502985.2740777971</v>
       </c>
     </row>
     <row r="58">
@@ -5666,7 +5666,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>1158258.105474943</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="59">
@@ -5677,7 +5677,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>1115626.305934056</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="60">
@@ -5688,7 +5688,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>1238747.218005492</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="61">
@@ -5699,7 +5699,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>970358.4504305265</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="62">
@@ -5710,7 +5710,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>1224670.799349226</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="63">
@@ -5721,7 +5721,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>1252670.948607636</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="64">
@@ -5732,7 +5732,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>1196312.635044755</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="65">
@@ -5743,7 +5743,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>947172.4940458391</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="66">
@@ -5754,7 +5754,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>1207927.439887965</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="67">
@@ -5765,7 +5765,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>840383.2277716185</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="68">
@@ -5776,7 +5776,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>644931.5941905536</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="69">
@@ -5787,7 +5787,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>649917.2664035779</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="70">
@@ -5798,7 +5798,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>570850.6825823823</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="71">
@@ -5809,7 +5809,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>341939.8110550416</v>
+        <v>600093.1169554387</v>
       </c>
     </row>
     <row r="72">
@@ -5820,7 +5820,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>518558.1418517785</v>
+        <v>745169.0423959832</v>
       </c>
     </row>
     <row r="73">
@@ -5831,7 +5831,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>1062399.055521891</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="74">
@@ -5842,7 +5842,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>881851.8510889575</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="75">
@@ -5853,7 +5853,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>1215546.35645697</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="76">
@@ -5864,7 +5864,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>1229704.044237578</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="77">
@@ -5875,7 +5875,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>1251254.363894669</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="78">
@@ -5886,7 +5886,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>1252670.948607636</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="79">
@@ -5897,7 +5897,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>1205996.489935601</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="80">
@@ -5908,7 +5908,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>1121195.055708656</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="81">
@@ -5919,7 +5919,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>887170.8162418955</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="82">
@@ -5930,7 +5930,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>875306.359158619</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="83">
@@ -5941,7 +5941,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>956382.1078688052</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="84">
@@ -5952,7 +5952,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>990145.8857861088</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="85">
@@ -5963,7 +5963,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>1190502.25686055</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="86">
@@ -5974,7 +5974,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>1249891.334752274</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="87">
@@ -5985,7 +5985,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>1115900.607501762</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="88">
@@ -5996,7 +5996,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>728441.2745300723</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="89">
@@ -6007,7 +6007,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>585075.8105043086</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="90">
@@ -6018,7 +6018,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>831211.4386957695</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="91">
@@ -6029,7 +6029,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>1216698.479130977</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="92">
@@ -6040,7 +6040,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>1100792.223487519</v>
+        <v>764828.9773403114</v>
       </c>
     </row>
     <row r="93">
@@ -6051,7 +6051,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>880171.2021092187</v>
+        <v>764824.9702807999</v>
       </c>
     </row>
     <row r="94">
@@ -6062,7 +6062,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>362391.5396419826</v>
+        <v>607630.4205134327</v>
       </c>
     </row>
   </sheetData>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>71306400.04671843</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="3">
@@ -6120,7 +6120,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>68587726.33105096</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="4">
@@ -6131,7 +6131,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>144706122.2570557</v>
+        <v>4742768.410980233</v>
       </c>
     </row>
     <row r="5">
@@ -6142,7 +6142,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>151562494.4921427</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="6">
@@ -6153,7 +6153,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>150036363.2332257</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="7">
@@ -6164,7 +6164,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>151564634.0191961</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="8">
@@ -6175,7 +6175,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>149625444.7663889</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="9">
@@ -6186,7 +6186,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>144835651.9603173</v>
+        <v>4859427.462889392</v>
       </c>
     </row>
     <row r="10">
@@ -6197,7 +6197,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>148555547.2532358</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="11">
@@ -6208,7 +6208,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>144160956.154505</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="12">
@@ -6219,7 +6219,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>145705177.1080653</v>
+        <v>5637227.325860668</v>
       </c>
     </row>
     <row r="13">
@@ -6230,7 +6230,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>144872008.8464804</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="14">
@@ -6241,7 +6241,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>145600879.4601014</v>
+        <v>5290941.306954685</v>
       </c>
     </row>
     <row r="15">
@@ -6252,7 +6252,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>147803583.1402144</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="16">
@@ -6263,7 +6263,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>151493153.2535218</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="17">
@@ -6274,7 +6274,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>149353794.7265991</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="18">
@@ -6285,7 +6285,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>68411547.69700919</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="19">
@@ -6296,7 +6296,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>148627219.9331408</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="20">
@@ -6307,7 +6307,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>150069919.737535</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="21">
@@ -6318,7 +6318,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>68467034.06192279</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="22">
@@ -6329,7 +6329,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>68218876.4270215</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="23">
@@ -6340,7 +6340,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>68223333.54436456</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="24">
@@ -6351,7 +6351,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>147891069.0469908</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="25">
@@ -6362,7 +6362,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>151812809.9217079</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="26">
@@ -6373,7 +6373,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>69127090.14792109</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="27">
@@ -6384,7 +6384,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>148143397.6120268</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="28">
@@ -6395,7 +6395,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>148049902.3761155</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="29">
@@ -6406,7 +6406,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>151712879.7855518</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="30">
@@ -6417,7 +6417,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>149074048.0010294</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="31">
@@ -6428,7 +6428,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>69039972.50266798</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="32">
@@ -6439,7 +6439,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>68249948.99265084</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="33">
@@ -6450,7 +6450,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>152383220.4969216</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="34">
@@ -6461,7 +6461,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>151482187.5762684</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="35">
@@ -6472,7 +6472,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>150529910.1303093</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="36">
@@ -6483,7 +6483,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>68455248.85936366</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="37">
@@ -6494,7 +6494,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>148019680.6707832</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="38">
@@ -6505,7 +6505,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>68494613.60497355</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="39">
@@ -6516,7 +6516,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>150965486.0826795</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="40">
@@ -6527,7 +6527,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>148005838.3828803</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="41">
@@ -6538,7 +6538,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>149759515.0355929</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="42">
@@ -6549,7 +6549,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>149147936.8438095</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="43">
@@ -6560,7 +6560,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>68708945.1638436</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="44">
@@ -6571,7 +6571,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>147789441.3012697</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="45">
@@ -6582,7 +6582,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>68720660.45044824</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="46">
@@ -6593,7 +6593,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>149829381.7908248</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="47">
@@ -6604,7 +6604,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>68388434.51193888</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="48">
@@ -6615,7 +6615,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>151889361.6767113</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="49">
@@ -6626,7 +6626,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>68275655.26611161</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="50">
@@ -6637,7 +6637,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>68232636.63526751</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="51">
@@ -6648,7 +6648,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>149261689.0023158</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="52">
@@ -6659,7 +6659,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>151053243.1609447</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="53">
@@ -6670,7 +6670,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>69064595.16413295</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="54">
@@ -6681,7 +6681,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>68258799.30449015</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="55">
@@ -6692,7 +6692,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>68954114.09164709</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="56">
@@ -6703,7 +6703,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>147058972.4173991</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="57">
@@ -6714,7 +6714,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>143396021.152314</v>
+        <v>3778080.380690524</v>
       </c>
     </row>
     <row r="58">
@@ -6725,7 +6725,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>68852680.13416508</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="59">
@@ -6736,7 +6736,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>69245112.38049883</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="60">
@@ -6747,7 +6747,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>68287897.31891704</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="61">
@@ -6758,7 +6758,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>149882546.4598144</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="62">
@@ -6769,7 +6769,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>68386669.92439556</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="63">
@@ -6780,7 +6780,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="64">
@@ -6791,7 +6791,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>68514888.80137065</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="65">
@@ -6802,7 +6802,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>149588420.7461894</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="66">
@@ -6813,7 +6813,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>68504156.14577302</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="67">
@@ -6824,7 +6824,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>148697846.6897717</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="68">
@@ -6835,7 +6835,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>147883470.6049465</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="69">
@@ -6846,7 +6846,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>147946716.4065527</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="70">
@@ -6857,7 +6857,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>146943716.3575378</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="71">
@@ -6868,7 +6868,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>144039864.8912699</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="72">
@@ -6879,7 +6879,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>146280358.7368959</v>
+        <v>5592642.040205687</v>
       </c>
     </row>
     <row r="73">
@@ -6890,7 +6890,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>152158757.9729517</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="74">
@@ -6901,7 +6901,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>149223897.3828677</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="75">
@@ -6912,7 +6912,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>68450695.08733051</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="76">
@@ -6923,7 +6923,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>68351352.22578388</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="77">
@@ -6934,7 +6934,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>68200136.11937186</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="78">
@@ -6945,7 +6945,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="79">
@@ -6956,7 +6956,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>68427248.43829936</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="80">
@@ -6967,7 +6967,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>69194714.34607965</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="81">
@@ -6978,7 +6978,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>148827268.7794568</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="82">
@@ -6989,7 +6989,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>150759482.068479</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="83">
@@ -7000,7 +7000,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>151782988.197822</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="84">
@@ -7011,7 +7011,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>68599802.95749058</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="85">
@@ -7022,7 +7022,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>68626426.64444079</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="86">
@@ -7033,7 +7033,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>68209700.33758852</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="87">
@@ -7044,7 +7044,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>152192925.5463306</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="88">
@@ -7055,7 +7055,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>148942833.6054168</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="89">
@@ -7066,7 +7066,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>147072777.9363245</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="90">
@@ -7077,7 +7077,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>149353592.2409818</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="91">
@@ -7088,7 +7088,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>68442610.77546673</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="92">
@@ -7099,7 +7099,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>151537165.5725513</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="93">
@@ -7110,7 +7110,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>150867605.3287415</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="94">
@@ -7121,7 +7121,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>144299305.527045</v>
+        <v>4562134.043308323</v>
       </c>
     </row>
   </sheetData>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>-1120.0130309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7190,7 +7190,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7201,7 +7201,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7212,7 +7212,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7223,7 +7223,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7234,7 +7234,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7245,7 +7245,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7256,7 +7256,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7267,7 +7267,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7278,7 +7278,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7289,7 +7289,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7300,7 +7300,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7311,7 +7311,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7322,7 +7322,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7333,7 +7333,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7344,7 +7344,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>-950.2274209000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7355,7 +7355,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7366,7 +7366,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7377,7 +7377,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>-824.1907908999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7388,7 +7388,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>-1387.8779609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7399,7 +7399,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>-1377.7536709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7410,7 +7410,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7421,7 +7421,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7432,7 +7432,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>523.4421691000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7443,7 +7443,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7454,7 +7454,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7465,7 +7465,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7476,7 +7476,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7487,7 +7487,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0140091000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7498,7 +7498,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>-1317.296990900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7509,7 +7509,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7520,7 +7520,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7531,7 +7531,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7542,7 +7542,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>-850.9607409000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7553,7 +7553,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7564,7 +7564,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>-761.544180899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7575,7 +7575,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7586,7 +7586,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7597,7 +7597,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7608,7 +7608,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7619,7 +7619,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>-212.9782809000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7641,7 +7641,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>-248.0814109000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7652,7 +7652,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7663,7 +7663,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>-1002.7287509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7674,7 +7674,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7685,7 +7685,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>-1258.905490899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7696,7 +7696,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>-1051.834070899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7707,7 +7707,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7718,7 +7718,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7729,7 +7729,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>413.3784691000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7740,7 +7740,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>-1297.1936109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -7751,7 +7751,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>282.2058091000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -7762,7 +7762,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -7773,7 +7773,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7784,7 +7784,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>51.79975909999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7795,7 +7795,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>731.2982691000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7806,7 +7806,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>-1231.097810900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7817,7 +7817,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7828,7 +7828,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>-1006.736990899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7839,7 +7839,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>-1453.0249709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7850,7 +7850,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>-554.742690900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7861,7 +7861,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7872,7 +7872,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>-739.868410900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7883,7 +7883,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7894,7 +7894,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -7905,7 +7905,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7916,7 +7916,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7927,7 +7927,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7938,7 +7938,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7949,7 +7949,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7960,7 +7960,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7971,7 +7971,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>-861.3045808999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7982,7 +7982,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>-1086.960730900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7993,7 +7993,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>-1430.4463509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -8004,7 +8004,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>-1453.0249709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -8015,7 +8015,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>-709.0914408999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -8026,7 +8026,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>642.5392391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -8037,7 +8037,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8048,7 +8048,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -8059,7 +8059,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -8070,7 +8070,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>-71.69799089999879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -8081,7 +8081,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>-462.1324009000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8092,7 +8092,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>-1408.721340899998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -8103,7 +8103,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -8114,7 +8114,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -8125,7 +8125,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8136,7 +8136,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -8147,7 +8147,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>-879.6680008999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -8158,7 +8158,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -8169,7 +8169,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8180,7 +8180,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>-706221.4131293775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8249,7 +8249,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1282963.693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8260,7 +8260,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8271,7 +8271,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>81886.12965999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8282,7 +8282,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8293,7 +8293,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8304,7 +8304,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8315,7 +8315,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8326,7 +8326,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8337,7 +8337,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8348,7 +8348,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8359,7 +8359,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8370,7 +8370,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8381,7 +8381,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8392,7 +8392,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>502980.0842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8403,7 +8403,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>-477945.4681734314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -8414,7 +8414,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8425,7 +8425,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8436,7 +8436,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>-414551.553403746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8447,7 +8447,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>-698074.9736328062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8458,7 +8458,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>-692982.6573961412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8469,7 +8469,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8480,7 +8480,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8491,7 +8491,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>330055.1494979117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8502,7 +8502,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8513,7 +8513,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8524,7 +8524,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8535,7 +8535,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8546,7 +8546,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>233311.4072559393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8557,7 +8557,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>-662574.151399289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8568,7 +8568,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8579,7 +8579,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8590,7 +8590,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>81886.12965999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8601,7 +8601,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>-428016.3051087767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8612,7 +8612,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8623,7 +8623,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>-383041.5562311016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -8634,7 +8634,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -8645,7 +8645,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -8656,7 +8656,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8667,7 +8667,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8678,7 +8678,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>-134292.9219155608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8689,7 +8689,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -8700,7 +8700,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>-124780.0089429372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8711,7 +8711,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -8722,7 +8722,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>-504352.591557443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -8733,7 +8733,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8744,7 +8744,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>-633204.389812724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -8755,7 +8755,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>-663231.3405601316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -8766,7 +8766,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>769049.2592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -8777,7 +8777,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>81886.12965999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -8788,7 +8788,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>260654.7589633599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -8799,7 +8799,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>-652462.5516341842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -8810,7 +8810,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>141943.9016228478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8821,7 +8821,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1282963.693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -8832,7 +8832,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -8843,7 +8843,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>26054.24719365764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -8854,7 +8854,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>461118.2930683084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8865,7 +8865,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>-619217.6805849182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -8876,7 +8876,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -8887,7 +8887,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>-506368.6564501364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -8898,7 +8898,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>-730842.6222079848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -8909,7 +8909,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>-349791.6151705661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -8920,7 +8920,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -8931,7 +8931,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>-372139.0756114027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -8942,7 +8942,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1282963.693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -8953,7 +8953,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -8964,7 +8964,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -8975,7 +8975,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -8986,7 +8986,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -8997,7 +8997,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -9008,7 +9008,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>502980.0842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -9019,7 +9019,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>1282963.693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -9030,7 +9030,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>-433219.0506229269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -9041,7 +9041,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>-546719.599950176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -9052,7 +9052,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>-719486.0260192648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -9063,7 +9063,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>-730842.6222079848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -9074,7 +9074,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>-447115.8331327083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -9085,7 +9085,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>405151.5088745357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -9096,7 +9096,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -9107,7 +9107,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>81886.12965999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9118,7 +9118,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9129,7 +9129,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>-58710.709791988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9140,7 +9140,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>-232443.3939162304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -9151,7 +9151,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>-708558.7786602181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -9162,7 +9162,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>1282963.693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9173,7 +9173,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -9184,7 +9184,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>76904.92592000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -9195,7 +9195,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>630547.4969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -9206,7 +9206,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>-442455.4851607275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -9217,7 +9217,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>818861.2966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -9228,7 +9228,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -9239,7 +9239,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>128296.3693</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22457,7 +22457,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22473,7 +22473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22481,7 +22481,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22489,7 +22489,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22497,7 +22497,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -22505,7 +22505,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -22513,7 +22513,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -22560,7 +22560,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>71306400.04671843</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="3">
@@ -22571,7 +22571,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>68587726.33105096</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="4">
@@ -22582,7 +22582,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>275764616.5824751</v>
+        <v>4742768.410980233</v>
       </c>
     </row>
     <row r="5">
@@ -22593,7 +22593,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>153975840.0426206</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="6">
@@ -22604,7 +22604,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>156426279.8716294</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="7">
@@ -22615,7 +22615,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>154837841.1567045</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="8">
@@ -22626,7 +22626,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>162678416.4133644</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="9">
@@ -22637,7 +22637,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>207505091.4632434</v>
+        <v>4859427.462889392</v>
       </c>
     </row>
     <row r="10">
@@ -22648,7 +22648,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>162774524.212621</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="11">
@@ -22659,7 +22659,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>226074713.3663148</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="12">
@@ -22670,7 +22670,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>202606069.1851418</v>
+        <v>5637227.325860668</v>
       </c>
     </row>
     <row r="13">
@@ -22681,7 +22681,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>234484955.8242993</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="14">
@@ -22692,7 +22692,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>192202375.2897353</v>
+        <v>5290941.306954685</v>
       </c>
     </row>
     <row r="15">
@@ -22703,7 +22703,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>173066864.015955</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="16">
@@ -22714,7 +22714,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>154998464.9308866</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="17">
@@ -22725,7 +22725,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>161716380.5158835</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="18">
@@ -22736,7 +22736,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>68411547.69700919</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="19">
@@ -22747,7 +22747,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>169171899.7272645</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="20">
@@ -22758,7 +22758,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>159291435.9376023</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="21">
@@ -22769,7 +22769,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>68467034.06192279</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="22">
@@ -22780,7 +22780,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>68218876.4270215</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="23">
@@ -22791,7 +22791,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>68223333.54436456</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="24">
@@ -22802,7 +22802,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>174940788.7406322</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="25">
@@ -22813,7 +22813,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>154313595.5113933</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="26">
@@ -22824,7 +22824,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>69127090.14792109</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="27">
@@ -22835,7 +22835,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>173113073.0613106</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="28">
@@ -22846,7 +22846,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>165391049.3419265</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="29">
@@ -22857,7 +22857,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>152610395.9289285</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="30">
@@ -22868,7 +22868,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>159949941.5318053</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="31">
@@ -22879,7 +22879,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>69039972.50266798</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="32">
@@ -22890,7 +22890,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>68249948.99265084</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="33">
@@ -22901,7 +22901,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>153987734.4805636</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="34">
@@ -22912,7 +22912,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>152996642.6919705</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="35">
@@ -22923,7 +22923,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>155042496.3080782</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="36">
@@ -22934,7 +22934,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>68455248.85936366</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="37">
@@ -22945,7 +22945,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>173731614.996713</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="38">
@@ -22956,7 +22956,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>68494613.60497355</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="39">
@@ -22967,7 +22967,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>157557506.1788989</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="40">
@@ -22978,7 +22978,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>166062473.193146</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="41">
@@ -22989,7 +22989,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>157527603.9264222</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="42">
@@ -23000,7 +23000,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>159631087.841297</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="43">
@@ -23011,7 +23011,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>68708945.1638436</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="44">
@@ -23022,7 +23022,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>176493323.9217184</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="45">
@@ -23033,7 +23033,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>68720660.45044824</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="46">
@@ -23044,7 +23044,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>161689351.2049618</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="47">
@@ -23055,7 +23055,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>68388434.51193888</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="48">
@@ -23066,7 +23066,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>155116472.6800007</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="49">
@@ -23077,7 +23077,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>68275655.26611161</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="50">
@@ -23088,7 +23088,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>68232636.63526751</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="51">
@@ -23099,7 +23099,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>164637900.6008855</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="52">
@@ -23110,7 +23110,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>153832954.0035108</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="53">
@@ -23121,7 +23121,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>69064595.16413295</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="54">
@@ -23132,7 +23132,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>68258799.30449015</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="55">
@@ -23143,7 +23143,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>68954114.09164709</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="56">
@@ -23154,7 +23154,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>192563301.9722689</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="57">
@@ -23165,7 +23165,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>252962214.7984976</v>
+        <v>3778080.380690524</v>
       </c>
     </row>
     <row r="58">
@@ -23176,7 +23176,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>68852680.13416508</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="59">
@@ -23187,7 +23187,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>69245112.38049883</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="60">
@@ -23198,7 +23198,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>68287897.31891704</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="61">
@@ -23209,7 +23209,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>161723515.0288115</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="62">
@@ -23220,7 +23220,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>68386669.92439556</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="63">
@@ -23231,7 +23231,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="64">
@@ -23242,7 +23242,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>68514888.80137065</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="65">
@@ -23253,7 +23253,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>163172420.2849106</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="66">
@@ -23264,7 +23264,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>68504156.14577302</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="67">
@@ -23275,7 +23275,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>172785323.8675387</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="68">
@@ -23286,7 +23286,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>166890229.5324392</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="69">
@@ -23297,7 +23297,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>166457691.4296048</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="70">
@@ -23308,7 +23308,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>174694467.1112428</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="71">
@@ -23319,7 +23319,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>230074211.3262015</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="72">
@@ -23330,7 +23330,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>182175639.3835852</v>
+        <v>5592642.040205687</v>
       </c>
     </row>
     <row r="73">
@@ -23341,7 +23341,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>153318143.2776757</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="74">
@@ -23352,7 +23352,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>168675674.4053533</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="75">
@@ -23363,7 +23363,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>68450695.08733051</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="76">
@@ -23374,7 +23374,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>68351352.22578388</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="77">
@@ -23385,7 +23385,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>68200136.11937186</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="78">
@@ -23396,7 +23396,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="79">
@@ -23407,7 +23407,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>68427248.43829936</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="80">
@@ -23418,7 +23418,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>69194714.34607965</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="81">
@@ -23429,7 +23429,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>167740800.5420159</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="82">
@@ -23440,7 +23440,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>154481804.7374096</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="83">
@@ -23451,7 +23451,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>152500103.9272394</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="84">
@@ -23462,7 +23462,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>68599802.95749058</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="85">
@@ -23473,7 +23473,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>68626426.64444079</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="86">
@@ -23484,7 +23484,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>68209700.33758852</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="87">
@@ -23495,7 +23495,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>155945587.8913524</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="88">
@@ -23506,7 +23506,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>160827496.1900521</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="89">
@@ -23517,7 +23517,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>172920535.6392345</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="90">
@@ -23528,7 +23528,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>162474881.7126663</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="91">
@@ -23539,7 +23539,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>68442610.77546673</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="92">
@@ -23550,7 +23550,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>155947773.8611678</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="93">
@@ -23561,7 +23561,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>154385716.815189</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="94">
@@ -23572,7 +23572,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>221779480.1235125</v>
+        <v>4562134.043308323</v>
       </c>
     </row>
   </sheetData>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -23641,7 +23641,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>131058494.3254194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23652,7 +23652,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2413345.550477924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23663,7 +23663,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6389916.638403693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23674,7 +23674,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3273207.137508361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23685,7 +23685,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>13052971.64697553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23696,7 +23696,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>62669439.50292609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23707,7 +23707,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>14218976.95938518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23718,7 +23718,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>81913757.21180981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23729,7 +23729,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>56900892.07707654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23740,7 +23740,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>89612946.97781889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23751,7 +23751,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>46601495.82963394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23762,7 +23762,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>25263280.87574057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23773,7 +23773,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3505311.677364837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23784,7 +23784,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>12362585.78928441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23806,7 +23806,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>20544679.79412371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23817,7 +23817,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>9221516.200067287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -23861,7 +23861,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>27049719.69364135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -23872,7 +23872,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2500785.589685444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -23894,7 +23894,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>24969675.44928377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -23905,7 +23905,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>17341146.965811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -23916,7 +23916,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>897516.1433767601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -23927,7 +23927,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>10875893.53077593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -23960,7 +23960,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1604513.983641973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -23971,7 +23971,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>1514455.115702026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -23982,7 +23982,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>4512586.177768977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -24004,7 +24004,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>25711934.32592976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -24026,7 +24026,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>6592020.096219346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -24037,7 +24037,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>18056634.81026576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -24048,7 +24048,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>7768088.890829278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -24059,7 +24059,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>10483150.99748746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -24081,7 +24081,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>28703882.62044868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -24103,7 +24103,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>11859969.41413697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -24125,7 +24125,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3227111.003289381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -24158,7 +24158,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>15376211.59856968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -24169,7 +24169,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2779710.842566059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -24213,7 +24213,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>45504329.5548698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -24224,7 +24224,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>109566193.6461836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -24268,7 +24268,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>11840968.5689971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -24312,7 +24312,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>13583999.53872117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -24334,7 +24334,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>24087477.17776694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -24345,7 +24345,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>19006758.92749269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -24356,7 +24356,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>18510975.02305213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -24367,7 +24367,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>27750750.75370498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -24378,7 +24378,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>86034346.43493161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -24389,7 +24389,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>35895280.64668925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -24400,7 +24400,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>1159385.304723936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -24411,7 +24411,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>19451777.02248556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -24488,7 +24488,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>18913531.76255902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -24499,7 +24499,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3722322.668930554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -24510,7 +24510,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>717115.7294173833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -24554,7 +24554,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3752662.345021758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -24565,7 +24565,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>11884662.58463526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -24576,7 +24576,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>25847757.70290992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -24587,7 +24587,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>13121289.47168456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -24609,7 +24609,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>4410608.288616428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -24620,7 +24620,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3518111.486447579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -24631,7 +24631,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>77480174.59646749</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -25725,7 +25725,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -25748,7 +25748,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -25759,7 +25759,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -25770,7 +25770,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -25781,7 +25781,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -25792,7 +25792,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -25803,7 +25803,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -25814,7 +25814,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -25825,7 +25825,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -25836,7 +25836,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -25847,7 +25847,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -25858,7 +25858,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -25869,7 +25869,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -25880,7 +25880,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -25891,7 +25891,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25902,7 +25902,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -25913,7 +25913,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -25924,7 +25924,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -25935,7 +25935,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25946,7 +25946,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -25957,7 +25957,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -25968,7 +25968,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -25979,7 +25979,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -25990,7 +25990,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26001,7 +26001,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -26012,7 +26012,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -26023,7 +26023,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26034,7 +26034,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -26045,7 +26045,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -26056,7 +26056,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26067,7 +26067,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -26078,7 +26078,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -26089,7 +26089,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26100,7 +26100,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -26111,7 +26111,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -26122,7 +26122,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26133,7 +26133,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -26144,7 +26144,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -26155,7 +26155,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26166,7 +26166,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -26177,7 +26177,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -26188,7 +26188,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26199,7 +26199,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26210,7 +26210,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26221,7 +26221,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -26232,7 +26232,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -26243,7 +26243,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -26254,7 +26254,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -26265,7 +26265,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -26276,7 +26276,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -26287,7 +26287,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -26298,7 +26298,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -26309,7 +26309,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -26320,7 +26320,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -26331,7 +26331,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -26342,7 +26342,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -26353,7 +26353,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -26364,7 +26364,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -26375,7 +26375,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -26386,7 +26386,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -26397,7 +26397,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -26408,7 +26408,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -26419,7 +26419,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -26430,7 +26430,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -26441,7 +26441,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -26452,7 +26452,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -26463,7 +26463,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -26474,7 +26474,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -26485,7 +26485,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -26496,7 +26496,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -26507,7 +26507,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -26518,7 +26518,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -26529,7 +26529,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -26540,7 +26540,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -26551,7 +26551,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -26562,7 +26562,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -26573,7 +26573,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -26584,7 +26584,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -26595,7 +26595,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -26606,7 +26606,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -26617,7 +26617,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -26628,7 +26628,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -26639,7 +26639,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -26650,7 +26650,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -26661,7 +26661,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -26672,7 +26672,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -26683,7 +26683,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -26694,7 +26694,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -26705,7 +26705,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -26716,7 +26716,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -26727,7 +26727,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -26738,7 +26738,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -26749,7 +26749,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>312.6424296</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26784,7 +26784,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="3">
@@ -26807,7 +26807,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="4">
@@ -26818,7 +26818,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="5">
@@ -26829,7 +26829,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="6">
@@ -26840,7 +26840,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="7">
@@ -26851,7 +26851,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="8">
@@ -26862,7 +26862,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="9">
@@ -26873,7 +26873,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="10">
@@ -26884,7 +26884,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="11">
@@ -26895,7 +26895,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="12">
@@ -26906,7 +26906,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="13">
@@ -26917,7 +26917,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="14">
@@ -26928,7 +26928,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="15">
@@ -26939,7 +26939,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="16">
@@ -26950,7 +26950,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="17">
@@ -26961,7 +26961,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="18">
@@ -26972,7 +26972,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="19">
@@ -26983,7 +26983,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="20">
@@ -26994,7 +26994,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="21">
@@ -27005,7 +27005,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="22">
@@ -27016,7 +27016,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="23">
@@ -27027,7 +27027,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="24">
@@ -27038,7 +27038,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="25">
@@ -27049,7 +27049,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="26">
@@ -27060,7 +27060,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="27">
@@ -27071,7 +27071,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="28">
@@ -27082,7 +27082,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="29">
@@ -27093,7 +27093,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="30">
@@ -27104,7 +27104,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="31">
@@ -27115,7 +27115,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="32">
@@ -27126,7 +27126,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="33">
@@ -27137,7 +27137,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="34">
@@ -27148,7 +27148,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="35">
@@ -27159,7 +27159,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="36">
@@ -27170,7 +27170,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="37">
@@ -27181,7 +27181,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="38">
@@ -27192,7 +27192,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="39">
@@ -27203,7 +27203,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="40">
@@ -27214,7 +27214,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="41">
@@ -27225,7 +27225,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="42">
@@ -27236,7 +27236,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="43">
@@ -27247,7 +27247,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="44">
@@ -27258,7 +27258,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="45">
@@ -27269,7 +27269,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="46">
@@ -27280,7 +27280,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="47">
@@ -27291,7 +27291,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="48">
@@ -27302,7 +27302,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="49">
@@ -27313,7 +27313,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="50">
@@ -27324,7 +27324,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="51">
@@ -27335,7 +27335,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="52">
@@ -27346,7 +27346,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="53">
@@ -27357,7 +27357,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="54">
@@ -27368,7 +27368,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="55">
@@ -27379,7 +27379,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="56">
@@ -27390,7 +27390,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="57">
@@ -27401,7 +27401,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="58">
@@ -27412,7 +27412,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="59">
@@ -27423,7 +27423,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="60">
@@ -27434,7 +27434,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="61">
@@ -27445,7 +27445,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="62">
@@ -27456,7 +27456,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="63">
@@ -27467,7 +27467,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="64">
@@ -27478,7 +27478,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="65">
@@ -27489,7 +27489,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="66">
@@ -27500,7 +27500,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="67">
@@ -27511,7 +27511,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="68">
@@ -27522,7 +27522,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="69">
@@ -27533,7 +27533,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="70">
@@ -27544,7 +27544,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="71">
@@ -27555,7 +27555,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="72">
@@ -27566,7 +27566,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="73">
@@ -27577,7 +27577,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="74">
@@ -27588,7 +27588,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="75">
@@ -27599,7 +27599,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="76">
@@ -27610,7 +27610,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="77">
@@ -27621,7 +27621,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="78">
@@ -27632,7 +27632,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="79">
@@ -27643,7 +27643,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="80">
@@ -27654,7 +27654,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="81">
@@ -27665,7 +27665,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="82">
@@ -27676,7 +27676,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="83">
@@ -27687,7 +27687,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="84">
@@ -27698,7 +27698,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="85">
@@ -27709,7 +27709,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="86">
@@ -27720,7 +27720,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="87">
@@ -27731,7 +27731,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="88">
@@ -27742,7 +27742,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="89">
@@ -27753,7 +27753,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="90">
@@ -27764,7 +27764,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="91">
@@ -27775,7 +27775,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="92">
@@ -27786,7 +27786,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="93">
@@ -27797,7 +27797,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
     <row r="94">
@@ -27808,7 +27808,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3451.947892865</v>
+        <v>3451.931438</v>
       </c>
     </row>
   </sheetData>
@@ -27843,7 +27843,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="3">
@@ -27866,7 +27866,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="4">
@@ -27877,7 +27877,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="5">
@@ -27888,7 +27888,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="6">
@@ -27899,7 +27899,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="7">
@@ -27910,7 +27910,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="8">
@@ -27921,7 +27921,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="10">
@@ -27943,7 +27943,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="11">
@@ -27954,7 +27954,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="12">
@@ -27965,7 +27965,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="13">
@@ -27976,7 +27976,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="14">
@@ -27987,7 +27987,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="15">
@@ -27998,7 +27998,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="16">
@@ -28009,7 +28009,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="17">
@@ -28020,7 +28020,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="18">
@@ -28031,7 +28031,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="19">
@@ -28042,7 +28042,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="20">
@@ -28053,7 +28053,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="21">
@@ -28064,7 +28064,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="22">
@@ -28075,7 +28075,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="23">
@@ -28086,7 +28086,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="24">
@@ -28097,7 +28097,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="25">
@@ -28108,7 +28108,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="26">
@@ -28119,7 +28119,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="27">
@@ -28130,7 +28130,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="28">
@@ -28141,7 +28141,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="29">
@@ -28152,7 +28152,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="30">
@@ -28163,7 +28163,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="31">
@@ -28174,7 +28174,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="32">
@@ -28185,7 +28185,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="33">
@@ -28196,7 +28196,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="34">
@@ -28207,7 +28207,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="35">
@@ -28218,7 +28218,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="36">
@@ -28229,7 +28229,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="37">
@@ -28240,7 +28240,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="38">
@@ -28251,7 +28251,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="39">
@@ -28262,7 +28262,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="40">
@@ -28273,7 +28273,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="41">
@@ -28284,7 +28284,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="42">
@@ -28295,7 +28295,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="43">
@@ -28306,7 +28306,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="44">
@@ -28317,7 +28317,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="45">
@@ -28328,7 +28328,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="46">
@@ -28339,7 +28339,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="47">
@@ -28350,7 +28350,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="48">
@@ -28361,7 +28361,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="49">
@@ -28372,7 +28372,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="50">
@@ -28383,7 +28383,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="51">
@@ -28394,7 +28394,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="52">
@@ -28405,7 +28405,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="53">
@@ -28416,7 +28416,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="54">
@@ -28427,7 +28427,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="55">
@@ -28438,7 +28438,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="56">
@@ -28449,7 +28449,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="57">
@@ -28460,7 +28460,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="58">
@@ -28471,7 +28471,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="59">
@@ -28482,7 +28482,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="60">
@@ -28493,7 +28493,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="61">
@@ -28504,7 +28504,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="62">
@@ -28515,7 +28515,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="63">
@@ -28526,7 +28526,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="64">
@@ -28537,7 +28537,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="65">
@@ -28548,7 +28548,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="66">
@@ -28559,7 +28559,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="67">
@@ -28570,7 +28570,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="68">
@@ -28581,7 +28581,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="69">
@@ -28592,7 +28592,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="70">
@@ -28603,7 +28603,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="71">
@@ -28614,7 +28614,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="72">
@@ -28625,7 +28625,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="73">
@@ -28636,7 +28636,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="74">
@@ -28647,7 +28647,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="75">
@@ -28658,7 +28658,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="76">
@@ -28669,7 +28669,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="77">
@@ -28680,7 +28680,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="78">
@@ -28691,7 +28691,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="79">
@@ -28702,7 +28702,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="80">
@@ -28713,7 +28713,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="81">
@@ -28724,7 +28724,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="82">
@@ -28735,7 +28735,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="83">
@@ -28746,7 +28746,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="84">
@@ -28757,7 +28757,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="85">
@@ -28768,7 +28768,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="86">
@@ -28779,7 +28779,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="87">
@@ -28790,7 +28790,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="88">
@@ -28801,7 +28801,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="89">
@@ -28812,7 +28812,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="90">
@@ -28823,7 +28823,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="91">
@@ -28834,7 +28834,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="92">
@@ -28845,7 +28845,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="93">
@@ -28856,7 +28856,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
     <row r="94">
@@ -28867,7 +28867,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2768.91872425</v>
+        <v>2768.904962</v>
       </c>
     </row>
   </sheetData>
@@ -28902,7 +28902,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -28914,7 +28914,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="3">
@@ -28925,7 +28925,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="4">
@@ -28936,7 +28936,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="5">
@@ -28947,7 +28947,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="6">
@@ -28958,7 +28958,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="7">
@@ -28969,7 +28969,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="8">
@@ -28980,7 +28980,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="9">
@@ -28991,7 +28991,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="10">
@@ -29002,7 +29002,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="11">
@@ -29013,7 +29013,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="12">
@@ -29024,7 +29024,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="13">
@@ -29035,7 +29035,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="14">
@@ -29046,7 +29046,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="15">
@@ -29057,7 +29057,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="16">
@@ -29068,7 +29068,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="17">
@@ -29079,7 +29079,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="18">
@@ -29090,7 +29090,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="19">
@@ -29101,7 +29101,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="20">
@@ -29112,7 +29112,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="21">
@@ -29123,7 +29123,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="22">
@@ -29134,7 +29134,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="23">
@@ -29145,7 +29145,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="24">
@@ -29156,7 +29156,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="25">
@@ -29167,7 +29167,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="26">
@@ -29178,7 +29178,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="27">
@@ -29189,7 +29189,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="28">
@@ -29200,7 +29200,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="29">
@@ -29211,7 +29211,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="30">
@@ -29222,7 +29222,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="31">
@@ -29233,7 +29233,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="32">
@@ -29244,7 +29244,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="33">
@@ -29255,7 +29255,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="34">
@@ -29266,7 +29266,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="35">
@@ -29277,7 +29277,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="36">
@@ -29288,7 +29288,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="37">
@@ -29299,7 +29299,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="38">
@@ -29310,7 +29310,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="39">
@@ -29321,7 +29321,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="40">
@@ -29332,7 +29332,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="41">
@@ -29343,7 +29343,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="42">
@@ -29354,7 +29354,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="43">
@@ -29365,7 +29365,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="44">
@@ -29376,7 +29376,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="45">
@@ -29387,7 +29387,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="46">
@@ -29398,7 +29398,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="47">
@@ -29409,7 +29409,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="48">
@@ -29420,7 +29420,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="49">
@@ -29431,7 +29431,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="50">
@@ -29442,7 +29442,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="51">
@@ -29453,7 +29453,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="52">
@@ -29464,7 +29464,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="53">
@@ -29475,7 +29475,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="54">
@@ -29486,7 +29486,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="55">
@@ -29497,7 +29497,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="56">
@@ -29508,7 +29508,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="57">
@@ -29519,7 +29519,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="58">
@@ -29530,7 +29530,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="59">
@@ -29541,7 +29541,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="60">
@@ -29552,7 +29552,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="61">
@@ -29563,7 +29563,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="62">
@@ -29574,7 +29574,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="63">
@@ -29585,7 +29585,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="64">
@@ -29596,7 +29596,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="65">
@@ -29607,7 +29607,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="66">
@@ -29618,7 +29618,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="67">
@@ -29629,7 +29629,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="68">
@@ -29640,7 +29640,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="69">
@@ -29651,7 +29651,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="70">
@@ -29662,7 +29662,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="71">
@@ -29673,7 +29673,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="72">
@@ -29684,7 +29684,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="73">
@@ -29695,7 +29695,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="74">
@@ -29706,7 +29706,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="75">
@@ -29717,7 +29717,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="76">
@@ -29728,7 +29728,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="77">
@@ -29739,7 +29739,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="78">
@@ -29750,7 +29750,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="79">
@@ -29761,7 +29761,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="80">
@@ -29772,7 +29772,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="81">
@@ -29783,7 +29783,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="82">
@@ -29794,7 +29794,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="83">
@@ -29805,7 +29805,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="84">
@@ -29816,7 +29816,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="85">
@@ -29827,7 +29827,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="86">
@@ -29838,7 +29838,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="87">
@@ -29849,7 +29849,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="88">
@@ -29860,7 +29860,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="89">
@@ -29871,7 +29871,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="90">
@@ -29882,7 +29882,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="91">
@@ -29893,7 +29893,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="92">
@@ -29904,7 +29904,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="93">
@@ -29915,7 +29915,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
     <row r="94">
@@ -29926,7 +29926,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3242.838314644</v>
+        <v>3242.844747</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -6131,7 +6131,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4742768.410980233</v>
+        <v>14046425.72236278</v>
       </c>
     </row>
     <row r="5">
@@ -6186,7 +6186,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>4859427.462889392</v>
+        <v>13885032.54876038</v>
       </c>
     </row>
     <row r="10">
@@ -6208,7 +6208,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="12">
@@ -6219,7 +6219,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>5637227.325860668</v>
+        <v>13930227.32586067</v>
       </c>
     </row>
     <row r="13">
@@ -6241,7 +6241,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5290941.306954685</v>
+        <v>13583941.30695468</v>
       </c>
     </row>
     <row r="15">
@@ -6714,7 +6714,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3778080.380690524</v>
+        <v>15380436.54137731</v>
       </c>
     </row>
     <row r="58">
@@ -6868,7 +6868,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="72">
@@ -6879,7 +6879,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>5592642.040205687</v>
+        <v>13885642.04020569</v>
       </c>
     </row>
     <row r="73">
@@ -7121,7 +7121,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4562134.043308323</v>
+        <v>14296162.12402704</v>
       </c>
     </row>
   </sheetData>
@@ -7190,7 +7190,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>501.2898235000002</v>
       </c>
     </row>
     <row r="5">
@@ -7245,7 +7245,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>363.3748749999996</v>
       </c>
     </row>
     <row r="10">
@@ -7267,7 +7267,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>781.5028450000001</v>
       </c>
     </row>
     <row r="12">
@@ -7773,7 +7773,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1641.453089</v>
       </c>
     </row>
     <row r="58">
@@ -7927,7 +7927,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>781.5028450000001</v>
       </c>
     </row>
     <row r="72">
@@ -8180,7 +8180,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>714.7553419999996</v>
       </c>
     </row>
   </sheetData>
@@ -8249,7 +8249,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>643136.6432208784</v>
       </c>
     </row>
     <row r="5">
@@ -8304,7 +8304,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>466196.7715734129</v>
       </c>
     </row>
     <row r="10">
@@ -8326,7 +8326,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1002639.776111207</v>
       </c>
     </row>
     <row r="12">
@@ -8832,7 +8832,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2105924.716949697</v>
       </c>
     </row>
     <row r="58">
@@ -8986,7 +8986,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1002639.776111207</v>
       </c>
     </row>
     <row r="72">
@@ -9239,7 +9239,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>917005.1531637975</v>
       </c>
     </row>
   </sheetData>
@@ -22582,7 +22582,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4742768.410980233</v>
+        <v>14046425.72236278</v>
       </c>
     </row>
     <row r="5">
@@ -22637,7 +22637,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>4859427.462889392</v>
+        <v>13885032.54876038</v>
       </c>
     </row>
     <row r="10">
@@ -22659,7 +22659,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="12">
@@ -22670,7 +22670,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>5637227.325860668</v>
+        <v>13930227.32586067</v>
       </c>
     </row>
     <row r="13">
@@ -22692,7 +22692,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5290941.306954685</v>
+        <v>13583941.30695468</v>
       </c>
     </row>
     <row r="15">
@@ -23165,7 +23165,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3778080.380690524</v>
+        <v>15380436.54137731</v>
       </c>
     </row>
     <row r="58">
@@ -23319,7 +23319,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="72">
@@ -23330,7 +23330,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>5592642.040205687</v>
+        <v>13885642.04020569</v>
       </c>
     </row>
     <row r="73">
@@ -23572,7 +23572,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4562134.043308323</v>
+        <v>14296162.12402704</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -456,7 +456,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMOs Volume Limits</t>
+          <t>Long-term WMOs Volume Limits (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1855,7 +1855,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Groundwater</t>
+          <t>Long-term WMO Cost: Groundwater ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Desalination</t>
+          <t>Long-term WMO Cost: Desalination ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2936,7 +2936,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2947,7 +2947,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2958,7 +2958,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2969,7 +2969,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2980,7 +2980,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2991,7 +2991,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3002,7 +3002,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3013,7 +3013,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3024,7 +3024,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3035,7 +3035,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3046,7 +3046,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3057,7 +3057,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3068,7 +3068,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3079,7 +3079,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3090,7 +3090,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3101,7 +3101,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3112,7 +3112,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3123,7 +3123,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3134,7 +3134,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3145,7 +3145,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3156,7 +3156,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3167,7 +3167,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3178,7 +3178,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3189,7 +3189,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3200,7 +3200,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3211,7 +3211,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3222,7 +3222,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3233,7 +3233,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3244,7 +3244,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3255,7 +3255,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3277,7 +3277,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3288,7 +3288,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3299,7 +3299,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3310,7 +3310,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3321,7 +3321,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3332,7 +3332,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3343,7 +3343,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3354,7 +3354,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3365,7 +3365,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3376,7 +3376,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3387,7 +3387,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3398,7 +3398,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3409,7 +3409,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3420,7 +3420,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3431,7 +3431,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3442,7 +3442,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3453,7 +3453,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3464,7 +3464,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3475,7 +3475,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3486,7 +3486,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3497,7 +3497,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3508,7 +3508,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3519,7 +3519,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3530,7 +3530,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3541,7 +3541,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3552,7 +3552,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3563,7 +3563,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3574,7 +3574,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3585,7 +3585,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3596,7 +3596,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3607,7 +3607,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3618,7 +3618,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3629,7 +3629,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3640,7 +3640,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3651,7 +3651,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3662,7 +3662,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3673,7 +3673,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3684,7 +3684,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3695,7 +3695,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3706,7 +3706,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3717,7 +3717,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3728,7 +3728,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3739,7 +3739,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3750,7 +3750,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3761,7 +3761,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3772,7 +3772,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3783,7 +3783,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3794,7 +3794,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3805,7 +3805,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3816,7 +3816,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3827,7 +3827,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3838,7 +3838,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3849,7 +3849,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3860,7 +3860,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3871,7 +3871,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3882,7 +3882,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3893,7 +3893,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3904,7 +3904,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3915,7 +3915,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3926,7 +3926,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3937,7 +3937,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3948,7 +3948,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3451.931438</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +3973,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Recycled</t>
+          <t>Long-term WMO Cost: Recycled ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3995,7 +3995,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="3">
@@ -4006,7 +4006,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="4">
@@ -4017,7 +4017,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="5">
@@ -4028,7 +4028,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="6">
@@ -4039,7 +4039,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="7">
@@ -4050,7 +4050,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="8">
@@ -4061,7 +4061,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="9">
@@ -4072,7 +4072,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="10">
@@ -4083,7 +4083,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="11">
@@ -4094,7 +4094,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="12">
@@ -4105,7 +4105,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="13">
@@ -4116,7 +4116,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="14">
@@ -4127,7 +4127,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="15">
@@ -4138,7 +4138,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="16">
@@ -4149,7 +4149,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="17">
@@ -4160,7 +4160,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="18">
@@ -4171,7 +4171,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="19">
@@ -4182,7 +4182,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="20">
@@ -4193,7 +4193,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="21">
@@ -4204,7 +4204,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="22">
@@ -4215,7 +4215,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="23">
@@ -4226,7 +4226,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="24">
@@ -4237,7 +4237,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="25">
@@ -4248,7 +4248,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="26">
@@ -4259,7 +4259,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="27">
@@ -4270,7 +4270,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="28">
@@ -4281,7 +4281,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="29">
@@ -4292,7 +4292,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="30">
@@ -4303,7 +4303,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="31">
@@ -4314,7 +4314,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="32">
@@ -4325,7 +4325,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="33">
@@ -4336,7 +4336,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="34">
@@ -4347,7 +4347,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="35">
@@ -4358,7 +4358,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="36">
@@ -4369,7 +4369,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="37">
@@ -4380,7 +4380,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="38">
@@ -4391,7 +4391,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="39">
@@ -4402,7 +4402,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="40">
@@ -4413,7 +4413,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="41">
@@ -4424,7 +4424,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="42">
@@ -4435,7 +4435,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="43">
@@ -4446,7 +4446,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="44">
@@ -4457,7 +4457,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="45">
@@ -4468,7 +4468,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="46">
@@ -4479,7 +4479,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="47">
@@ -4490,7 +4490,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="48">
@@ -4501,7 +4501,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="49">
@@ -4512,7 +4512,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="50">
@@ -4523,7 +4523,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="51">
@@ -4534,7 +4534,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="52">
@@ -4545,7 +4545,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="53">
@@ -4556,7 +4556,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="54">
@@ -4567,7 +4567,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="55">
@@ -4578,7 +4578,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="56">
@@ -4589,7 +4589,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="57">
@@ -4600,7 +4600,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="58">
@@ -4611,7 +4611,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="59">
@@ -4622,7 +4622,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="60">
@@ -4633,7 +4633,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="61">
@@ -4644,7 +4644,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="62">
@@ -4655,7 +4655,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="63">
@@ -4666,7 +4666,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="64">
@@ -4677,7 +4677,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="65">
@@ -4688,7 +4688,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="66">
@@ -4699,7 +4699,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="67">
@@ -4710,7 +4710,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="68">
@@ -4721,7 +4721,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="69">
@@ -4732,7 +4732,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="70">
@@ -4743,7 +4743,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="71">
@@ -4754,7 +4754,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="72">
@@ -4765,7 +4765,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="73">
@@ -4776,7 +4776,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="74">
@@ -4787,7 +4787,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="75">
@@ -4798,7 +4798,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="76">
@@ -4809,7 +4809,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="77">
@@ -4820,7 +4820,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="78">
@@ -4831,7 +4831,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="79">
@@ -4842,7 +4842,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="80">
@@ -4853,7 +4853,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="81">
@@ -4864,7 +4864,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="82">
@@ -4875,7 +4875,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="83">
@@ -4886,7 +4886,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="84">
@@ -4897,7 +4897,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="85">
@@ -4908,7 +4908,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="86">
@@ -4919,7 +4919,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="87">
@@ -4930,7 +4930,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="88">
@@ -4941,7 +4941,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="89">
@@ -4952,7 +4952,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="90">
@@ -4963,7 +4963,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="91">
@@ -4974,7 +4974,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="92">
@@ -4985,7 +4985,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="93">
@@ -4996,7 +4996,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
     <row r="94">
@@ -5007,7 +5007,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2855.60359624832</v>
+        <v>11579452.81075017</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5032,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Potable Reuse</t>
+          <t>Long-term WMO Cost: Potable Reuse ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5054,7 +5054,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5065,7 +5065,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5076,7 +5076,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5087,7 +5087,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5098,7 +5098,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5109,7 +5109,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5120,7 +5120,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5131,7 +5131,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5142,7 +5142,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5153,7 +5153,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5164,7 +5164,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5186,7 +5186,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5197,7 +5197,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5208,7 +5208,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5219,7 +5219,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5230,7 +5230,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5241,7 +5241,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5252,7 +5252,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5263,7 +5263,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5274,7 +5274,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5285,7 +5285,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5296,7 +5296,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5307,7 +5307,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5318,7 +5318,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5329,7 +5329,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5340,7 +5340,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5351,7 +5351,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5362,7 +5362,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5373,7 +5373,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5384,7 +5384,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5395,7 +5395,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5406,7 +5406,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5417,7 +5417,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5428,7 +5428,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5439,7 +5439,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5450,7 +5450,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5461,7 +5461,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5472,7 +5472,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5483,7 +5483,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5494,7 +5494,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5505,7 +5505,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5516,7 +5516,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5527,7 +5527,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5538,7 +5538,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5549,7 +5549,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5560,7 +5560,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5571,7 +5571,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5582,7 +5582,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5593,7 +5593,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5604,7 +5604,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5615,7 +5615,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5626,7 +5626,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5637,7 +5637,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5648,7 +5648,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5659,7 +5659,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5670,7 +5670,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5681,7 +5681,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5692,7 +5692,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5703,7 +5703,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5714,7 +5714,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5725,7 +5725,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5736,7 +5736,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5747,7 +5747,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5758,7 +5758,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5769,7 +5769,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5780,7 +5780,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -5791,7 +5791,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -5802,7 +5802,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5813,7 +5813,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5824,7 +5824,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -5835,7 +5835,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5846,7 +5846,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5857,7 +5857,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5868,7 +5868,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5879,7 +5879,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5890,7 +5890,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5901,7 +5901,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5912,7 +5912,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5923,7 +5923,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5934,7 +5934,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5945,7 +5945,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5956,7 +5956,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5967,7 +5967,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5978,7 +5978,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5989,7 +5989,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6000,7 +6000,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6011,7 +6011,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6022,7 +6022,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6033,7 +6033,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6044,7 +6044,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -6055,7 +6055,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -6066,7 +6066,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3242.844747</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6091,7 +6091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Transfers and Exchanges</t>
+          <t>Long-term WMO Cost: Transfers and Exchanges ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -6113,7 +6113,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="3">
@@ -6124,7 +6124,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="4">
@@ -6135,7 +6135,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="5">
@@ -6146,7 +6146,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="6">
@@ -6157,7 +6157,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="7">
@@ -6168,7 +6168,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="8">
@@ -6179,7 +6179,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="9">
@@ -6190,7 +6190,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="10">
@@ -6201,7 +6201,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="11">
@@ -6212,7 +6212,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="12">
@@ -6223,7 +6223,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="13">
@@ -6234,7 +6234,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="14">
@@ -6245,7 +6245,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="15">
@@ -6256,7 +6256,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="16">
@@ -6267,7 +6267,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="17">
@@ -6278,7 +6278,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="18">
@@ -6289,7 +6289,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="19">
@@ -6300,7 +6300,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="20">
@@ -6311,7 +6311,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="21">
@@ -6322,7 +6322,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="22">
@@ -6333,7 +6333,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="23">
@@ -6344,7 +6344,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="24">
@@ -6355,7 +6355,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="25">
@@ -6366,7 +6366,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="26">
@@ -6377,7 +6377,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="27">
@@ -6388,7 +6388,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="28">
@@ -6399,7 +6399,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="29">
@@ -6410,7 +6410,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="30">
@@ -6421,7 +6421,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="31">
@@ -6432,7 +6432,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="32">
@@ -6443,7 +6443,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="33">
@@ -6454,7 +6454,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="34">
@@ -6465,7 +6465,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="35">
@@ -6476,7 +6476,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="36">
@@ -6487,7 +6487,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="37">
@@ -6498,7 +6498,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="38">
@@ -6509,7 +6509,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="39">
@@ -6520,7 +6520,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="40">
@@ -6531,7 +6531,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="41">
@@ -6542,7 +6542,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="42">
@@ -6553,7 +6553,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="43">
@@ -6564,7 +6564,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="44">
@@ -6575,7 +6575,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="45">
@@ -6586,7 +6586,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="46">
@@ -6597,7 +6597,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="47">
@@ -6608,7 +6608,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="48">
@@ -6619,7 +6619,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="49">
@@ -6630,7 +6630,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="50">
@@ -6641,7 +6641,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="51">
@@ -6652,7 +6652,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="52">
@@ -6663,7 +6663,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="53">
@@ -6674,7 +6674,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="54">
@@ -6685,7 +6685,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="55">
@@ -6696,7 +6696,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="56">
@@ -6707,7 +6707,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="57">
@@ -6718,7 +6718,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="58">
@@ -6729,7 +6729,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="59">
@@ -6740,7 +6740,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="60">
@@ -6751,7 +6751,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="61">
@@ -6762,7 +6762,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="62">
@@ -6773,7 +6773,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="63">
@@ -6784,7 +6784,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="64">
@@ -6795,7 +6795,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="65">
@@ -6806,7 +6806,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="66">
@@ -6817,7 +6817,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="67">
@@ -6828,7 +6828,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="68">
@@ -6839,7 +6839,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="69">
@@ -6850,7 +6850,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="70">
@@ -6861,7 +6861,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="71">
@@ -6872,7 +6872,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="72">
@@ -6883,7 +6883,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="73">
@@ -6894,7 +6894,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="74">
@@ -6905,7 +6905,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="75">
@@ -6916,7 +6916,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="76">
@@ -6927,7 +6927,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="77">
@@ -6938,7 +6938,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="78">
@@ -6949,7 +6949,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="79">
@@ -6960,7 +6960,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="80">
@@ -6971,7 +6971,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="81">
@@ -6982,7 +6982,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="82">
@@ -6993,7 +6993,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="83">
@@ -7004,7 +7004,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="84">
@@ -7015,7 +7015,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="85">
@@ -7026,7 +7026,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="86">
@@ -7037,7 +7037,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="87">
@@ -7048,7 +7048,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="88">
@@ -7059,7 +7059,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="89">
@@ -7070,7 +7070,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="90">
@@ -7081,7 +7081,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="91">
@@ -7092,7 +7092,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="92">
@@ -7103,7 +7103,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="93">
@@ -7114,7 +7114,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
     <row r="94">
@@ -7125,7 +7125,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>5371142.84924279</v>
+        <v>5576602.749476292</v>
       </c>
     </row>
   </sheetData>
@@ -7150,7 +7150,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Other</t>
+          <t>Long-term WMO Cost: Other ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -8209,7 +8209,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Conservation</t>
+          <t>Long-term WMO Cost: Conservation ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -9268,7 +9268,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SWP/CVP operations cost</t>
+          <t>SWP/CVP operations cost ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -9290,7 +9290,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="3">
@@ -9301,7 +9301,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="4">
@@ -9323,7 +9323,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="6">
@@ -9334,7 +9334,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="7">
@@ -9345,7 +9345,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="8">
@@ -9356,7 +9356,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="9">
@@ -9367,7 +9367,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>385606.3676370716</v>
+        <v>404671.7770808278</v>
       </c>
     </row>
     <row r="10">
@@ -9378,7 +9378,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="11">
@@ -9422,7 +9422,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>385606.3676370716</v>
+        <v>464994.7295207384</v>
       </c>
     </row>
     <row r="15">
@@ -9433,7 +9433,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="16">
@@ -9444,7 +9444,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="17">
@@ -9455,7 +9455,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="18">
@@ -9466,7 +9466,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="19">
@@ -9477,7 +9477,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="20">
@@ -9488,7 +9488,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="21">
@@ -9499,7 +9499,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="22">
@@ -9510,7 +9510,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="23">
@@ -9521,7 +9521,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="24">
@@ -9532,7 +9532,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="25">
@@ -9543,7 +9543,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="26">
@@ -9554,7 +9554,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="27">
@@ -9565,7 +9565,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="28">
@@ -9576,7 +9576,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="29">
@@ -9587,7 +9587,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="30">
@@ -9598,7 +9598,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="31">
@@ -9609,7 +9609,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="32">
@@ -9620,7 +9620,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="33">
@@ -9631,7 +9631,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="34">
@@ -9642,7 +9642,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="35">
@@ -9653,7 +9653,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="36">
@@ -9664,7 +9664,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="37">
@@ -9675,7 +9675,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="38">
@@ -9686,7 +9686,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="39">
@@ -9697,7 +9697,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="40">
@@ -9708,7 +9708,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="41">
@@ -9719,7 +9719,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="42">
@@ -9730,7 +9730,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="43">
@@ -9741,7 +9741,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="44">
@@ -9752,7 +9752,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="45">
@@ -9763,7 +9763,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="46">
@@ -9774,7 +9774,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="47">
@@ -9785,7 +9785,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="48">
@@ -9796,7 +9796,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="49">
@@ -9807,7 +9807,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="50">
@@ -9818,7 +9818,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="51">
@@ -9829,7 +9829,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="52">
@@ -9840,7 +9840,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="53">
@@ -9851,7 +9851,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="54">
@@ -9862,7 +9862,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="55">
@@ -9873,7 +9873,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="56">
@@ -9884,7 +9884,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>683384.0232480491</v>
+        <v>711190.6218926694</v>
       </c>
     </row>
     <row r="57">
@@ -9906,7 +9906,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="59">
@@ -9917,7 +9917,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="60">
@@ -9928,7 +9928,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="61">
@@ -9939,7 +9939,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="62">
@@ -9950,7 +9950,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="63">
@@ -9961,7 +9961,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="64">
@@ -9972,7 +9972,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="65">
@@ -9983,7 +9983,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="66">
@@ -9994,7 +9994,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="67">
@@ -10005,7 +10005,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="68">
@@ -10016,7 +10016,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="69">
@@ -10027,7 +10027,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="70">
@@ -10038,7 +10038,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="71">
@@ -10060,7 +10060,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="73">
@@ -10071,7 +10071,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="74">
@@ -10082,7 +10082,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="75">
@@ -10093,7 +10093,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="76">
@@ -10104,7 +10104,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="77">
@@ -10115,7 +10115,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="78">
@@ -10126,7 +10126,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="79">
@@ -10137,7 +10137,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="80">
@@ -10148,7 +10148,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="81">
@@ -10159,7 +10159,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="82">
@@ -10170,7 +10170,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="83">
@@ -10181,7 +10181,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="84">
@@ -10192,7 +10192,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="85">
@@ -10203,7 +10203,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="86">
@@ -10214,7 +10214,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="87">
@@ -10225,7 +10225,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="88">
@@ -10236,7 +10236,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="89">
@@ -10247,7 +10247,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="90">
@@ -10258,7 +10258,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="91">
@@ -10269,7 +10269,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>561466.8476153216</v>
+        <v>682271.0604303327</v>
       </c>
     </row>
     <row r="92">
@@ -10280,7 +10280,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>683384.0232480491</v>
+        <v>804188.2360630601</v>
       </c>
     </row>
     <row r="93">
@@ -10291,7 +10291,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>385606.3676370716</v>
+        <v>506410.5804520827</v>
       </c>
     </row>
     <row r="94">
@@ -10327,7 +10327,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reliability Management costs</t>
+          <t>Reliability Management costs ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -10349,7 +10349,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="3">
@@ -10360,7 +10360,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="4">
@@ -10371,7 +10371,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>74609684.54060502</v>
+        <v>86980252.17294382</v>
       </c>
     </row>
     <row r="5">
@@ -10382,7 +10382,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="6">
@@ -10393,7 +10393,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="7">
@@ -10404,7 +10404,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="8">
@@ -10415,7 +10415,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="9">
@@ -10426,7 +10426,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>34636862.16021674</v>
+        <v>46903868.62131204</v>
       </c>
     </row>
     <row r="10">
@@ -10437,7 +10437,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="11">
@@ -10448,7 +10448,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>34761233.58251005</v>
+        <v>88007049.22104913</v>
       </c>
     </row>
     <row r="12">
@@ -10459,7 +10459,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>34877823.78496338</v>
+        <v>88389183.98585439</v>
       </c>
     </row>
     <row r="13">
@@ -10470,7 +10470,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>35328480.30778956</v>
+        <v>85705228.6802958</v>
       </c>
     </row>
     <row r="14">
@@ -10481,7 +10481,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>34636862.16021674</v>
+        <v>87682647.45584138</v>
       </c>
     </row>
     <row r="15">
@@ -10492,7 +10492,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="16">
@@ -10503,7 +10503,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="17">
@@ -10514,7 +10514,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="18">
@@ -10525,7 +10525,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="19">
@@ -10536,7 +10536,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="20">
@@ -10547,7 +10547,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="21">
@@ -10558,7 +10558,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="22">
@@ -10569,7 +10569,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="23">
@@ -10580,7 +10580,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="24">
@@ -10591,7 +10591,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="25">
@@ -10602,7 +10602,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="26">
@@ -10613,7 +10613,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="27">
@@ -10624,7 +10624,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="28">
@@ -10635,7 +10635,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="29">
@@ -10646,7 +10646,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="30">
@@ -10657,7 +10657,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="31">
@@ -10668,7 +10668,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="32">
@@ -10679,7 +10679,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="33">
@@ -10690,7 +10690,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="34">
@@ -10701,7 +10701,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="35">
@@ -10712,7 +10712,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="36">
@@ -10723,7 +10723,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="37">
@@ -10734,7 +10734,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="38">
@@ -10745,7 +10745,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="39">
@@ -10756,7 +10756,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="40">
@@ -10767,7 +10767,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="41">
@@ -10778,7 +10778,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="42">
@@ -10789,7 +10789,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="43">
@@ -10800,7 +10800,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="44">
@@ -10811,7 +10811,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="45">
@@ -10822,7 +10822,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="46">
@@ -10833,7 +10833,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="47">
@@ -10844,7 +10844,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="48">
@@ -10855,7 +10855,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="49">
@@ -10866,7 +10866,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="50">
@@ -10877,7 +10877,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="51">
@@ -10888,7 +10888,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="52">
@@ -10899,7 +10899,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="53">
@@ -10910,7 +10910,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="54">
@@ -10921,7 +10921,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="55">
@@ -10932,7 +10932,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="56">
@@ -10943,7 +10943,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>34934793.77734198</v>
+        <v>87326238.0282841</v>
       </c>
     </row>
     <row r="57">
@@ -10954,7 +10954,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>34981027.87197478</v>
+        <v>85477789.148054</v>
       </c>
     </row>
     <row r="58">
@@ -10965,7 +10965,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="59">
@@ -10976,7 +10976,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="60">
@@ -10987,7 +10987,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="61">
@@ -10998,7 +10998,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="62">
@@ -11009,7 +11009,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="63">
@@ -11020,7 +11020,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="64">
@@ -11031,7 +11031,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="65">
@@ -11042,7 +11042,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="66">
@@ -11053,7 +11053,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="67">
@@ -11064,7 +11064,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="68">
@@ -11075,7 +11075,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="69">
@@ -11086,7 +11086,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="70">
@@ -11097,7 +11097,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="71">
@@ -11108,7 +11108,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>34796027.60825985</v>
+        <v>86121632.8870099</v>
       </c>
     </row>
     <row r="72">
@@ -11119,7 +11119,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="73">
@@ -11130,7 +11130,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="74">
@@ -11141,7 +11141,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="75">
@@ -11152,7 +11152,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="76">
@@ -11163,7 +11163,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="77">
@@ -11174,7 +11174,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="78">
@@ -11185,7 +11185,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="79">
@@ -11196,7 +11196,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="80">
@@ -11207,7 +11207,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="81">
@@ -11218,7 +11218,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="82">
@@ -11229,7 +11229,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="83">
@@ -11240,7 +11240,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="84">
@@ -11251,7 +11251,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="85">
@@ -11262,7 +11262,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="86">
@@ -11273,7 +11273,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="87">
@@ -11284,7 +11284,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="88">
@@ -11295,7 +11295,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="89">
@@ -11306,7 +11306,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="90">
@@ -11317,7 +11317,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="91">
@@ -11328,7 +11328,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="92">
@@ -11339,7 +11339,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="93">
@@ -11350,7 +11350,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="94">
@@ -11361,7 +11361,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>34721480.65978038</v>
+        <v>86381073.52278507</v>
       </c>
     </row>
   </sheetData>
@@ -11386,7 +11386,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Water Market Transfer Deliveries</t>
+          <t>Water Market Transfer Deliveries ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -11430,7 +11430,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>995.4122350999983</v>
       </c>
     </row>
     <row r="5">
@@ -12445,7 +12445,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMOs Optimized Volumes</t>
+          <t>Long-term WMOs Optimized Volumes (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
@@ -12489,7 +12489,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6299.74272</v>
+        <v>4098.47281</v>
       </c>
     </row>
     <row r="7">
@@ -12505,7 +12505,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7209.95551</v>
+        <v>7485.75468</v>
       </c>
     </row>
     <row r="9">
@@ -12538,7 +12538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Water Market Transfer Costs</t>
+          <t>Water Market Transfer Costs ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -12582,7 +12582,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1277077.757201278</v>
       </c>
     </row>
     <row r="5">
@@ -26778,7 +26778,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Excess Supply</t>
+          <t>Excess Supply (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -26800,7 +26800,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>10458.765281</v>
+        <v>8533.294540999999</v>
       </c>
     </row>
     <row r="3">
@@ -26811,7 +26811,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>8961.932261</v>
+        <v>7036.461521000001</v>
       </c>
     </row>
     <row r="4">
@@ -26833,7 +26833,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>6604.916370999999</v>
+        <v>4679.445631000001</v>
       </c>
     </row>
     <row r="6">
@@ -26844,7 +26844,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6896.650131</v>
+        <v>4971.179391000001</v>
       </c>
     </row>
     <row r="7">
@@ -26855,7 +26855,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>7077.471410999999</v>
+        <v>5152.000671</v>
       </c>
     </row>
     <row r="8">
@@ -26866,7 +26866,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>4313.569731</v>
+        <v>2388.098991000001</v>
       </c>
     </row>
     <row r="9">
@@ -26877,7 +26877,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>303.8792039999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -26888,7 +26888,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>4977.759441</v>
+        <v>3052.288701000001</v>
       </c>
     </row>
     <row r="11">
@@ -26932,7 +26932,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>1265.352956999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26943,7 +26943,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2351.881040999999</v>
+        <v>426.4103009999999</v>
       </c>
     </row>
     <row r="16">
@@ -26954,7 +26954,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>6987.659061</v>
+        <v>5062.188321000001</v>
       </c>
     </row>
     <row r="17">
@@ -26965,7 +26965,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>4459.934491</v>
+        <v>2534.463751000001</v>
       </c>
     </row>
     <row r="18">
@@ -26976,7 +26976,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>10514.146651</v>
+        <v>8588.675911000002</v>
       </c>
     </row>
     <row r="19">
@@ -26987,7 +26987,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2996.758791</v>
+        <v>1071.288051000001</v>
       </c>
     </row>
     <row r="20">
@@ -26998,7 +26998,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>5199.430500999999</v>
+        <v>3273.959761</v>
       </c>
     </row>
     <row r="21">
@@ -27009,7 +27009,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>10388.110021</v>
+        <v>8462.639281</v>
       </c>
     </row>
     <row r="22">
@@ -27020,7 +27020,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>10951.797191</v>
+        <v>9026.326451000001</v>
       </c>
     </row>
     <row r="23">
@@ -27031,7 +27031,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>10941.672901</v>
+        <v>9016.202161000001</v>
       </c>
     </row>
     <row r="24">
@@ -27042,7 +27042,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2134.405060999999</v>
+        <v>208.9343210000006</v>
       </c>
     </row>
     <row r="25">
@@ -27053,7 +27053,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>7389.293211</v>
+        <v>5463.822471000001</v>
       </c>
     </row>
     <row r="26">
@@ -27064,7 +27064,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>9040.477061</v>
+        <v>7115.006321000001</v>
       </c>
     </row>
     <row r="27">
@@ -27075,7 +27075,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2388.857921000001</v>
+        <v>463.3871810000019</v>
       </c>
     </row>
     <row r="28">
@@ -27086,7 +27086,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>4407.010541</v>
+        <v>2481.539801000001</v>
       </c>
     </row>
     <row r="29">
@@ -27097,7 +27097,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>9009.376031</v>
+        <v>7083.905291000001</v>
       </c>
     </row>
     <row r="30">
@@ -27108,7 +27108,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>5693.803210999999</v>
+        <v>3768.332471</v>
       </c>
     </row>
     <row r="31">
@@ -27119,7 +27119,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>9193.905220999999</v>
+        <v>7268.434481</v>
       </c>
     </row>
     <row r="32">
@@ -27130,7 +27130,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>10881.216221</v>
+        <v>8955.745481000002</v>
       </c>
     </row>
     <row r="33">
@@ -27141,7 +27141,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>7778.590241</v>
+        <v>5853.119501000001</v>
       </c>
     </row>
     <row r="34">
@@ -27152,7 +27152,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>8719.521701</v>
+        <v>6794.050961000001</v>
       </c>
     </row>
     <row r="35">
@@ -27163,7 +27163,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>7516.769490999999</v>
+        <v>5591.298751</v>
       </c>
     </row>
     <row r="36">
@@ -27174,7 +27174,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>10414.879971</v>
+        <v>8489.409231000001</v>
       </c>
     </row>
     <row r="37">
@@ -27185,7 +27185,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2295.999751000001</v>
+        <v>370.5290110000024</v>
       </c>
     </row>
     <row r="38">
@@ -27196,7 +27196,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>10325.463411</v>
+        <v>8399.992671</v>
       </c>
     </row>
     <row r="39">
@@ -27207,7 +27207,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>5934.684481000002</v>
+        <v>4009.213741000003</v>
       </c>
     </row>
     <row r="40">
@@ -27218,7 +27218,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>4287.075100999999</v>
+        <v>2361.604361</v>
       </c>
     </row>
     <row r="41">
@@ -27229,7 +27229,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>6490.490521</v>
+        <v>4565.019781000001</v>
       </c>
     </row>
     <row r="42">
@@ -27240,7 +27240,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>5786.641200999999</v>
+        <v>3861.170461</v>
       </c>
     </row>
     <row r="43">
@@ -27251,7 +27251,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>9776.897511000001</v>
+        <v>7851.426771000002</v>
       </c>
     </row>
     <row r="44">
@@ -27262,7 +27262,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>1944.127821</v>
+        <v>18.6570810000012</v>
       </c>
     </row>
     <row r="45">
@@ -27273,7 +27273,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>9812.000641000001</v>
+        <v>7886.529901000002</v>
       </c>
     </row>
     <row r="46">
@@ -27284,7 +27284,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.807381000001</v>
+        <v>2644.336641000002</v>
       </c>
     </row>
     <row r="47">
@@ -27295,7 +27295,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>10566.647981</v>
+        <v>8641.177241000001</v>
       </c>
     </row>
     <row r="48">
@@ -27306,7 +27306,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>7095.492391000002</v>
+        <v>5170.021651000003</v>
       </c>
     </row>
     <row r="49">
@@ -27317,7 +27317,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>10822.824721</v>
+        <v>8897.353981</v>
       </c>
     </row>
     <row r="50">
@@ -27328,7 +27328,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>10615.753301</v>
+        <v>8690.282561</v>
       </c>
     </row>
     <row r="51">
@@ -27339,7 +27339,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3856.527061000001</v>
+        <v>1931.056321000002</v>
       </c>
     </row>
     <row r="52">
@@ -27350,7 +27350,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>8174.313780999999</v>
+        <v>6248.843041</v>
       </c>
     </row>
     <row r="53">
@@ -27361,7 +27361,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>9150.540760999998</v>
+        <v>7225.070021</v>
       </c>
     </row>
     <row r="54">
@@ -27372,7 +27372,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>10861.112841</v>
+        <v>8935.642101000001</v>
       </c>
     </row>
     <row r="55">
@@ -27383,7 +27383,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>9281.713420999999</v>
+        <v>7356.242681</v>
       </c>
     </row>
     <row r="56">
@@ -27394,7 +27394,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>443.2030210000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -27416,7 +27416,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>9512.119471</v>
+        <v>7586.648731000001</v>
       </c>
     </row>
     <row r="59">
@@ -27427,7 +27427,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>8832.620960999999</v>
+        <v>6907.150221</v>
       </c>
     </row>
     <row r="60">
@@ -27438,7 +27438,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>10795.017041</v>
+        <v>8869.546301000002</v>
       </c>
     </row>
     <row r="61">
@@ -27449,7 +27449,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>4574.019811</v>
+        <v>2648.549071000001</v>
       </c>
     </row>
     <row r="62">
@@ -27460,7 +27460,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>10570.656221</v>
+        <v>8645.185481</v>
       </c>
     </row>
     <row r="63">
@@ -27471,7 +27471,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>11016.944201</v>
+        <v>9091.473461000001</v>
       </c>
     </row>
     <row r="64">
@@ -27482,7 +27482,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>10118.661921</v>
+        <v>8193.191181000002</v>
       </c>
     </row>
     <row r="65">
@@ -27493,7 +27493,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>4204.464151</v>
+        <v>2278.993411000001</v>
       </c>
     </row>
     <row r="66">
@@ -27504,7 +27504,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>10303.787641</v>
+        <v>8378.316901000002</v>
       </c>
     </row>
     <row r="67">
@@ -27515,7 +27515,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>2502.374441</v>
+        <v>576.9037010000011</v>
       </c>
     </row>
     <row r="68">
@@ -27526,7 +27526,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>4133.325520999999</v>
+        <v>2207.854781</v>
       </c>
     </row>
     <row r="69">
@@ -27537,7 +27537,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>4212.791010999999</v>
+        <v>2287.320271000001</v>
       </c>
     </row>
     <row r="70">
@@ -27548,7 +27548,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>2952.566800999999</v>
+        <v>1027.096061</v>
       </c>
     </row>
     <row r="71">
@@ -27570,7 +27570,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2119.087944999999</v>
+        <v>193.6172050000005</v>
       </c>
     </row>
     <row r="73">
@@ -27581,7 +27581,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>7984.243980999998</v>
+        <v>6058.773240999999</v>
       </c>
     </row>
     <row r="74">
@@ -27592,7 +27592,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3163.333351000001</v>
+        <v>1237.862611000002</v>
       </c>
     </row>
     <row r="75">
@@ -27603,7 +27603,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>10425.223811</v>
+        <v>8499.753070999999</v>
       </c>
     </row>
     <row r="76">
@@ -27614,7 +27614,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>10650.879961</v>
+        <v>8725.409221000002</v>
       </c>
     </row>
     <row r="77">
@@ -27625,7 +27625,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>10994.365581</v>
+        <v>9068.894841000001</v>
       </c>
     </row>
     <row r="78">
@@ -27636,7 +27636,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>11016.944201</v>
+        <v>9091.473461000001</v>
       </c>
     </row>
     <row r="79">
@@ -27647,7 +27647,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>10273.010671</v>
+        <v>8347.539930999999</v>
       </c>
     </row>
     <row r="80">
@@ -27658,7 +27658,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>8921.379991</v>
+        <v>6995.909251000001</v>
       </c>
     </row>
     <row r="81">
@@ -27669,7 +27669,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3248.111121</v>
+        <v>1322.640381000001</v>
       </c>
     </row>
     <row r="82">
@@ -27680,7 +27680,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>7805.216251</v>
+        <v>5879.745511000001</v>
       </c>
     </row>
     <row r="83">
@@ -27691,7 +27691,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>9097.464081</v>
+        <v>7171.993341000001</v>
       </c>
     </row>
     <row r="84">
@@ -27702,7 +27702,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>9635.617220999999</v>
+        <v>7710.146481</v>
       </c>
     </row>
     <row r="85">
@@ -27713,7 +27713,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>10026.051631</v>
+        <v>8100.580891000001</v>
       </c>
     </row>
     <row r="86">
@@ -27724,7 +27724,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>10972.640571</v>
+        <v>9047.169830999999</v>
       </c>
     </row>
     <row r="87">
@@ -27735,7 +27735,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>6893.782991000002</v>
+        <v>4968.312251000003</v>
       </c>
     </row>
     <row r="88">
@@ -27746,7 +27746,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>5464.367231</v>
+        <v>3538.896491000001</v>
       </c>
     </row>
     <row r="89">
@@ -27757,7 +27757,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3179.297864</v>
+        <v>1253.827124000001</v>
       </c>
     </row>
     <row r="90">
@@ -27768,7 +27768,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>4299.397390999999</v>
+        <v>2373.926651</v>
       </c>
     </row>
     <row r="91">
@@ -27779,7 +27779,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>10443.587231</v>
+        <v>8518.116491000001</v>
       </c>
     </row>
     <row r="92">
@@ -27790,7 +27790,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>6652.973910999999</v>
+        <v>4727.503171</v>
       </c>
     </row>
     <row r="93">
@@ -27801,7 +27801,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>7882.755870999999</v>
+        <v>5957.285131000001</v>
       </c>
     </row>
     <row r="94">
@@ -28896,7 +28896,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puts into groundwater bank</t>
+          <t>Puts into groundwater bank (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -29955,7 +29955,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Shortage</t>
+          <t>Total Shortage (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -31014,7 +31014,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Annual Cost</t>
+          <t>Total Annual Cost ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -31036,7 +31036,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="3">
@@ -31047,7 +31047,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="4">
@@ -31058,7 +31058,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>74609684.54060502</v>
+        <v>86980252.17294382</v>
       </c>
     </row>
     <row r="5">
@@ -31069,7 +31069,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="6">
@@ -31080,7 +31080,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="7">
@@ -31091,7 +31091,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="8">
@@ -31102,7 +31102,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="9">
@@ -31113,7 +31113,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>34636862.16021674</v>
+        <v>46903868.62131204</v>
       </c>
     </row>
     <row r="10">
@@ -31124,7 +31124,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="11">
@@ -31135,7 +31135,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>34761233.58251005</v>
+        <v>88007049.22104913</v>
       </c>
     </row>
     <row r="12">
@@ -31146,7 +31146,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>34877823.78496338</v>
+        <v>88389183.98585439</v>
       </c>
     </row>
     <row r="13">
@@ -31157,7 +31157,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>35328480.30778956</v>
+        <v>85705228.6802958</v>
       </c>
     </row>
     <row r="14">
@@ -31168,7 +31168,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>34636862.16021674</v>
+        <v>87682647.45584138</v>
       </c>
     </row>
     <row r="15">
@@ -31179,7 +31179,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="16">
@@ -31190,7 +31190,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="17">
@@ -31201,7 +31201,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="18">
@@ -31212,7 +31212,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="19">
@@ -31223,7 +31223,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="20">
@@ -31234,7 +31234,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="21">
@@ -31245,7 +31245,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="22">
@@ -31256,7 +31256,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="23">
@@ -31267,7 +31267,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="24">
@@ -31278,7 +31278,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="25">
@@ -31289,7 +31289,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="26">
@@ -31300,7 +31300,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="27">
@@ -31311,7 +31311,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="28">
@@ -31322,7 +31322,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="29">
@@ -31333,7 +31333,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="30">
@@ -31344,7 +31344,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="31">
@@ -31355,7 +31355,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="32">
@@ -31366,7 +31366,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="33">
@@ -31377,7 +31377,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="34">
@@ -31388,7 +31388,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="35">
@@ -31399,7 +31399,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="36">
@@ -31410,7 +31410,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="37">
@@ -31421,7 +31421,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="38">
@@ -31432,7 +31432,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="39">
@@ -31443,7 +31443,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="40">
@@ -31454,7 +31454,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="41">
@@ -31465,7 +31465,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="42">
@@ -31476,7 +31476,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="43">
@@ -31487,7 +31487,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="44">
@@ -31498,7 +31498,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="45">
@@ -31509,7 +31509,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="46">
@@ -31520,7 +31520,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="47">
@@ -31531,7 +31531,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="48">
@@ -31542,7 +31542,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="49">
@@ -31553,7 +31553,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="50">
@@ -31564,7 +31564,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="51">
@@ -31575,7 +31575,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="52">
@@ -31586,7 +31586,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="53">
@@ -31597,7 +31597,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="54">
@@ -31608,7 +31608,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="55">
@@ -31619,7 +31619,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="56">
@@ -31630,7 +31630,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>34934793.77734198</v>
+        <v>87326238.0282841</v>
       </c>
     </row>
     <row r="57">
@@ -31641,7 +31641,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>34981027.87197478</v>
+        <v>85477789.148054</v>
       </c>
     </row>
     <row r="58">
@@ -31652,7 +31652,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="59">
@@ -31663,7 +31663,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="60">
@@ -31674,7 +31674,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="61">
@@ -31685,7 +31685,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="62">
@@ -31696,7 +31696,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="63">
@@ -31707,7 +31707,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="64">
@@ -31718,7 +31718,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="65">
@@ -31729,7 +31729,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="66">
@@ -31740,7 +31740,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="67">
@@ -31751,7 +31751,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="68">
@@ -31762,7 +31762,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="69">
@@ -31773,7 +31773,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="70">
@@ -31784,7 +31784,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="71">
@@ -31795,7 +31795,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>34796027.60825985</v>
+        <v>86121632.8870099</v>
       </c>
     </row>
     <row r="72">
@@ -31806,7 +31806,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="73">
@@ -31817,7 +31817,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="74">
@@ -31828,7 +31828,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="75">
@@ -31839,7 +31839,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="76">
@@ -31850,7 +31850,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="77">
@@ -31861,7 +31861,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="78">
@@ -31872,7 +31872,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="79">
@@ -31883,7 +31883,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="80">
@@ -31894,7 +31894,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="81">
@@ -31905,7 +31905,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="82">
@@ -31916,7 +31916,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="83">
@@ -31927,7 +31927,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="84">
@@ -31938,7 +31938,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="85">
@@ -31949,7 +31949,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="86">
@@ -31960,7 +31960,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="87">
@@ -31971,7 +31971,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="88">
@@ -31982,7 +31982,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="89">
@@ -31993,7 +31993,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="90">
@@ -32004,7 +32004,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="91">
@@ -32015,7 +32015,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="92">
@@ -32026,7 +32026,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="93">
@@ -32037,7 +32037,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="94">
@@ -32048,7 +32048,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>34721480.65978038</v>
+        <v>86381073.52278507</v>
       </c>
     </row>
   </sheetData>
@@ -32073,7 +32073,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Economic Loss</t>
+          <t>Total Economic Loss ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -33132,7 +33132,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long-term WMO Cost: Surface</t>
+          <t>Long-term WMO Cost: Surface ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -24,10 +24,16 @@
     <sheet name="LT WMO Cost Other" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="LT WMO Cost Conserv" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="SWP CVP Cost" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Reliability Mgmt Cost" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="WM Transfers" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="WM Transfer Costs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="HydroYearType" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="GW Bank Put Cost" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="GW Bank Take Cost" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="GW Pumping Savings" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Water Treatment Cost" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Distribution Cost" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="WW Treatment Cost" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Reliability Mgmt Cost" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="WM Transfers" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="WM Transfer Costs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="HydroYearType" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10327,7 +10333,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reliability Management costs ($)</t>
+          <t>Groundwater Bank Put Cost ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -10349,7 +10355,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10360,7 +10366,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10371,7 +10377,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>86980252.17294382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10382,7 +10388,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10393,7 +10399,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10404,7 +10410,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10415,7 +10421,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10426,7 +10432,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>46903868.62131204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10437,7 +10443,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -10448,7 +10454,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>88007049.22104913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10459,7 +10465,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>88389183.98585439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10470,7 +10476,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>85705228.6802958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -10481,7 +10487,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>87682647.45584138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -10492,7 +10498,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -10503,7 +10509,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -10514,7 +10520,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -10525,7 +10531,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -10536,7 +10542,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -10547,7 +10553,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -10558,7 +10564,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -10569,7 +10575,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -10580,7 +10586,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10591,7 +10597,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -10602,7 +10608,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -10613,7 +10619,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -10624,7 +10630,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -10635,7 +10641,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -10646,7 +10652,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -10657,7 +10663,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -10668,7 +10674,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10679,7 +10685,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -10690,7 +10696,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10701,7 +10707,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -10712,7 +10718,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -10723,7 +10729,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -10734,7 +10740,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -10745,7 +10751,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -10756,7 +10762,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10767,7 +10773,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -10778,7 +10784,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -10789,7 +10795,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -10800,7 +10806,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -10811,7 +10817,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -10822,7 +10828,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -10833,7 +10839,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -10844,7 +10850,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -10855,7 +10861,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10866,7 +10872,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10877,7 +10883,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10888,7 +10894,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10899,7 +10905,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -10910,7 +10916,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -10921,7 +10927,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10932,7 +10938,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10943,7 +10949,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>87326238.0282841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10954,7 +10960,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>85477789.148054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10965,7 +10971,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10976,7 +10982,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10987,7 +10993,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10998,7 +11004,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11009,7 +11015,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -11020,7 +11026,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -11031,7 +11037,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -11042,7 +11048,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -11053,7 +11059,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -11064,7 +11070,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11075,7 +11081,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11086,7 +11092,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11097,7 +11103,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11108,7 +11114,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>86121632.8870099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11119,7 +11125,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11130,7 +11136,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11141,7 +11147,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11152,7 +11158,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11163,7 +11169,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11174,7 +11180,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -11185,7 +11191,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -11196,7 +11202,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -11207,7 +11213,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -11218,7 +11224,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -11229,7 +11235,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -11240,7 +11246,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -11251,7 +11257,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -11262,7 +11268,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -11273,7 +11279,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -11284,7 +11290,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -11295,7 +11301,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -11306,7 +11312,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -11317,7 +11323,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -11328,7 +11334,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>46708889.18421242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -11339,7 +11345,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>46830960.32135942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -11350,7 +11356,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>46533028.70423418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -11361,7 +11367,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>86381073.52278507</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11386,7 +11392,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Water Market Transfer Deliveries ($)</t>
+          <t>Groundwater Bank Take Cost ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -11430,7 +11436,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>995.4122350999983</v>
+        <v>501840.6537942</v>
       </c>
     </row>
     <row r="5">
@@ -11485,7 +11491,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>472578.7204491176</v>
       </c>
     </row>
     <row r="10">
@@ -11507,7 +11513,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>501840.6537942</v>
       </c>
     </row>
     <row r="12">
@@ -11518,7 +11524,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>501840.6537942</v>
       </c>
     </row>
     <row r="13">
@@ -11529,7 +11535,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28970.5043939824</v>
       </c>
     </row>
     <row r="14">
@@ -12538,7 +12544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Water Market Transfer Costs ($)</t>
+          <t>Groundwater Pumping Savings ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -12582,7 +12588,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1277077.757201278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13581,6 +13587,6360 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Water Treatment Cost ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9031323.466320276</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9844314.507278025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9910358.931573335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9130793.266444083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9866534.982774338</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9657083.091267273</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9160588.540091578</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9366732.942003554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10034803.85146697</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10034750.33794939</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9449800.045801545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Distribution Cost ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11295615.25074635</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12312435.65754594</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12395038.43543103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11420023.66059427</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12340227.1482207</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12078262.44406324</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11457289.06789231</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11715117.04391116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>12550683.61194038</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12550616.68176038</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11819010.34902808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Wastewater Treatment Cost ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5656706.155496287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6165917.396008171</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6207283.858281469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5719008.367652086</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6179835.035099139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6048646.310834445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5737670.42847573</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5866787.529813668</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6285229.061662542</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6285195.543845863</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5918816.028087</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Reliability Management costs ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86980252.17294382</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46903868.62131204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88007049.22104913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88389183.98585439</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>85705228.6802958</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87682647.45584138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>87326238.0282841</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85477789.148054</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>86121632.8870099</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>46708889.18421242</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>46830960.32135942</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>46533028.70423418</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>86381073.52278507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Water Market Transfer Deliveries ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>995.4122350999983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Water Market Transfer Costs ($)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1277077.757201278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/CaUWMET/output.xlsx
+++ b/CaUWMET/output.xlsx
@@ -38481,7 +38481,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>14555.867749</v>
+        <v>6162.460273999999</v>
       </c>
     </row>
     <row r="5">
@@ -38536,7 +38536,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>9809.657749</v>
+        <v>6449.970973</v>
       </c>
     </row>
     <row r="10">
@@ -38558,7 +38558,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>9809.657749</v>
+        <v>5602.2462</v>
       </c>
     </row>
     <row r="12">
@@ -38569,7 +38569,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>12612.657749</v>
+        <v>8664.420512000001</v>
       </c>
     </row>
     <row r="13">
@@ -38580,7 +38580,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>14555.867749</v>
+        <v>9170.807624999999</v>
       </c>
     </row>
     <row r="14">
@@ -38591,7 +38591,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>9809.657749</v>
+        <v>7411.444726</v>
       </c>
     </row>
     <row r="15">
@@ -38602,7 +38602,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>12612.657749</v>
+        <v>11300.97281</v>
       </c>
     </row>
     <row r="16">
@@ -38646,7 +38646,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>14555.867749</v>
+        <v>13889.06056</v>
       </c>
     </row>
     <row r="20">
@@ -38701,7 +38701,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>14555.867749</v>
+        <v>13026.70683</v>
       </c>
     </row>
     <row r="25">
@@ -38734,7 +38734,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>14555.867749</v>
+        <v>13281.15969</v>
       </c>
     </row>
     <row r="28">
@@ -38844,7 +38844,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>14555.867749</v>
+        <v>13188.30152</v>
       </c>
     </row>
     <row r="38">
@@ -38921,7 +38921,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>14555.867749</v>
+        <v>12836.42959</v>
       </c>
     </row>
     <row r="45">
@@ -39053,7 +39053,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>14555.867749</v>
+        <v>11335.50479</v>
       </c>
     </row>
     <row r="57">
@@ -39064,7 +39064,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>9809.657749</v>
+        <v>4641.139957</v>
       </c>
     </row>
     <row r="58">
@@ -39174,7 +39174,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>14555.867749</v>
+        <v>13394.67621</v>
       </c>
     </row>
     <row r="68">
@@ -39207,7 +39207,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>9809.657749</v>
+        <v>9098.65857</v>
       </c>
     </row>
     <row r="71">
@@ -39218,7 +39218,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>9809.657749</v>
+        <v>5450.100503</v>
       </c>
     </row>
     <row r="72">
@@ -39229,7 +39229,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>9809.657749</v>
+        <v>8265.179714</v>
       </c>
     </row>
     <row r="73">
@@ -39251,7 +39251,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>14555.867749</v>
+        <v>14055.63512</v>
       </c>
     </row>
     <row r="75">
@@ -39328,7 +39328,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>14555.867749</v>
+        <v>14140.41289</v>
       </c>
     </row>
     <row r="82">
@@ -39416,7 +39416,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>9809.657749</v>
+        <v>9325.389633000001</v>
       </c>
     </row>
     <row r="90">
@@ -39471,7 +39471,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>9809.657749</v>
+        <v>5776.075931</v>
       </c>
     </row>
   </sheetData>
